--- a/spotifyusernames.xlsx
+++ b/spotifyusernames.xlsx
@@ -1,22 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Dillon\Desktop\Spotify-Playlist-Data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF4E2F69-D507-4232-9CFC-12AC21629191}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Combined" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Dillon" sheetId="2" r:id="rId5"/>
-    <sheet state="hidden" name="Pre Dillon" sheetId="3" r:id="rId6"/>
-    <sheet state="visible" name="AVA" sheetId="4" r:id="rId7"/>
-    <sheet state="visible" name="Jackie" sheetId="5" r:id="rId8"/>
-    <sheet state="visible" name="Thomas" sheetId="6" r:id="rId9"/>
+    <sheet name="Combined" sheetId="1" r:id="rId1"/>
+    <sheet name="Dillon" sheetId="2" r:id="rId2"/>
+    <sheet name="Pre Dillon" sheetId="3" state="hidden" r:id="rId3"/>
+    <sheet name="AVA" sheetId="4" r:id="rId4"/>
+    <sheet name="Jackie" sheetId="5" r:id="rId5"/>
+    <sheet name="Thomas" sheetId="6" r:id="rId6"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="191">
   <si>
     <t>Usernames</t>
   </si>
@@ -580,30 +601,41 @@
   </si>
   <si>
     <t>sbalewlij5gpqkgpucb9jhdy5</t>
+  </si>
+  <si>
+    <t>c7py2hp2gi0laxjassqgspmfe</t>
+  </si>
+  <si>
+    <t>dominatork</t>
+  </si>
+  <si>
+    <t>quinnrennell</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Inconsolata"/>
     </font>
@@ -613,7 +645,7 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -623,71 +655,58 @@
     </fill>
   </fills>
   <borders count="2">
-    <border/>
     <border>
+      <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment vertical="bottom"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="0" xfId="0" applyFill="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="right" vertical="bottom"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -877,6221 +896,6227 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:A1500"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="I194" sqref="I194"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("unique({Dillon!A:A;AVA!A:A;Jackie!A:A;Thomas!A:A})"),"dillon_hong")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("unique({Dillon!A:A;AVA!A:A;Jackie!A:A;Thomas!A:A})"),"dillon_hong")</f>
         <v>dillon_hong</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"benkesman")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"benkesman")</f>
         <v>benkesman</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ericajungg")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ericajungg")</f>
         <v>ericajungg</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"._.avaelise._.")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"._.avaelise._.")</f>
         <v>._.avaelise._.</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"amanda.47smith")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"amanda.47smith")</f>
         <v>amanda.47smith</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"anj3101")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"anj3101")</f>
         <v>anj3101</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"avalouise4")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"avalouise4")</f>
         <v>avalouise4</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"baseballandyj")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"baseballandyj")</f>
         <v>baseballandyj</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"bradyvibert01")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"bradyvibert01")</f>
         <v>bradyvibert01</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"akeerthy")</f>
-        <v>akeerthy</v>
-      </c>
-    </row>
-    <row r="12">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"dylanblackmer")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"dylanblackmer")</f>
         <v>dylanblackmer</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"mafefigueiredo")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"mafefigueiredo")</f>
         <v>mafefigueiredo</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"meganko")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"meganko")</f>
         <v>meganko</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"zldo16vdjwubm71awxj1qdyxh")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"zldo16vdjwubm71awxj1qdyxh")</f>
         <v>zldo16vdjwubm71awxj1qdyxh</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"sarah.madden.117")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"sarah.madden.117")</f>
         <v>sarah.madden.117</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"veilleuxcarter")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"veilleuxcarter")</f>
         <v>veilleuxcarter</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"22tr2xmigensczavptinmcnia")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"22tr2xmigensczavptinmcnia")</f>
         <v>22tr2xmigensczavptinmcnia</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"chambers.abb")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"chambers.abb")</f>
         <v>chambers.abb</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"31ndkivsfx6vvwkam2assakbiyiy")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"31ndkivsfx6vvwkam2assakbiyiy")</f>
         <v>31ndkivsfx6vvwkam2assakbiyiy</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"cara.starnes1")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"cara.starnes1")</f>
         <v>cara.starnes1</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"emilyy_brown")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"emilyy_brown")</f>
         <v>emilyy_brown</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"frannie12401")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"frannie12401")</f>
         <v>frannie12401</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"alysonkoh")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"alysonkoh")</f>
         <v>alysonkoh</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"graceclinger")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"graceclinger")</f>
         <v>graceclinger</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"hauneri")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"hauneri")</f>
         <v>hauneri</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"mcnallyliz")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"mcnallyliz")</f>
         <v>mcnallyliz</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"alannaemmrie")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"alannaemmrie")</f>
         <v>alannaemmrie</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"bl5xfil9goban2wf7kuru3yun")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"bl5xfil9goban2wf7kuru3yun")</f>
         <v>bl5xfil9goban2wf7kuru3yun</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"jackie.spelta")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"jackie.spelta")</f>
         <v>jackie.spelta</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"kmish24")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"kmish24")</f>
         <v>kmish24</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"dgsauer12")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"dgsauer12")</f>
         <v>dgsauer12</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.2142078621E10)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),12142078621)</f>
         <v>12142078621</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"22rk6xb2mk3vr5irf7sa3cv2i")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"22rk6xb2mk3vr5irf7sa3cv2i")</f>
         <v>22rk6xb2mk3vr5irf7sa3cv2i</v>
       </c>
     </row>
-    <row r="35">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.241051055E9)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1241051055)</f>
         <v>1241051055</v>
       </c>
     </row>
-    <row r="36">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.2125704002E10)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),12125704002)</f>
         <v>12125704002</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"amyhalperin")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"amyhalperin")</f>
         <v>amyhalperin</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"brettploss")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"brettploss")</f>
         <v>brettploss</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"maxwadley")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"maxwadley")</f>
         <v>maxwadley</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"nathanhuizar")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"nathanhuizar")</f>
         <v>nathanhuizar</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"21p5ux4o6ok2e4f6k3twbjknq")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"21p5ux4o6ok2e4f6k3twbjknq")</f>
         <v>21p5ux4o6ok2e4f6k3twbjknq</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"29d6kc1yifl37dt0zrnfsrz3q")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"29d6kc1yifl37dt0zrnfsrz3q")</f>
         <v>29d6kc1yifl37dt0zrnfsrz3q</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"mfleisch4")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"mfleisch4")</f>
         <v>mfleisch4</v>
       </c>
     </row>
-    <row r="44">
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.234976516E9)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1234976516)</f>
         <v>1234976516</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"1vtkzvmvwsmzgdnpzo8to7iul")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"1vtkzvmvwsmzgdnpzo8to7iul")</f>
         <v>1vtkzvmvwsmzgdnpzo8to7iul</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"2ell09ce45t46a62g4g4fo58dz")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"2ell09ce45t46a62g4g4fo58dz")</f>
         <v>2ell09ce45t46a62g4g4fo58dz</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"annamcphee01")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"annamcphee01")</f>
         <v>annamcphee01</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"f7ftmxzxvec5xqals2811aivx")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"f7ftmxzxvec5xqals2811aivx")</f>
         <v>f7ftmxzxvec5xqals2811aivx</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"carolinestice")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"carolinestice")</f>
         <v>carolinestice</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"akhicks")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"akhicks")</f>
         <v>akhicks</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"celiapagnucco")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"celiapagnucco")</f>
         <v>celiapagnucco</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"collsharkey")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"collsharkey")</f>
         <v>collsharkey</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"emmadriscoll17")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"emmadriscoll17")</f>
         <v>emmadriscoll17</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"lilyanderson411")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"lilyanderson411")</f>
         <v>lilyanderson411</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"shwetasuri24")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"shwetasuri24")</f>
         <v>shwetasuri24</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"22fgjto3b5xojxjows3l7ulqy")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"22fgjto3b5xojxjows3l7ulqy")</f>
         <v>22fgjto3b5xojxjows3l7ulqy</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"54ddfrbuevxizowa6jkmv4x50")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"54ddfrbuevxizowa6jkmv4x50")</f>
         <v>54ddfrbuevxizowa6jkmv4x50</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"meganmeidixon")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"meganmeidixon")</f>
         <v>meganmeidixon</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"aguerin1616")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"aguerin1616")</f>
         <v>aguerin1616</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"hailey1258")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"hailey1258")</f>
         <v>hailey1258</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"h16af92djcdmhaxrdrosjm18r")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"h16af92djcdmhaxrdrosjm18r")</f>
         <v>h16af92djcdmhaxrdrosjm18r</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"zzmmaann")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"zzmmaann")</f>
         <v>zzmmaann</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"zacharykutnick")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"zacharykutnick")</f>
         <v>zacharykutnick</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"valentina.caceres")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"valentina.caceres")</f>
         <v>valentina.caceres</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuf7hwhuebbenjdx1c3wlh6y2")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"uuf7hwhuebbenjdx1c3wlh6y2")</f>
         <v>uuf7hwhuebbenjdx1c3wlh6y2</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"tunetraffic")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"tunetraffic")</f>
         <v>tunetraffic</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"thepurplepinecone")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"thepurplepinecone")</f>
         <v>thepurplepinecone</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"sz6s46tfek7uk2hvzxj5min58")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"sz6s46tfek7uk2hvzxj5min58")</f>
         <v>sz6s46tfek7uk2hvzxj5min58</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"taylorlove8")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"taylorlove8")</f>
         <v>taylorlove8</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"sophiac11748")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"sophiac11748")</f>
         <v>sophiac11748</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"saraspillman")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"saraspillman")</f>
         <v>saraspillman</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"roseisrael")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"roseisrael")</f>
         <v>roseisrael</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rockingroback")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rockingroback")</f>
         <v>rockingroback</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rachelsoleymani")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rachelsoleymani")</f>
         <v>rachelsoleymani</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"qtgyzg8nnir2n6k54p3usp0bf")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"qtgyzg8nnir2n6k54p3usp0bf")</f>
         <v>qtgyzg8nnir2n6k54p3usp0bf</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"priyagulati1023")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"priyagulati1023")</f>
         <v>priyagulati1023</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"pgraubard")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"pgraubard")</f>
         <v>pgraubard</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"or9riugxvi3rlese2l747wf5q")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"or9riugxvi3rlese2l747wf5q")</f>
         <v>or9riugxvi3rlese2l747wf5q</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"nicolehollyxx")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"nicolehollyxx")</f>
         <v>nicolehollyxx</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"mrnrocks100")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"mrnrocks100")</f>
         <v>mrnrocks100</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"mr.chow")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"mr.chow")</f>
         <v>mr.chow</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"mirthspeight")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"mirthspeight")</f>
         <v>mirthspeight</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"maisieanne-us")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"maisieanne-us")</f>
         <v>maisieanne-us</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"lsj9j3wdscvjd1puesbpaz5w4")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"lsj9j3wdscvjd1puesbpaz5w4")</f>
         <v>lsj9j3wdscvjd1puesbpaz5w4</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"lizzie-176")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"lizzie-176")</f>
         <v>lizzie-176</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"lillydickman")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"lillydickman")</f>
         <v>lillydickman</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"libbymeland")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"libbymeland")</f>
         <v>libbymeland</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"liamdevin30")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"liamdevin30")</f>
         <v>liamdevin30</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"lhrxoxo")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"lhrxoxo")</f>
         <v>lhrxoxo</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"kdwo3t7cf230pp3abs77wcicg")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"kdwo3t7cf230pp3abs77wcicg")</f>
         <v>kdwo3t7cf230pp3abs77wcicg</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"jennamadison04")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"jennamadison04")</f>
         <v>jennamadison04</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"jaschrik204")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"jaschrik204")</f>
         <v>jaschrik204</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"jaduffy12")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"jaduffy12")</f>
         <v>jaduffy12</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"izzs123")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"izzs123")</f>
         <v>izzs123</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ilovecheese22")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ilovecheese22")</f>
         <v>ilovecheese22</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"hugeaxe")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"hugeaxe")</f>
         <v>hugeaxe</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ghill52")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ghill52")</f>
         <v>ghill52</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"emmiewells")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"emmiewells")</f>
         <v>emmiewells</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"emmamarieb32")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"emmamarieb32")</f>
         <v>emmamarieb32</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ebmnyy")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ebmnyy")</f>
         <v>ebmnyy</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ebgq4j0ch8y6k1bu1fpy37qzi")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ebgq4j0ch8y6k1bu1fpy37qzi")</f>
         <v>ebgq4j0ch8y6k1bu1fpy37qzi</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"dara_amin")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"dara_amin")</f>
         <v>dara_amin</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"courtneyemde")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"courtneyemde")</f>
         <v>courtneyemde</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"cassiealexe")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"cassiealexe")</f>
         <v>cassiealexe</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"calliebeckk")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"calliebeckk")</f>
         <v>calliebeckk</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"boatscuba")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"boatscuba")</f>
         <v>boatscuba</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"bellatracyy")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"bellatracyy")</f>
         <v>bellatracyy</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"arii1017")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"arii1017")</f>
         <v>arii1017</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"alli_lapham")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"alli_lapham")</f>
         <v>alli_lapham</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"alanagartenberg")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"alanagartenberg")</f>
         <v>alanagartenberg</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"_emily612_")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"_emily612_")</f>
         <v>_emily612_</v>
       </c>
     </row>
-    <row r="112">
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.286382472E9)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1286382472)</f>
         <v>1286382472</v>
       </c>
     </row>
-    <row r="113">
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.271523985E9)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1271523985)</f>
         <v>1271523985</v>
       </c>
     </row>
-    <row r="114">
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.269639073E9)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1269639073)</f>
         <v>1269639073</v>
       </c>
     </row>
-    <row r="115">
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.24401112E9)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1244011120)</f>
         <v>1244011120</v>
       </c>
     </row>
-    <row r="116">
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.226637596E9)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1226637596)</f>
         <v>1226637596</v>
       </c>
     </row>
-    <row r="117">
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.2185521121E10)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),12185521121)</f>
         <v>12185521121</v>
       </c>
     </row>
-    <row r="118">
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.2159419254E10)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),12159419254)</f>
         <v>12159419254</v>
       </c>
     </row>
-    <row r="119">
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.2154940103E10)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),12154940103)</f>
         <v>12154940103</v>
       </c>
     </row>
-    <row r="120">
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.2144024723E10)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),12144024723)</f>
         <v>12144024723</v>
       </c>
     </row>
-    <row r="121">
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.216762233E10)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),12167622330)</f>
         <v>12167622330</v>
       </c>
     </row>
-    <row r="122">
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.271044398E9)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1271044398)</f>
         <v>1271044398</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"u3pyqn5ozjik3ob6vksr9m1l4")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"u3pyqn5ozjik3ob6vksr9m1l4")</f>
         <v>u3pyqn5ozjik3ob6vksr9m1l4</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"22zjuyaim4tew5frhmtahobxa")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"22zjuyaim4tew5frhmtahobxa")</f>
         <v>22zjuyaim4tew5frhmtahobxa</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rajiv.parimi")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rajiv.parimi")</f>
         <v>rajiv.parimi</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"22ebummzepkiv5d2yjlfosmbq")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"22ebummzepkiv5d2yjlfosmbq")</f>
         <v>22ebummzepkiv5d2yjlfosmbq</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"benedaniel2")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"benedaniel2")</f>
         <v>benedaniel2</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"bubblesparks14")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"bubblesparks14")</f>
         <v>bubblesparks14</v>
       </c>
     </row>
-    <row r="129">
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.2166092698E10)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),12166092698)</f>
         <v>12166092698</v>
       </c>
     </row>
-    <row r="130">
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.220769758E9)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1220769758)</f>
         <v>1220769758</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"claire_sweeney")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"claire_sweeney")</f>
         <v>claire_sweeney</v>
       </c>
     </row>
-    <row r="132">
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.245165249E9)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1245165249)</f>
         <v>1245165249</v>
       </c>
     </row>
-    <row r="133">
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.2145283143E10)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),12145283143)</f>
         <v>12145283143</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"bnads22")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"bnads22")</f>
         <v>bnads22</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"helenanitschky")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"helenanitschky")</f>
         <v>helenanitschky</v>
       </c>
     </row>
-    <row r="136">
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"21cn44bmnyexcogxmasn5y6ey")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"21cn44bmnyexcogxmasn5y6ey")</f>
         <v>21cn44bmnyexcogxmasn5y6ey</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"21qjyiyvrleurupbevdvzcrja")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"21qjyiyvrleurupbevdvzcrja")</f>
         <v>21qjyiyvrleurupbevdvzcrja</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.2141206586E10)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),12141206586)</f>
         <v>12141206586</v>
       </c>
     </row>
-    <row r="139">
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"_coveringmysunshine")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"_coveringmysunshine")</f>
         <v>_coveringmysunshine</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.2146507358E10)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),12146507358)</f>
         <v>12146507358</v>
       </c>
     </row>
-    <row r="141">
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"bellaarod")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"bellaarod")</f>
         <v>bellaarod</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"awandoff")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"awandoff")</f>
         <v>awandoff</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"tidball13")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"tidball13")</f>
         <v>tidball13</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"goblinmiller")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"goblinmiller")</f>
         <v>goblinmiller</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.270601874E9)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1270601874)</f>
         <v>1270601874</v>
       </c>
     </row>
-    <row r="146">
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.225702178E9)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1225702178)</f>
         <v>1225702178</v>
       </c>
     </row>
-    <row r="147">
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"223jpszrbl5uc5o3lzrsaxzai")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"223jpszrbl5uc5o3lzrsaxzai")</f>
         <v>223jpszrbl5uc5o3lzrsaxzai</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"22kkamfbjo5qu4wfmlvtrfkoa")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"22kkamfbjo5qu4wfmlvtrfkoa")</f>
         <v>22kkamfbjo5qu4wfmlvtrfkoa</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"yao.e1000")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"yao.e1000")</f>
         <v>yao.e1000</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"jacob.stanley10")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"jacob.stanley10")</f>
         <v>jacob.stanley10</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rhosalli")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rhosalli")</f>
         <v>rhosalli</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"extremehugger")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"extremehugger")</f>
         <v>extremehugger</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.2145018612E10)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),12145018612)</f>
         <v>12145018612</v>
       </c>
     </row>
-    <row r="154">
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"charlotteum")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"charlotteum")</f>
         <v>charlotteum</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"-elliem-")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"-elliem-")</f>
         <v>-elliem-</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"bigblue3101")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"bigblue3101")</f>
         <v>bigblue3101</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"bhzlrvgqgy9gvz1m1qxxskbr9")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"bhzlrvgqgy9gvz1m1qxxskbr9")</f>
         <v>bhzlrvgqgy9gvz1m1qxxskbr9</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.2101104563E10)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),12101104563)</f>
         <v>12101104563</v>
       </c>
     </row>
-    <row r="159">
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"223s7cmbuyammroln7pweqnsq")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"223s7cmbuyammroln7pweqnsq")</f>
         <v>223s7cmbuyammroln7pweqnsq</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"22qph5lm4wqjpqtu3a2jkuwba")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"22qph5lm4wqjpqtu3a2jkuwba")</f>
         <v>22qph5lm4wqjpqtu3a2jkuwba</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.269709213E9)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1269709213)</f>
         <v>1269709213</v>
       </c>
     </row>
-    <row r="162">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"alliecat814")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"alliecat814")</f>
         <v>alliecat814</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"p3z8atkqv8cqmbz7llnl4rmr5")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"p3z8atkqv8cqmbz7llnl4rmr5")</f>
         <v>p3z8atkqv8cqmbz7llnl4rmr5</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rhirsh10")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rhirsh10")</f>
         <v>rhirsh10</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"47nfpjk3l2j9vn2n59n8bfupq")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"47nfpjk3l2j9vn2n59n8bfupq")</f>
         <v>47nfpjk3l2j9vn2n59n8bfupq</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"07beardo")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"07beardo")</f>
         <v>07beardo</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"claudiarubaaaa")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"claudiarubaaaa")</f>
         <v>claudiarubaaaa</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"annabelge7")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"annabelge7")</f>
         <v>annabelge7</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"kanedabeast")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"kanedabeast")</f>
         <v>kanedabeast</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rkrouse43")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rkrouse43")</f>
         <v>rkrouse43</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"elizabethdavis532")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"elizabethdavis532")</f>
         <v>elizabethdavis532</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"laura_gymnast13")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"laura_gymnast13")</f>
         <v>laura_gymnast13</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"lcuneaz24")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"lcuneaz24")</f>
         <v>lcuneaz24</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.275586189E9)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1275586189)</f>
         <v>1275586189</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.2171567532E10)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),12171567532)</f>
         <v>12171567532</v>
       </c>
     </row>
-    <row r="176">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.2143166687E10)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),12143166687)</f>
         <v>12143166687</v>
       </c>
     </row>
-    <row r="177">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"julia.vanitvelt")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"julia.vanitvelt")</f>
         <v>julia.vanitvelt</v>
       </c>
     </row>
-    <row r="178">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.254880334E9)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1254880334)</f>
         <v>1254880334</v>
       </c>
     </row>
-    <row r="179">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"226y4gt2unai3kc4vhaxc4t7q")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"226y4gt2unai3kc4vhaxc4t7q")</f>
         <v>226y4gt2unai3kc4vhaxc4t7q</v>
       </c>
     </row>
-    <row r="180">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"alicehill99")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"alicehill99")</f>
         <v>alicehill99</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.2151967606E10)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),12151967606)</f>
         <v>12151967606</v>
       </c>
     </row>
-    <row r="182">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"juliasullivantrack")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"juliasullivantrack")</f>
         <v>juliasullivantrack</v>
       </c>
     </row>
-    <row r="183">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"7gm6s9dk9y8xvfbb96hzg4qnl")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"7gm6s9dk9y8xvfbb96hzg4qnl")</f>
         <v>7gm6s9dk9y8xvfbb96hzg4qnl</v>
       </c>
     </row>
-    <row r="184">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"haileywheeler123")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"haileywheeler123")</f>
         <v>haileywheeler123</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"brookegoldfarbb")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"brookegoldfarbb")</f>
         <v>brookegoldfarbb</v>
       </c>
     </row>
-    <row r="186">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"31zkkfvct6liktwl4n4qr3oykgni")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"31zkkfvct6liktwl4n4qr3oykgni")</f>
         <v>31zkkfvct6liktwl4n4qr3oykgni</v>
       </c>
     </row>
-    <row r="187">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"allienadelman")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"allienadelman")</f>
         <v>allienadelman</v>
       </c>
     </row>
-    <row r="188">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ellen_bakerr")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ellen_bakerr")</f>
         <v>ellen_bakerr</v>
       </c>
     </row>
-    <row r="189">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"sparkleefish")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"sparkleefish")</f>
         <v>sparkleefish</v>
       </c>
     </row>
-    <row r="190">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"zoi.crampton")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"zoi.crampton")</f>
         <v>zoi.crampton</v>
       </c>
     </row>
-    <row r="191">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"anna_vanderlaan")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"anna_vanderlaan")</f>
         <v>anna_vanderlaan</v>
       </c>
     </row>
-    <row r="192">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"22i4v25hkthclfxqclydjksgy")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"22i4v25hkthclfxqclydjksgy")</f>
         <v>22i4v25hkthclfxqclydjksgy</v>
       </c>
     </row>
-    <row r="193">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"0lhsehcxvncfkjwe6us0dwj54")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"0lhsehcxvncfkjwe6us0dwj54")</f>
         <v>0lhsehcxvncfkjwe6us0dwj54</v>
       </c>
     </row>
-    <row r="194">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"djhargitt")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"djhargitt")</f>
         <v>djhargitt</v>
       </c>
     </row>
-    <row r="195">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"maggieclark1234")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"maggieclark1234")</f>
         <v>maggieclark1234</v>
       </c>
     </row>
-    <row r="196">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.294124325E9)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1294124325)</f>
         <v>1294124325</v>
       </c>
     </row>
-    <row r="197">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"maxpaull")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"maxpaull")</f>
         <v>maxpaull</v>
       </c>
     </row>
-    <row r="198">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"gwennybarnes")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"gwennybarnes")</f>
         <v>gwennybarnes</v>
       </c>
     </row>
-    <row r="199">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.2138485512E10)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),12138485512)</f>
         <v>12138485512</v>
       </c>
     </row>
-    <row r="200">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200" s="2">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1.273856658E9)</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),1273856658)</f>
         <v>1273856658</v>
       </c>
     </row>
-    <row r="201">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201" s="2"/>
     </row>
-    <row r="202">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A202" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Claudia.hastings0717")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Claudia.hastings0717")</f>
         <v>Claudia.hastings0717</v>
       </c>
     </row>
-    <row r="203">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A203" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"seapanda02")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"seapanda02")</f>
         <v>seapanda02</v>
       </c>
     </row>
-    <row r="204">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A204" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"minto45")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"minto45")</f>
         <v>minto45</v>
       </c>
     </row>
-    <row r="205">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A205" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"lbrockwell3")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"lbrockwell3")</f>
         <v>lbrockwell3</v>
       </c>
     </row>
-    <row r="206">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A206" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"sht6dz4j702fbpbi0bsdcpjbu")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"sht6dz4j702fbpbi0bsdcpjbu")</f>
         <v>sht6dz4j702fbpbi0bsdcpjbu</v>
       </c>
     </row>
-    <row r="207">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A207" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"417T6uUZED6VM8euKbFDnM")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"417T6uUZED6VM8euKbFDnM")</f>
         <v>417T6uUZED6VM8euKbFDnM</v>
       </c>
     </row>
-    <row r="208">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A208" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ryguy829")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ryguy829")</f>
         <v>ryguy829</v>
       </c>
     </row>
-    <row r="209">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A209" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"5g6wujia2mpdz49g9ifskqmt8")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"5g6wujia2mpdz49g9ifskqmt8")</f>
         <v>5g6wujia2mpdz49g9ifskqmt8</v>
       </c>
     </row>
-    <row r="210">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A210" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ashleydiazdl")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ashleydiazdl")</f>
         <v>ashleydiazdl</v>
       </c>
     </row>
-    <row r="211">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A211" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"2m91c7srplu1xe9q5ca5xk8fk")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"2m91c7srplu1xe9q5ca5xk8fk")</f>
         <v>2m91c7srplu1xe9q5ca5xk8fk</v>
       </c>
     </row>
-    <row r="212">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A212" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"cinnamon122")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"cinnamon122")</f>
         <v>cinnamon122</v>
       </c>
     </row>
-    <row r="213">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A213" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"graceshapiro1903")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"graceshapiro1903")</f>
         <v>graceshapiro1903</v>
       </c>
     </row>
-    <row r="214">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A214" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"dizxi4lkttkiyprdepck004y4")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"dizxi4lkttkiyprdepck004y4")</f>
         <v>dizxi4lkttkiyprdepck004y4</v>
       </c>
     </row>
-    <row r="215">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A215" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"cole_wolf16")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"cole_wolf16")</f>
         <v>cole_wolf16</v>
       </c>
     </row>
-    <row r="216">
-      <c r="A216" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"quinnrennell ")</f>
-        <v>quinnrennell </v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"dominatork ")</f>
-        <v>dominatork </v>
-      </c>
-    </row>
-    <row r="218">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A216" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A217" s="2" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A218" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"spamjcooper3459")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"spamjcooper3459")</f>
         <v>spamjcooper3459</v>
       </c>
     </row>
-    <row r="219">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A219" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"5z5uf9efaqg4b9cr5eiku8rdv")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"5z5uf9efaqg4b9cr5eiku8rdv")</f>
         <v>5z5uf9efaqg4b9cr5eiku8rdv</v>
       </c>
     </row>
-    <row r="220">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A220" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"22jmljvsabjrtfn3676bpqjpy")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"22jmljvsabjrtfn3676bpqjpy")</f>
         <v>22jmljvsabjrtfn3676bpqjpy</v>
       </c>
     </row>
-    <row r="221">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A221" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"mzarouk")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"mzarouk")</f>
         <v>mzarouk</v>
       </c>
     </row>
-    <row r="222">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A222" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"6912zox87iu176v3oyoeq0zna")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"6912zox87iu176v3oyoeq0zna")</f>
         <v>6912zox87iu176v3oyoeq0zna</v>
       </c>
     </row>
-    <row r="223">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A223" s="2" t="str">
-        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"sbalewlij5gpqkgpucb9jhdy5")</f>
+        <f ca="1">IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"sbalewlij5gpqkgpucb9jhdy5")</f>
         <v>sbalewlij5gpqkgpucb9jhdy5</v>
       </c>
     </row>
-    <row r="224">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A224" s="2"/>
     </row>
-    <row r="225">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A225" s="2"/>
     </row>
-    <row r="226">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A226" s="2"/>
     </row>
-    <row r="227">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A227" s="2"/>
     </row>
-    <row r="228">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A228" s="2"/>
     </row>
-    <row r="229">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A229" s="2"/>
     </row>
-    <row r="230">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A230" s="2"/>
     </row>
-    <row r="231">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A231" s="2"/>
     </row>
-    <row r="232">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A232" s="2"/>
     </row>
-    <row r="233">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A233" s="2"/>
     </row>
-    <row r="234">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A234" s="2"/>
     </row>
-    <row r="235">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A235" s="2"/>
     </row>
-    <row r="236">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A236" s="2"/>
     </row>
-    <row r="237">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A237" s="2"/>
     </row>
-    <row r="238">
+    <row r="238" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A238" s="2"/>
     </row>
-    <row r="239">
+    <row r="239" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A239" s="2"/>
     </row>
-    <row r="240">
+    <row r="240" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A240" s="2"/>
     </row>
-    <row r="241">
+    <row r="241" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A241" s="2"/>
     </row>
-    <row r="242">
+    <row r="242" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A242" s="2"/>
     </row>
-    <row r="243">
+    <row r="243" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A243" s="2"/>
     </row>
-    <row r="244">
+    <row r="244" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A244" s="2"/>
     </row>
-    <row r="245">
+    <row r="245" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A245" s="2"/>
     </row>
-    <row r="246">
+    <row r="246" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A246" s="2"/>
     </row>
-    <row r="247">
+    <row r="247" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A247" s="2"/>
     </row>
-    <row r="248">
+    <row r="248" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A248" s="2"/>
     </row>
-    <row r="249">
+    <row r="249" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A249" s="2"/>
     </row>
-    <row r="250">
+    <row r="250" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A250" s="2"/>
     </row>
-    <row r="251">
+    <row r="251" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A251" s="2"/>
     </row>
-    <row r="252">
+    <row r="252" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A252" s="2"/>
     </row>
-    <row r="253">
+    <row r="253" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A253" s="2"/>
     </row>
-    <row r="254">
+    <row r="254" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A254" s="2"/>
     </row>
-    <row r="255">
+    <row r="255" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A255" s="2"/>
     </row>
-    <row r="256">
+    <row r="256" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A256" s="2"/>
     </row>
-    <row r="257">
+    <row r="257" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A257" s="2"/>
     </row>
-    <row r="258">
+    <row r="258" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A258" s="2"/>
     </row>
-    <row r="259">
+    <row r="259" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A259" s="2"/>
     </row>
-    <row r="260">
+    <row r="260" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A260" s="2"/>
     </row>
-    <row r="261">
+    <row r="261" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A261" s="2"/>
     </row>
-    <row r="262">
+    <row r="262" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A262" s="2"/>
     </row>
-    <row r="263">
+    <row r="263" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A263" s="2"/>
     </row>
-    <row r="264">
+    <row r="264" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A264" s="2"/>
     </row>
-    <row r="265">
+    <row r="265" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A265" s="2"/>
     </row>
-    <row r="266">
+    <row r="266" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A266" s="2"/>
     </row>
-    <row r="267">
+    <row r="267" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A267" s="2"/>
     </row>
-    <row r="268">
+    <row r="268" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A268" s="2"/>
     </row>
-    <row r="269">
+    <row r="269" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A269" s="2"/>
     </row>
-    <row r="270">
+    <row r="270" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A270" s="2"/>
     </row>
-    <row r="271">
+    <row r="271" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A271" s="2"/>
     </row>
-    <row r="272">
+    <row r="272" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A272" s="2"/>
     </row>
-    <row r="273">
+    <row r="273" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A273" s="2"/>
     </row>
-    <row r="274">
+    <row r="274" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A274" s="2"/>
     </row>
-    <row r="275">
+    <row r="275" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A275" s="2"/>
     </row>
-    <row r="276">
+    <row r="276" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A276" s="2"/>
     </row>
-    <row r="277">
+    <row r="277" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A277" s="2"/>
     </row>
-    <row r="278">
+    <row r="278" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A278" s="2"/>
     </row>
-    <row r="279">
+    <row r="279" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A279" s="2"/>
     </row>
-    <row r="280">
+    <row r="280" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A280" s="2"/>
     </row>
-    <row r="281">
+    <row r="281" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A281" s="2"/>
     </row>
-    <row r="282">
+    <row r="282" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A282" s="2"/>
     </row>
-    <row r="283">
+    <row r="283" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A283" s="2"/>
     </row>
-    <row r="284">
+    <row r="284" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A284" s="2"/>
     </row>
-    <row r="285">
+    <row r="285" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A285" s="2"/>
     </row>
-    <row r="286">
+    <row r="286" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A286" s="2"/>
     </row>
-    <row r="287">
+    <row r="287" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A287" s="2"/>
     </row>
-    <row r="288">
+    <row r="288" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A288" s="2"/>
     </row>
-    <row r="289">
+    <row r="289" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A289" s="2"/>
     </row>
-    <row r="290">
+    <row r="290" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A290" s="2"/>
     </row>
-    <row r="291">
+    <row r="291" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A291" s="2"/>
     </row>
-    <row r="292">
+    <row r="292" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A292" s="2"/>
     </row>
-    <row r="293">
+    <row r="293" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A293" s="2"/>
     </row>
-    <row r="294">
+    <row r="294" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A294" s="2"/>
     </row>
-    <row r="295">
+    <row r="295" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A295" s="2"/>
     </row>
-    <row r="296">
+    <row r="296" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A296" s="2"/>
     </row>
-    <row r="297">
+    <row r="297" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A297" s="2"/>
     </row>
-    <row r="298">
+    <row r="298" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A298" s="2"/>
     </row>
-    <row r="299">
+    <row r="299" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A299" s="2"/>
     </row>
-    <row r="300">
+    <row r="300" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A300" s="2"/>
     </row>
-    <row r="301">
+    <row r="301" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A301" s="2"/>
     </row>
-    <row r="302">
+    <row r="302" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A302" s="2"/>
     </row>
-    <row r="303">
+    <row r="303" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A303" s="2"/>
     </row>
-    <row r="304">
+    <row r="304" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A304" s="2"/>
     </row>
-    <row r="305">
+    <row r="305" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A305" s="2"/>
     </row>
-    <row r="306">
+    <row r="306" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A306" s="2"/>
     </row>
-    <row r="307">
+    <row r="307" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A307" s="2"/>
     </row>
-    <row r="308">
+    <row r="308" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A308" s="2"/>
     </row>
-    <row r="309">
+    <row r="309" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A309" s="2"/>
     </row>
-    <row r="310">
+    <row r="310" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A310" s="2"/>
     </row>
-    <row r="311">
+    <row r="311" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A311" s="2"/>
     </row>
-    <row r="312">
+    <row r="312" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A312" s="2"/>
     </row>
-    <row r="313">
+    <row r="313" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A313" s="2"/>
     </row>
-    <row r="314">
+    <row r="314" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A314" s="2"/>
     </row>
-    <row r="315">
+    <row r="315" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A315" s="2"/>
     </row>
-    <row r="316">
+    <row r="316" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A316" s="2"/>
     </row>
-    <row r="317">
+    <row r="317" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A317" s="2"/>
     </row>
-    <row r="318">
+    <row r="318" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A318" s="2"/>
     </row>
-    <row r="319">
+    <row r="319" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A319" s="2"/>
     </row>
-    <row r="320">
+    <row r="320" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A320" s="2"/>
     </row>
-    <row r="321">
+    <row r="321" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A321" s="2"/>
     </row>
-    <row r="322">
+    <row r="322" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A322" s="2"/>
     </row>
-    <row r="323">
+    <row r="323" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A323" s="2"/>
     </row>
-    <row r="324">
+    <row r="324" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A324" s="2"/>
     </row>
-    <row r="325">
+    <row r="325" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A325" s="2"/>
     </row>
-    <row r="326">
+    <row r="326" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A326" s="2"/>
     </row>
-    <row r="327">
+    <row r="327" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A327" s="2"/>
     </row>
-    <row r="328">
+    <row r="328" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A328" s="2"/>
     </row>
-    <row r="329">
+    <row r="329" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A329" s="2"/>
     </row>
-    <row r="330">
+    <row r="330" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A330" s="2"/>
     </row>
-    <row r="331">
+    <row r="331" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A331" s="2"/>
     </row>
-    <row r="332">
+    <row r="332" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A332" s="2"/>
     </row>
-    <row r="333">
+    <row r="333" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A333" s="2"/>
     </row>
-    <row r="334">
+    <row r="334" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A334" s="2"/>
     </row>
-    <row r="335">
+    <row r="335" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A335" s="2"/>
     </row>
-    <row r="336">
+    <row r="336" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A336" s="2"/>
     </row>
-    <row r="337">
+    <row r="337" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A337" s="2"/>
     </row>
-    <row r="338">
+    <row r="338" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A338" s="2"/>
     </row>
-    <row r="339">
+    <row r="339" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A339" s="2"/>
     </row>
-    <row r="340">
+    <row r="340" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A340" s="2"/>
     </row>
-    <row r="341">
+    <row r="341" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A341" s="2"/>
     </row>
-    <row r="342">
+    <row r="342" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A342" s="2"/>
     </row>
-    <row r="343">
+    <row r="343" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A343" s="2"/>
     </row>
-    <row r="344">
+    <row r="344" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A344" s="2"/>
     </row>
-    <row r="345">
+    <row r="345" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A345" s="2"/>
     </row>
-    <row r="346">
+    <row r="346" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A346" s="2"/>
     </row>
-    <row r="347">
+    <row r="347" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A347" s="2"/>
     </row>
-    <row r="348">
+    <row r="348" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A348" s="2"/>
     </row>
-    <row r="349">
+    <row r="349" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A349" s="2"/>
     </row>
-    <row r="350">
+    <row r="350" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A350" s="2"/>
     </row>
-    <row r="351">
+    <row r="351" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A351" s="2"/>
     </row>
-    <row r="352">
+    <row r="352" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A352" s="2"/>
     </row>
-    <row r="353">
+    <row r="353" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A353" s="2"/>
     </row>
-    <row r="354">
+    <row r="354" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A354" s="2"/>
     </row>
-    <row r="355">
+    <row r="355" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A355" s="2"/>
     </row>
-    <row r="356">
+    <row r="356" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A356" s="2"/>
     </row>
-    <row r="357">
+    <row r="357" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A357" s="2"/>
     </row>
-    <row r="358">
+    <row r="358" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A358" s="2"/>
     </row>
-    <row r="359">
+    <row r="359" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A359" s="2"/>
     </row>
-    <row r="360">
+    <row r="360" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A360" s="2"/>
     </row>
-    <row r="361">
+    <row r="361" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A361" s="2"/>
     </row>
-    <row r="362">
+    <row r="362" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A362" s="2"/>
     </row>
-    <row r="363">
+    <row r="363" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A363" s="2"/>
     </row>
-    <row r="364">
+    <row r="364" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A364" s="2"/>
     </row>
-    <row r="365">
+    <row r="365" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A365" s="2"/>
     </row>
-    <row r="366">
+    <row r="366" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A366" s="2"/>
     </row>
-    <row r="367">
+    <row r="367" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A367" s="2"/>
     </row>
-    <row r="368">
+    <row r="368" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A368" s="2"/>
     </row>
-    <row r="369">
+    <row r="369" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A369" s="2"/>
     </row>
-    <row r="370">
+    <row r="370" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A370" s="2"/>
     </row>
-    <row r="371">
+    <row r="371" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A371" s="2"/>
     </row>
-    <row r="372">
+    <row r="372" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A372" s="2"/>
     </row>
-    <row r="373">
+    <row r="373" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A373" s="2"/>
     </row>
-    <row r="374">
+    <row r="374" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A374" s="2"/>
     </row>
-    <row r="375">
+    <row r="375" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A375" s="2"/>
     </row>
-    <row r="376">
+    <row r="376" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A376" s="2"/>
     </row>
-    <row r="377">
+    <row r="377" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A377" s="2"/>
     </row>
-    <row r="378">
+    <row r="378" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A378" s="2"/>
     </row>
-    <row r="379">
+    <row r="379" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A379" s="2"/>
     </row>
-    <row r="380">
+    <row r="380" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A380" s="2"/>
     </row>
-    <row r="381">
+    <row r="381" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A381" s="2"/>
     </row>
-    <row r="382">
+    <row r="382" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A382" s="2"/>
     </row>
-    <row r="383">
+    <row r="383" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A383" s="2"/>
     </row>
-    <row r="384">
+    <row r="384" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A384" s="2"/>
     </row>
-    <row r="385">
+    <row r="385" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A385" s="2"/>
     </row>
-    <row r="386">
+    <row r="386" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A386" s="2"/>
     </row>
-    <row r="387">
+    <row r="387" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A387" s="2"/>
     </row>
-    <row r="388">
+    <row r="388" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A388" s="2"/>
     </row>
-    <row r="389">
+    <row r="389" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A389" s="2"/>
     </row>
-    <row r="390">
+    <row r="390" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A390" s="2"/>
     </row>
-    <row r="391">
+    <row r="391" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A391" s="2"/>
     </row>
-    <row r="392">
+    <row r="392" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A392" s="2"/>
     </row>
-    <row r="393">
+    <row r="393" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A393" s="2"/>
     </row>
-    <row r="394">
+    <row r="394" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A394" s="2"/>
     </row>
-    <row r="395">
+    <row r="395" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A395" s="2"/>
     </row>
-    <row r="396">
+    <row r="396" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A396" s="2"/>
     </row>
-    <row r="397">
+    <row r="397" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A397" s="2"/>
     </row>
-    <row r="398">
+    <row r="398" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A398" s="2"/>
     </row>
-    <row r="399">
+    <row r="399" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A399" s="2"/>
     </row>
-    <row r="400">
+    <row r="400" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A400" s="2"/>
     </row>
-    <row r="401">
+    <row r="401" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A401" s="2"/>
     </row>
-    <row r="402">
+    <row r="402" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A402" s="2"/>
     </row>
-    <row r="403">
+    <row r="403" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A403" s="2"/>
     </row>
-    <row r="404">
+    <row r="404" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A404" s="2"/>
     </row>
-    <row r="405">
+    <row r="405" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A405" s="2"/>
     </row>
-    <row r="406">
+    <row r="406" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A406" s="2"/>
     </row>
-    <row r="407">
+    <row r="407" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A407" s="2"/>
     </row>
-    <row r="408">
+    <row r="408" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A408" s="2"/>
     </row>
-    <row r="409">
+    <row r="409" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A409" s="2"/>
     </row>
-    <row r="410">
+    <row r="410" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A410" s="2"/>
     </row>
-    <row r="411">
+    <row r="411" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A411" s="2"/>
     </row>
-    <row r="412">
+    <row r="412" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A412" s="2"/>
     </row>
-    <row r="413">
+    <row r="413" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A413" s="2"/>
     </row>
-    <row r="414">
+    <row r="414" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A414" s="2"/>
     </row>
-    <row r="415">
+    <row r="415" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A415" s="2"/>
     </row>
-    <row r="416">
+    <row r="416" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A416" s="2"/>
     </row>
-    <row r="417">
+    <row r="417" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A417" s="2"/>
     </row>
-    <row r="418">
+    <row r="418" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A418" s="2"/>
     </row>
-    <row r="419">
+    <row r="419" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A419" s="2"/>
     </row>
-    <row r="420">
+    <row r="420" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A420" s="2"/>
     </row>
-    <row r="421">
+    <row r="421" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A421" s="2"/>
     </row>
-    <row r="422">
+    <row r="422" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A422" s="2"/>
     </row>
-    <row r="423">
+    <row r="423" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A423" s="2"/>
     </row>
-    <row r="424">
+    <row r="424" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A424" s="2"/>
     </row>
-    <row r="425">
+    <row r="425" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A425" s="2"/>
     </row>
-    <row r="426">
+    <row r="426" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A426" s="2"/>
     </row>
-    <row r="427">
+    <row r="427" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A427" s="2"/>
     </row>
-    <row r="428">
+    <row r="428" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A428" s="2"/>
     </row>
-    <row r="429">
+    <row r="429" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A429" s="2"/>
     </row>
-    <row r="430">
+    <row r="430" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A430" s="2"/>
     </row>
-    <row r="431">
+    <row r="431" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A431" s="2"/>
     </row>
-    <row r="432">
+    <row r="432" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A432" s="2"/>
     </row>
-    <row r="433">
+    <row r="433" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A433" s="2"/>
     </row>
-    <row r="434">
+    <row r="434" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A434" s="2"/>
     </row>
-    <row r="435">
+    <row r="435" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A435" s="2"/>
     </row>
-    <row r="436">
+    <row r="436" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A436" s="2"/>
     </row>
-    <row r="437">
+    <row r="437" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A437" s="2"/>
     </row>
-    <row r="438">
+    <row r="438" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A438" s="2"/>
     </row>
-    <row r="439">
+    <row r="439" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A439" s="2"/>
     </row>
-    <row r="440">
+    <row r="440" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A440" s="2"/>
     </row>
-    <row r="441">
+    <row r="441" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A441" s="2"/>
     </row>
-    <row r="442">
+    <row r="442" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A442" s="2"/>
     </row>
-    <row r="443">
+    <row r="443" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A443" s="2"/>
     </row>
-    <row r="444">
+    <row r="444" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A444" s="2"/>
     </row>
-    <row r="445">
+    <row r="445" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A445" s="2"/>
     </row>
-    <row r="446">
+    <row r="446" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A446" s="2"/>
     </row>
-    <row r="447">
+    <row r="447" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A447" s="2"/>
     </row>
-    <row r="448">
+    <row r="448" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A448" s="2"/>
     </row>
-    <row r="449">
+    <row r="449" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A449" s="2"/>
     </row>
-    <row r="450">
+    <row r="450" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A450" s="2"/>
     </row>
-    <row r="451">
+    <row r="451" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A451" s="2"/>
     </row>
-    <row r="452">
+    <row r="452" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A452" s="2"/>
     </row>
-    <row r="453">
+    <row r="453" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A453" s="2"/>
     </row>
-    <row r="454">
+    <row r="454" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A454" s="2"/>
     </row>
-    <row r="455">
+    <row r="455" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A455" s="2"/>
     </row>
-    <row r="456">
+    <row r="456" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A456" s="2"/>
     </row>
-    <row r="457">
+    <row r="457" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A457" s="2"/>
     </row>
-    <row r="458">
+    <row r="458" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A458" s="2"/>
     </row>
-    <row r="459">
+    <row r="459" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A459" s="2"/>
     </row>
-    <row r="460">
+    <row r="460" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A460" s="2"/>
     </row>
-    <row r="461">
+    <row r="461" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A461" s="2"/>
     </row>
-    <row r="462">
+    <row r="462" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A462" s="2"/>
     </row>
-    <row r="463">
+    <row r="463" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A463" s="2"/>
     </row>
-    <row r="464">
+    <row r="464" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A464" s="2"/>
     </row>
-    <row r="465">
+    <row r="465" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A465" s="2"/>
     </row>
-    <row r="466">
+    <row r="466" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A466" s="2"/>
     </row>
-    <row r="467">
+    <row r="467" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A467" s="2"/>
     </row>
-    <row r="468">
+    <row r="468" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A468" s="2"/>
     </row>
-    <row r="469">
+    <row r="469" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A469" s="2"/>
     </row>
-    <row r="470">
+    <row r="470" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A470" s="2"/>
     </row>
-    <row r="471">
+    <row r="471" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A471" s="2"/>
     </row>
-    <row r="472">
+    <row r="472" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A472" s="2"/>
     </row>
-    <row r="473">
+    <row r="473" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A473" s="2"/>
     </row>
-    <row r="474">
+    <row r="474" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A474" s="2"/>
     </row>
-    <row r="475">
+    <row r="475" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A475" s="2"/>
     </row>
-    <row r="476">
+    <row r="476" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A476" s="2"/>
     </row>
-    <row r="477">
+    <row r="477" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A477" s="2"/>
     </row>
-    <row r="478">
+    <row r="478" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A478" s="2"/>
     </row>
-    <row r="479">
+    <row r="479" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A479" s="2"/>
     </row>
-    <row r="480">
+    <row r="480" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A480" s="2"/>
     </row>
-    <row r="481">
+    <row r="481" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A481" s="2"/>
     </row>
-    <row r="482">
+    <row r="482" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A482" s="2"/>
     </row>
-    <row r="483">
+    <row r="483" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A483" s="2"/>
     </row>
-    <row r="484">
+    <row r="484" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A484" s="2"/>
     </row>
-    <row r="485">
+    <row r="485" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A485" s="2"/>
     </row>
-    <row r="486">
+    <row r="486" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A486" s="2"/>
     </row>
-    <row r="487">
+    <row r="487" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A487" s="2"/>
     </row>
-    <row r="488">
+    <row r="488" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A488" s="2"/>
     </row>
-    <row r="489">
+    <row r="489" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A489" s="2"/>
     </row>
-    <row r="490">
+    <row r="490" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A490" s="2"/>
     </row>
-    <row r="491">
+    <row r="491" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A491" s="2"/>
     </row>
-    <row r="492">
+    <row r="492" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A492" s="2"/>
     </row>
-    <row r="493">
+    <row r="493" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A493" s="2"/>
     </row>
-    <row r="494">
+    <row r="494" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A494" s="2"/>
     </row>
-    <row r="495">
+    <row r="495" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A495" s="2"/>
     </row>
-    <row r="496">
+    <row r="496" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A496" s="2"/>
     </row>
-    <row r="497">
+    <row r="497" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A497" s="2"/>
     </row>
-    <row r="498">
+    <row r="498" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A498" s="2"/>
     </row>
-    <row r="499">
+    <row r="499" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A499" s="2"/>
     </row>
-    <row r="500">
+    <row r="500" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A500" s="2"/>
     </row>
-    <row r="501">
+    <row r="501" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A501" s="2"/>
     </row>
-    <row r="502">
+    <row r="502" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A502" s="2"/>
     </row>
-    <row r="503">
+    <row r="503" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A503" s="2"/>
     </row>
-    <row r="504">
+    <row r="504" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A504" s="2"/>
     </row>
-    <row r="505">
+    <row r="505" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A505" s="2"/>
     </row>
-    <row r="506">
+    <row r="506" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A506" s="2"/>
     </row>
-    <row r="507">
+    <row r="507" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A507" s="2"/>
     </row>
-    <row r="508">
+    <row r="508" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A508" s="2"/>
     </row>
-    <row r="509">
+    <row r="509" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A509" s="2"/>
     </row>
-    <row r="510">
+    <row r="510" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A510" s="2"/>
     </row>
-    <row r="511">
+    <row r="511" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A511" s="2"/>
     </row>
-    <row r="512">
+    <row r="512" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A512" s="2"/>
     </row>
-    <row r="513">
+    <row r="513" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A513" s="2"/>
     </row>
-    <row r="514">
+    <row r="514" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A514" s="2"/>
     </row>
-    <row r="515">
+    <row r="515" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A515" s="2"/>
     </row>
-    <row r="516">
+    <row r="516" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A516" s="2"/>
     </row>
-    <row r="517">
+    <row r="517" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A517" s="2"/>
     </row>
-    <row r="518">
+    <row r="518" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A518" s="2"/>
     </row>
-    <row r="519">
+    <row r="519" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A519" s="2"/>
     </row>
-    <row r="520">
+    <row r="520" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A520" s="2"/>
     </row>
-    <row r="521">
+    <row r="521" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A521" s="2"/>
     </row>
-    <row r="522">
+    <row r="522" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A522" s="2"/>
     </row>
-    <row r="523">
+    <row r="523" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A523" s="2"/>
     </row>
-    <row r="524">
+    <row r="524" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A524" s="2"/>
     </row>
-    <row r="525">
+    <row r="525" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A525" s="2"/>
     </row>
-    <row r="526">
+    <row r="526" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A526" s="2"/>
     </row>
-    <row r="527">
+    <row r="527" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A527" s="2"/>
     </row>
-    <row r="528">
+    <row r="528" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A528" s="2"/>
     </row>
-    <row r="529">
+    <row r="529" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A529" s="2"/>
     </row>
-    <row r="530">
+    <row r="530" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A530" s="2"/>
     </row>
-    <row r="531">
+    <row r="531" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A531" s="2"/>
     </row>
-    <row r="532">
+    <row r="532" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A532" s="2"/>
     </row>
-    <row r="533">
+    <row r="533" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A533" s="2"/>
     </row>
-    <row r="534">
+    <row r="534" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A534" s="2"/>
     </row>
-    <row r="535">
+    <row r="535" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A535" s="2"/>
     </row>
-    <row r="536">
+    <row r="536" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A536" s="2"/>
     </row>
-    <row r="537">
+    <row r="537" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A537" s="2"/>
     </row>
-    <row r="538">
+    <row r="538" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A538" s="2"/>
     </row>
-    <row r="539">
+    <row r="539" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A539" s="2"/>
     </row>
-    <row r="540">
+    <row r="540" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A540" s="2"/>
     </row>
-    <row r="541">
+    <row r="541" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A541" s="2"/>
     </row>
-    <row r="542">
+    <row r="542" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A542" s="2"/>
     </row>
-    <row r="543">
+    <row r="543" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A543" s="2"/>
     </row>
-    <row r="544">
+    <row r="544" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A544" s="2"/>
     </row>
-    <row r="545">
+    <row r="545" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A545" s="2"/>
     </row>
-    <row r="546">
+    <row r="546" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A546" s="2"/>
     </row>
-    <row r="547">
+    <row r="547" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A547" s="2"/>
     </row>
-    <row r="548">
+    <row r="548" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A548" s="2"/>
     </row>
-    <row r="549">
+    <row r="549" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A549" s="2"/>
     </row>
-    <row r="550">
+    <row r="550" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A550" s="2"/>
     </row>
-    <row r="551">
+    <row r="551" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A551" s="2"/>
     </row>
-    <row r="552">
+    <row r="552" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A552" s="2"/>
     </row>
-    <row r="553">
+    <row r="553" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A553" s="2"/>
     </row>
-    <row r="554">
+    <row r="554" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A554" s="2"/>
     </row>
-    <row r="555">
+    <row r="555" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A555" s="2"/>
     </row>
-    <row r="556">
+    <row r="556" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A556" s="2"/>
     </row>
-    <row r="557">
+    <row r="557" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A557" s="2"/>
     </row>
-    <row r="558">
+    <row r="558" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A558" s="2"/>
     </row>
-    <row r="559">
+    <row r="559" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A559" s="2"/>
     </row>
-    <row r="560">
+    <row r="560" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A560" s="2"/>
     </row>
-    <row r="561">
+    <row r="561" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A561" s="2"/>
     </row>
-    <row r="562">
+    <row r="562" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A562" s="2"/>
     </row>
-    <row r="563">
+    <row r="563" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A563" s="2"/>
     </row>
-    <row r="564">
+    <row r="564" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A564" s="2"/>
     </row>
-    <row r="565">
+    <row r="565" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A565" s="2"/>
     </row>
-    <row r="566">
+    <row r="566" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A566" s="2"/>
     </row>
-    <row r="567">
+    <row r="567" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A567" s="2"/>
     </row>
-    <row r="568">
+    <row r="568" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A568" s="2"/>
     </row>
-    <row r="569">
+    <row r="569" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A569" s="2"/>
     </row>
-    <row r="570">
+    <row r="570" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A570" s="2"/>
     </row>
-    <row r="571">
+    <row r="571" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A571" s="2"/>
     </row>
-    <row r="572">
+    <row r="572" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A572" s="2"/>
     </row>
-    <row r="573">
+    <row r="573" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A573" s="2"/>
     </row>
-    <row r="574">
+    <row r="574" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A574" s="2"/>
     </row>
-    <row r="575">
+    <row r="575" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A575" s="2"/>
     </row>
-    <row r="576">
+    <row r="576" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A576" s="2"/>
     </row>
-    <row r="577">
+    <row r="577" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A577" s="2"/>
     </row>
-    <row r="578">
+    <row r="578" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A578" s="2"/>
     </row>
-    <row r="579">
+    <row r="579" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A579" s="2"/>
     </row>
-    <row r="580">
+    <row r="580" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A580" s="2"/>
     </row>
-    <row r="581">
+    <row r="581" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A581" s="2"/>
     </row>
-    <row r="582">
+    <row r="582" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A582" s="2"/>
     </row>
-    <row r="583">
+    <row r="583" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A583" s="2"/>
     </row>
-    <row r="584">
+    <row r="584" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A584" s="2"/>
     </row>
-    <row r="585">
+    <row r="585" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A585" s="2"/>
     </row>
-    <row r="586">
+    <row r="586" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A586" s="2"/>
     </row>
-    <row r="587">
+    <row r="587" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A587" s="2"/>
     </row>
-    <row r="588">
+    <row r="588" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A588" s="2"/>
     </row>
-    <row r="589">
+    <row r="589" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A589" s="2"/>
     </row>
-    <row r="590">
+    <row r="590" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A590" s="2"/>
     </row>
-    <row r="591">
+    <row r="591" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A591" s="2"/>
     </row>
-    <row r="592">
+    <row r="592" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A592" s="2"/>
     </row>
-    <row r="593">
+    <row r="593" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A593" s="2"/>
     </row>
-    <row r="594">
+    <row r="594" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A594" s="2"/>
     </row>
-    <row r="595">
+    <row r="595" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A595" s="2"/>
     </row>
-    <row r="596">
+    <row r="596" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A596" s="2"/>
     </row>
-    <row r="597">
+    <row r="597" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A597" s="2"/>
     </row>
-    <row r="598">
+    <row r="598" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A598" s="2"/>
     </row>
-    <row r="599">
+    <row r="599" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A599" s="2"/>
     </row>
-    <row r="600">
+    <row r="600" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A600" s="2"/>
     </row>
-    <row r="601">
+    <row r="601" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A601" s="2"/>
     </row>
-    <row r="602">
+    <row r="602" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A602" s="2"/>
     </row>
-    <row r="603">
+    <row r="603" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A603" s="2"/>
     </row>
-    <row r="604">
+    <row r="604" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A604" s="2"/>
     </row>
-    <row r="605">
+    <row r="605" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A605" s="2"/>
     </row>
-    <row r="606">
+    <row r="606" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A606" s="2"/>
     </row>
-    <row r="607">
+    <row r="607" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A607" s="2"/>
     </row>
-    <row r="608">
+    <row r="608" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A608" s="2"/>
     </row>
-    <row r="609">
+    <row r="609" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A609" s="2"/>
     </row>
-    <row r="610">
+    <row r="610" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A610" s="2"/>
     </row>
-    <row r="611">
+    <row r="611" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A611" s="2"/>
     </row>
-    <row r="612">
+    <row r="612" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A612" s="2"/>
     </row>
-    <row r="613">
+    <row r="613" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A613" s="2"/>
     </row>
-    <row r="614">
+    <row r="614" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A614" s="2"/>
     </row>
-    <row r="615">
+    <row r="615" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A615" s="2"/>
     </row>
-    <row r="616">
+    <row r="616" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A616" s="2"/>
     </row>
-    <row r="617">
+    <row r="617" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A617" s="2"/>
     </row>
-    <row r="618">
+    <row r="618" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A618" s="2"/>
     </row>
-    <row r="619">
+    <row r="619" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A619" s="2"/>
     </row>
-    <row r="620">
+    <row r="620" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A620" s="2"/>
     </row>
-    <row r="621">
+    <row r="621" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A621" s="2"/>
     </row>
-    <row r="622">
+    <row r="622" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A622" s="2"/>
     </row>
-    <row r="623">
+    <row r="623" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A623" s="2"/>
     </row>
-    <row r="624">
+    <row r="624" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A624" s="2"/>
     </row>
-    <row r="625">
+    <row r="625" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A625" s="2"/>
     </row>
-    <row r="626">
+    <row r="626" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A626" s="2"/>
     </row>
-    <row r="627">
+    <row r="627" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A627" s="2"/>
     </row>
-    <row r="628">
+    <row r="628" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A628" s="2"/>
     </row>
-    <row r="629">
+    <row r="629" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A629" s="2"/>
     </row>
-    <row r="630">
+    <row r="630" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A630" s="2"/>
     </row>
-    <row r="631">
+    <row r="631" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A631" s="2"/>
     </row>
-    <row r="632">
+    <row r="632" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A632" s="2"/>
     </row>
-    <row r="633">
+    <row r="633" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A633" s="2"/>
     </row>
-    <row r="634">
+    <row r="634" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A634" s="2"/>
     </row>
-    <row r="635">
+    <row r="635" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A635" s="2"/>
     </row>
-    <row r="636">
+    <row r="636" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A636" s="2"/>
     </row>
-    <row r="637">
+    <row r="637" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A637" s="2"/>
     </row>
-    <row r="638">
+    <row r="638" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A638" s="2"/>
     </row>
-    <row r="639">
+    <row r="639" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A639" s="2"/>
     </row>
-    <row r="640">
+    <row r="640" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A640" s="2"/>
     </row>
-    <row r="641">
+    <row r="641" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A641" s="2"/>
     </row>
-    <row r="642">
+    <row r="642" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A642" s="2"/>
     </row>
-    <row r="643">
+    <row r="643" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A643" s="2"/>
     </row>
-    <row r="644">
+    <row r="644" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A644" s="2"/>
     </row>
-    <row r="645">
+    <row r="645" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A645" s="2"/>
     </row>
-    <row r="646">
+    <row r="646" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A646" s="2"/>
     </row>
-    <row r="647">
+    <row r="647" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A647" s="2"/>
     </row>
-    <row r="648">
+    <row r="648" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A648" s="2"/>
     </row>
-    <row r="649">
+    <row r="649" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A649" s="2"/>
     </row>
-    <row r="650">
+    <row r="650" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A650" s="2"/>
     </row>
-    <row r="651">
+    <row r="651" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A651" s="2"/>
     </row>
-    <row r="652">
+    <row r="652" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A652" s="2"/>
     </row>
-    <row r="653">
+    <row r="653" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A653" s="2"/>
     </row>
-    <row r="654">
+    <row r="654" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A654" s="2"/>
     </row>
-    <row r="655">
+    <row r="655" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A655" s="2"/>
     </row>
-    <row r="656">
+    <row r="656" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A656" s="2"/>
     </row>
-    <row r="657">
+    <row r="657" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A657" s="2"/>
     </row>
-    <row r="658">
+    <row r="658" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A658" s="2"/>
     </row>
-    <row r="659">
+    <row r="659" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A659" s="2"/>
     </row>
-    <row r="660">
+    <row r="660" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A660" s="2"/>
     </row>
-    <row r="661">
+    <row r="661" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A661" s="2"/>
     </row>
-    <row r="662">
+    <row r="662" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A662" s="2"/>
     </row>
-    <row r="663">
+    <row r="663" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A663" s="2"/>
     </row>
-    <row r="664">
+    <row r="664" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A664" s="2"/>
     </row>
-    <row r="665">
+    <row r="665" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A665" s="2"/>
     </row>
-    <row r="666">
+    <row r="666" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A666" s="2"/>
     </row>
-    <row r="667">
+    <row r="667" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A667" s="2"/>
     </row>
-    <row r="668">
+    <row r="668" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A668" s="2"/>
     </row>
-    <row r="669">
+    <row r="669" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A669" s="2"/>
     </row>
-    <row r="670">
+    <row r="670" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A670" s="2"/>
     </row>
-    <row r="671">
+    <row r="671" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A671" s="2"/>
     </row>
-    <row r="672">
+    <row r="672" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A672" s="2"/>
     </row>
-    <row r="673">
+    <row r="673" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A673" s="2"/>
     </row>
-    <row r="674">
+    <row r="674" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A674" s="2"/>
     </row>
-    <row r="675">
+    <row r="675" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A675" s="2"/>
     </row>
-    <row r="676">
+    <row r="676" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A676" s="2"/>
     </row>
-    <row r="677">
+    <row r="677" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A677" s="2"/>
     </row>
-    <row r="678">
+    <row r="678" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A678" s="2"/>
     </row>
-    <row r="679">
+    <row r="679" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A679" s="2"/>
     </row>
-    <row r="680">
+    <row r="680" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A680" s="2"/>
     </row>
-    <row r="681">
+    <row r="681" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A681" s="2"/>
     </row>
-    <row r="682">
+    <row r="682" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A682" s="2"/>
     </row>
-    <row r="683">
+    <row r="683" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A683" s="2"/>
     </row>
-    <row r="684">
+    <row r="684" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A684" s="2"/>
     </row>
-    <row r="685">
+    <row r="685" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A685" s="2"/>
     </row>
-    <row r="686">
+    <row r="686" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A686" s="2"/>
     </row>
-    <row r="687">
+    <row r="687" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A687" s="2"/>
     </row>
-    <row r="688">
+    <row r="688" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A688" s="2"/>
     </row>
-    <row r="689">
+    <row r="689" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A689" s="2"/>
     </row>
-    <row r="690">
+    <row r="690" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A690" s="2"/>
     </row>
-    <row r="691">
+    <row r="691" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A691" s="2"/>
     </row>
-    <row r="692">
+    <row r="692" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A692" s="2"/>
     </row>
-    <row r="693">
+    <row r="693" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A693" s="2"/>
     </row>
-    <row r="694">
+    <row r="694" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A694" s="2"/>
     </row>
-    <row r="695">
+    <row r="695" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A695" s="2"/>
     </row>
-    <row r="696">
+    <row r="696" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A696" s="2"/>
     </row>
-    <row r="697">
+    <row r="697" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A697" s="2"/>
     </row>
-    <row r="698">
+    <row r="698" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A698" s="2"/>
     </row>
-    <row r="699">
+    <row r="699" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A699" s="2"/>
     </row>
-    <row r="700">
+    <row r="700" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A700" s="2"/>
     </row>
-    <row r="701">
+    <row r="701" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A701" s="2"/>
     </row>
-    <row r="702">
+    <row r="702" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A702" s="2"/>
     </row>
-    <row r="703">
+    <row r="703" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A703" s="2"/>
     </row>
-    <row r="704">
+    <row r="704" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A704" s="2"/>
     </row>
-    <row r="705">
+    <row r="705" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A705" s="2"/>
     </row>
-    <row r="706">
+    <row r="706" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A706" s="2"/>
     </row>
-    <row r="707">
+    <row r="707" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A707" s="2"/>
     </row>
-    <row r="708">
+    <row r="708" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A708" s="2"/>
     </row>
-    <row r="709">
+    <row r="709" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A709" s="2"/>
     </row>
-    <row r="710">
+    <row r="710" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A710" s="2"/>
     </row>
-    <row r="711">
+    <row r="711" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A711" s="2"/>
     </row>
-    <row r="712">
+    <row r="712" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A712" s="2"/>
     </row>
-    <row r="713">
+    <row r="713" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A713" s="2"/>
     </row>
-    <row r="714">
+    <row r="714" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A714" s="2"/>
     </row>
-    <row r="715">
+    <row r="715" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A715" s="2"/>
     </row>
-    <row r="716">
+    <row r="716" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A716" s="2"/>
     </row>
-    <row r="717">
+    <row r="717" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A717" s="2"/>
     </row>
-    <row r="718">
+    <row r="718" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A718" s="2"/>
     </row>
-    <row r="719">
+    <row r="719" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A719" s="2"/>
     </row>
-    <row r="720">
+    <row r="720" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A720" s="2"/>
     </row>
-    <row r="721">
+    <row r="721" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A721" s="2"/>
     </row>
-    <row r="722">
+    <row r="722" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A722" s="2"/>
     </row>
-    <row r="723">
+    <row r="723" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A723" s="2"/>
     </row>
-    <row r="724">
+    <row r="724" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A724" s="2"/>
     </row>
-    <row r="725">
+    <row r="725" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A725" s="2"/>
     </row>
-    <row r="726">
+    <row r="726" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A726" s="2"/>
     </row>
-    <row r="727">
+    <row r="727" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A727" s="2"/>
     </row>
-    <row r="728">
+    <row r="728" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A728" s="2"/>
     </row>
-    <row r="729">
+    <row r="729" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A729" s="2"/>
     </row>
-    <row r="730">
+    <row r="730" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A730" s="2"/>
     </row>
-    <row r="731">
+    <row r="731" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A731" s="2"/>
     </row>
-    <row r="732">
+    <row r="732" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A732" s="2"/>
     </row>
-    <row r="733">
+    <row r="733" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A733" s="2"/>
     </row>
-    <row r="734">
+    <row r="734" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A734" s="2"/>
     </row>
-    <row r="735">
+    <row r="735" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A735" s="2"/>
     </row>
-    <row r="736">
+    <row r="736" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A736" s="2"/>
     </row>
-    <row r="737">
+    <row r="737" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A737" s="2"/>
     </row>
-    <row r="738">
+    <row r="738" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A738" s="2"/>
     </row>
-    <row r="739">
+    <row r="739" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A739" s="2"/>
     </row>
-    <row r="740">
+    <row r="740" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A740" s="2"/>
     </row>
-    <row r="741">
+    <row r="741" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A741" s="2"/>
     </row>
-    <row r="742">
+    <row r="742" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A742" s="2"/>
     </row>
-    <row r="743">
+    <row r="743" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A743" s="2"/>
     </row>
-    <row r="744">
+    <row r="744" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A744" s="2"/>
     </row>
-    <row r="745">
+    <row r="745" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A745" s="2"/>
     </row>
-    <row r="746">
+    <row r="746" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A746" s="2"/>
     </row>
-    <row r="747">
+    <row r="747" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A747" s="2"/>
     </row>
-    <row r="748">
+    <row r="748" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A748" s="2"/>
     </row>
-    <row r="749">
+    <row r="749" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A749" s="2"/>
     </row>
-    <row r="750">
+    <row r="750" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A750" s="2"/>
     </row>
-    <row r="751">
+    <row r="751" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A751" s="2"/>
     </row>
-    <row r="752">
+    <row r="752" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A752" s="2"/>
     </row>
-    <row r="753">
+    <row r="753" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A753" s="2"/>
     </row>
-    <row r="754">
+    <row r="754" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A754" s="2"/>
     </row>
-    <row r="755">
+    <row r="755" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A755" s="2"/>
     </row>
-    <row r="756">
+    <row r="756" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A756" s="2"/>
     </row>
-    <row r="757">
+    <row r="757" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A757" s="2"/>
     </row>
-    <row r="758">
+    <row r="758" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A758" s="2"/>
     </row>
-    <row r="759">
+    <row r="759" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A759" s="2"/>
     </row>
-    <row r="760">
+    <row r="760" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A760" s="2"/>
     </row>
-    <row r="761">
+    <row r="761" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A761" s="2"/>
     </row>
-    <row r="762">
+    <row r="762" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A762" s="2"/>
     </row>
-    <row r="763">
+    <row r="763" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A763" s="2"/>
     </row>
-    <row r="764">
+    <row r="764" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A764" s="2"/>
     </row>
-    <row r="765">
+    <row r="765" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A765" s="2"/>
     </row>
-    <row r="766">
+    <row r="766" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A766" s="2"/>
     </row>
-    <row r="767">
+    <row r="767" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A767" s="2"/>
     </row>
-    <row r="768">
+    <row r="768" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A768" s="2"/>
     </row>
-    <row r="769">
+    <row r="769" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A769" s="2"/>
     </row>
-    <row r="770">
+    <row r="770" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A770" s="2"/>
     </row>
-    <row r="771">
+    <row r="771" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A771" s="2"/>
     </row>
-    <row r="772">
+    <row r="772" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A772" s="2"/>
     </row>
-    <row r="773">
+    <row r="773" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A773" s="2"/>
     </row>
-    <row r="774">
+    <row r="774" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A774" s="2"/>
     </row>
-    <row r="775">
+    <row r="775" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A775" s="2"/>
     </row>
-    <row r="776">
+    <row r="776" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A776" s="2"/>
     </row>
-    <row r="777">
+    <row r="777" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A777" s="2"/>
     </row>
-    <row r="778">
+    <row r="778" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A778" s="2"/>
     </row>
-    <row r="779">
+    <row r="779" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A779" s="2"/>
     </row>
-    <row r="780">
+    <row r="780" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A780" s="2"/>
     </row>
-    <row r="781">
+    <row r="781" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A781" s="2"/>
     </row>
-    <row r="782">
+    <row r="782" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A782" s="2"/>
     </row>
-    <row r="783">
+    <row r="783" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A783" s="2"/>
     </row>
-    <row r="784">
+    <row r="784" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A784" s="2"/>
     </row>
-    <row r="785">
+    <row r="785" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A785" s="2"/>
     </row>
-    <row r="786">
+    <row r="786" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A786" s="2"/>
     </row>
-    <row r="787">
+    <row r="787" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A787" s="2"/>
     </row>
-    <row r="788">
+    <row r="788" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A788" s="2"/>
     </row>
-    <row r="789">
+    <row r="789" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A789" s="2"/>
     </row>
-    <row r="790">
+    <row r="790" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A790" s="2"/>
     </row>
-    <row r="791">
+    <row r="791" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A791" s="2"/>
     </row>
-    <row r="792">
+    <row r="792" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A792" s="2"/>
     </row>
-    <row r="793">
+    <row r="793" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A793" s="2"/>
     </row>
-    <row r="794">
+    <row r="794" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A794" s="2"/>
     </row>
-    <row r="795">
+    <row r="795" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A795" s="2"/>
     </row>
-    <row r="796">
+    <row r="796" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A796" s="2"/>
     </row>
-    <row r="797">
+    <row r="797" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A797" s="2"/>
     </row>
-    <row r="798">
+    <row r="798" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A798" s="2"/>
     </row>
-    <row r="799">
+    <row r="799" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A799" s="2"/>
     </row>
-    <row r="800">
+    <row r="800" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A800" s="2"/>
     </row>
-    <row r="801">
+    <row r="801" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A801" s="2"/>
     </row>
-    <row r="802">
+    <row r="802" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A802" s="2"/>
     </row>
-    <row r="803">
+    <row r="803" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A803" s="2"/>
     </row>
-    <row r="804">
+    <row r="804" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A804" s="2"/>
     </row>
-    <row r="805">
+    <row r="805" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A805" s="2"/>
     </row>
-    <row r="806">
+    <row r="806" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A806" s="2"/>
     </row>
-    <row r="807">
+    <row r="807" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A807" s="2"/>
     </row>
-    <row r="808">
+    <row r="808" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A808" s="2"/>
     </row>
-    <row r="809">
+    <row r="809" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A809" s="2"/>
     </row>
-    <row r="810">
+    <row r="810" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A810" s="2"/>
     </row>
-    <row r="811">
+    <row r="811" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A811" s="2"/>
     </row>
-    <row r="812">
+    <row r="812" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A812" s="2"/>
     </row>
-    <row r="813">
+    <row r="813" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A813" s="2"/>
     </row>
-    <row r="814">
+    <row r="814" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A814" s="2"/>
     </row>
-    <row r="815">
+    <row r="815" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A815" s="2"/>
     </row>
-    <row r="816">
+    <row r="816" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A816" s="2"/>
     </row>
-    <row r="817">
+    <row r="817" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A817" s="2"/>
     </row>
-    <row r="818">
+    <row r="818" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A818" s="2"/>
     </row>
-    <row r="819">
+    <row r="819" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A819" s="2"/>
     </row>
-    <row r="820">
+    <row r="820" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A820" s="2"/>
     </row>
-    <row r="821">
+    <row r="821" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A821" s="2"/>
     </row>
-    <row r="822">
+    <row r="822" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A822" s="2"/>
     </row>
-    <row r="823">
+    <row r="823" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A823" s="2"/>
     </row>
-    <row r="824">
+    <row r="824" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A824" s="2"/>
     </row>
-    <row r="825">
+    <row r="825" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A825" s="2"/>
     </row>
-    <row r="826">
+    <row r="826" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A826" s="2"/>
     </row>
-    <row r="827">
+    <row r="827" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A827" s="2"/>
     </row>
-    <row r="828">
+    <row r="828" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A828" s="2"/>
     </row>
-    <row r="829">
+    <row r="829" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A829" s="2"/>
     </row>
-    <row r="830">
+    <row r="830" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A830" s="2"/>
     </row>
-    <row r="831">
+    <row r="831" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A831" s="2"/>
     </row>
-    <row r="832">
+    <row r="832" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A832" s="2"/>
     </row>
-    <row r="833">
+    <row r="833" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A833" s="2"/>
     </row>
-    <row r="834">
+    <row r="834" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A834" s="2"/>
     </row>
-    <row r="835">
+    <row r="835" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A835" s="2"/>
     </row>
-    <row r="836">
+    <row r="836" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A836" s="2"/>
     </row>
-    <row r="837">
+    <row r="837" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A837" s="2"/>
     </row>
-    <row r="838">
+    <row r="838" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A838" s="2"/>
     </row>
-    <row r="839">
+    <row r="839" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A839" s="2"/>
     </row>
-    <row r="840">
+    <row r="840" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A840" s="2"/>
     </row>
-    <row r="841">
+    <row r="841" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A841" s="2"/>
     </row>
-    <row r="842">
+    <row r="842" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A842" s="2"/>
     </row>
-    <row r="843">
+    <row r="843" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A843" s="2"/>
     </row>
-    <row r="844">
+    <row r="844" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A844" s="2"/>
     </row>
-    <row r="845">
+    <row r="845" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A845" s="2"/>
     </row>
-    <row r="846">
+    <row r="846" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A846" s="2"/>
     </row>
-    <row r="847">
+    <row r="847" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A847" s="2"/>
     </row>
-    <row r="848">
+    <row r="848" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A848" s="2"/>
     </row>
-    <row r="849">
+    <row r="849" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A849" s="2"/>
     </row>
-    <row r="850">
+    <row r="850" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A850" s="2"/>
     </row>
-    <row r="851">
+    <row r="851" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A851" s="2"/>
     </row>
-    <row r="852">
+    <row r="852" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A852" s="2"/>
     </row>
-    <row r="853">
+    <row r="853" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A853" s="2"/>
     </row>
-    <row r="854">
+    <row r="854" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A854" s="2"/>
     </row>
-    <row r="855">
+    <row r="855" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A855" s="2"/>
     </row>
-    <row r="856">
+    <row r="856" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A856" s="2"/>
     </row>
-    <row r="857">
+    <row r="857" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A857" s="2"/>
     </row>
-    <row r="858">
+    <row r="858" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A858" s="2"/>
     </row>
-    <row r="859">
+    <row r="859" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A859" s="2"/>
     </row>
-    <row r="860">
+    <row r="860" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A860" s="2"/>
     </row>
-    <row r="861">
+    <row r="861" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A861" s="2"/>
     </row>
-    <row r="862">
+    <row r="862" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A862" s="2"/>
     </row>
-    <row r="863">
+    <row r="863" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A863" s="2"/>
     </row>
-    <row r="864">
+    <row r="864" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A864" s="2"/>
     </row>
-    <row r="865">
+    <row r="865" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A865" s="2"/>
     </row>
-    <row r="866">
+    <row r="866" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A866" s="2"/>
     </row>
-    <row r="867">
+    <row r="867" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A867" s="2"/>
     </row>
-    <row r="868">
+    <row r="868" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A868" s="2"/>
     </row>
-    <row r="869">
+    <row r="869" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A869" s="2"/>
     </row>
-    <row r="870">
+    <row r="870" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A870" s="2"/>
     </row>
-    <row r="871">
+    <row r="871" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A871" s="2"/>
     </row>
-    <row r="872">
+    <row r="872" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A872" s="2"/>
     </row>
-    <row r="873">
+    <row r="873" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A873" s="2"/>
     </row>
-    <row r="874">
+    <row r="874" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A874" s="2"/>
     </row>
-    <row r="875">
+    <row r="875" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A875" s="2"/>
     </row>
-    <row r="876">
+    <row r="876" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A876" s="2"/>
     </row>
-    <row r="877">
+    <row r="877" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A877" s="2"/>
     </row>
-    <row r="878">
+    <row r="878" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A878" s="2"/>
     </row>
-    <row r="879">
+    <row r="879" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A879" s="2"/>
     </row>
-    <row r="880">
+    <row r="880" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A880" s="2"/>
     </row>
-    <row r="881">
+    <row r="881" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A881" s="2"/>
     </row>
-    <row r="882">
+    <row r="882" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A882" s="2"/>
     </row>
-    <row r="883">
+    <row r="883" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A883" s="2"/>
     </row>
-    <row r="884">
+    <row r="884" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A884" s="2"/>
     </row>
-    <row r="885">
+    <row r="885" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A885" s="2"/>
     </row>
-    <row r="886">
+    <row r="886" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A886" s="2"/>
     </row>
-    <row r="887">
+    <row r="887" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A887" s="2"/>
     </row>
-    <row r="888">
+    <row r="888" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A888" s="2"/>
     </row>
-    <row r="889">
+    <row r="889" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A889" s="2"/>
     </row>
-    <row r="890">
+    <row r="890" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A890" s="2"/>
     </row>
-    <row r="891">
+    <row r="891" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A891" s="2"/>
     </row>
-    <row r="892">
+    <row r="892" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A892" s="2"/>
     </row>
-    <row r="893">
+    <row r="893" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A893" s="2"/>
     </row>
-    <row r="894">
+    <row r="894" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A894" s="2"/>
     </row>
-    <row r="895">
+    <row r="895" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A895" s="2"/>
     </row>
-    <row r="896">
+    <row r="896" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A896" s="2"/>
     </row>
-    <row r="897">
+    <row r="897" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A897" s="2"/>
     </row>
-    <row r="898">
+    <row r="898" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A898" s="2"/>
     </row>
-    <row r="899">
+    <row r="899" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A899" s="2"/>
     </row>
-    <row r="900">
+    <row r="900" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A900" s="2"/>
     </row>
-    <row r="901">
+    <row r="901" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A901" s="2"/>
     </row>
-    <row r="902">
+    <row r="902" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A902" s="2"/>
     </row>
-    <row r="903">
+    <row r="903" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A903" s="2"/>
     </row>
-    <row r="904">
+    <row r="904" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A904" s="2"/>
     </row>
-    <row r="905">
+    <row r="905" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A905" s="2"/>
     </row>
-    <row r="906">
+    <row r="906" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A906" s="2"/>
     </row>
-    <row r="907">
+    <row r="907" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A907" s="2"/>
     </row>
-    <row r="908">
+    <row r="908" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A908" s="2"/>
     </row>
-    <row r="909">
+    <row r="909" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A909" s="2"/>
     </row>
-    <row r="910">
+    <row r="910" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A910" s="2"/>
     </row>
-    <row r="911">
+    <row r="911" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A911" s="2"/>
     </row>
-    <row r="912">
+    <row r="912" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A912" s="2"/>
     </row>
-    <row r="913">
+    <row r="913" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A913" s="2"/>
     </row>
-    <row r="914">
+    <row r="914" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A914" s="2"/>
     </row>
-    <row r="915">
+    <row r="915" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A915" s="2"/>
     </row>
-    <row r="916">
+    <row r="916" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A916" s="2"/>
     </row>
-    <row r="917">
+    <row r="917" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A917" s="2"/>
     </row>
-    <row r="918">
+    <row r="918" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A918" s="2"/>
     </row>
-    <row r="919">
+    <row r="919" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A919" s="2"/>
     </row>
-    <row r="920">
+    <row r="920" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A920" s="2"/>
     </row>
-    <row r="921">
+    <row r="921" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A921" s="2"/>
     </row>
-    <row r="922">
+    <row r="922" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A922" s="2"/>
     </row>
-    <row r="923">
+    <row r="923" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A923" s="2"/>
     </row>
-    <row r="924">
+    <row r="924" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A924" s="2"/>
     </row>
-    <row r="925">
+    <row r="925" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A925" s="2"/>
     </row>
-    <row r="926">
+    <row r="926" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A926" s="2"/>
     </row>
-    <row r="927">
+    <row r="927" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A927" s="2"/>
     </row>
-    <row r="928">
+    <row r="928" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A928" s="2"/>
     </row>
-    <row r="929">
+    <row r="929" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A929" s="2"/>
     </row>
-    <row r="930">
+    <row r="930" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A930" s="2"/>
     </row>
-    <row r="931">
+    <row r="931" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A931" s="2"/>
     </row>
-    <row r="932">
+    <row r="932" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A932" s="2"/>
     </row>
-    <row r="933">
+    <row r="933" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A933" s="2"/>
     </row>
-    <row r="934">
+    <row r="934" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A934" s="2"/>
     </row>
-    <row r="935">
+    <row r="935" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A935" s="2"/>
     </row>
-    <row r="936">
+    <row r="936" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A936" s="2"/>
     </row>
-    <row r="937">
+    <row r="937" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A937" s="2"/>
     </row>
-    <row r="938">
+    <row r="938" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A938" s="2"/>
     </row>
-    <row r="939">
+    <row r="939" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A939" s="2"/>
     </row>
-    <row r="940">
+    <row r="940" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A940" s="2"/>
     </row>
-    <row r="941">
+    <row r="941" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A941" s="2"/>
     </row>
-    <row r="942">
+    <row r="942" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A942" s="2"/>
     </row>
-    <row r="943">
+    <row r="943" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A943" s="2"/>
     </row>
-    <row r="944">
+    <row r="944" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A944" s="2"/>
     </row>
-    <row r="945">
+    <row r="945" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A945" s="2"/>
     </row>
-    <row r="946">
+    <row r="946" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A946" s="2"/>
     </row>
-    <row r="947">
+    <row r="947" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A947" s="2"/>
     </row>
-    <row r="948">
+    <row r="948" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A948" s="2"/>
     </row>
-    <row r="949">
+    <row r="949" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A949" s="2"/>
     </row>
-    <row r="950">
+    <row r="950" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A950" s="2"/>
     </row>
-    <row r="951">
+    <row r="951" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A951" s="2"/>
     </row>
-    <row r="952">
+    <row r="952" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A952" s="2"/>
     </row>
-    <row r="953">
+    <row r="953" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A953" s="2"/>
     </row>
-    <row r="954">
+    <row r="954" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A954" s="2"/>
     </row>
-    <row r="955">
+    <row r="955" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A955" s="2"/>
     </row>
-    <row r="956">
+    <row r="956" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A956" s="2"/>
     </row>
-    <row r="957">
+    <row r="957" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A957" s="2"/>
     </row>
-    <row r="958">
+    <row r="958" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A958" s="2"/>
     </row>
-    <row r="959">
+    <row r="959" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A959" s="2"/>
     </row>
-    <row r="960">
+    <row r="960" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A960" s="2"/>
     </row>
-    <row r="961">
+    <row r="961" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A961" s="2"/>
     </row>
-    <row r="962">
+    <row r="962" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A962" s="2"/>
     </row>
-    <row r="963">
+    <row r="963" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A963" s="2"/>
     </row>
-    <row r="964">
+    <row r="964" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A964" s="2"/>
     </row>
-    <row r="965">
+    <row r="965" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A965" s="2"/>
     </row>
-    <row r="966">
+    <row r="966" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A966" s="2"/>
     </row>
-    <row r="967">
+    <row r="967" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A967" s="2"/>
     </row>
-    <row r="968">
+    <row r="968" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A968" s="2"/>
     </row>
-    <row r="969">
+    <row r="969" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A969" s="2"/>
     </row>
-    <row r="970">
+    <row r="970" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A970" s="2"/>
     </row>
-    <row r="971">
+    <row r="971" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A971" s="2"/>
     </row>
-    <row r="972">
+    <row r="972" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A972" s="2"/>
     </row>
-    <row r="973">
+    <row r="973" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A973" s="2"/>
     </row>
-    <row r="974">
+    <row r="974" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A974" s="2"/>
     </row>
-    <row r="975">
+    <row r="975" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A975" s="2"/>
     </row>
-    <row r="976">
+    <row r="976" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A976" s="2"/>
     </row>
-    <row r="977">
+    <row r="977" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A977" s="2"/>
     </row>
-    <row r="978">
+    <row r="978" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A978" s="2"/>
     </row>
-    <row r="979">
+    <row r="979" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A979" s="2"/>
     </row>
-    <row r="980">
+    <row r="980" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A980" s="2"/>
     </row>
-    <row r="981">
+    <row r="981" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A981" s="2"/>
     </row>
-    <row r="982">
+    <row r="982" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A982" s="2"/>
     </row>
-    <row r="983">
+    <row r="983" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A983" s="2"/>
     </row>
-    <row r="984">
+    <row r="984" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A984" s="2"/>
     </row>
-    <row r="985">
+    <row r="985" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A985" s="2"/>
     </row>
-    <row r="986">
+    <row r="986" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A986" s="2"/>
     </row>
-    <row r="987">
+    <row r="987" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A987" s="2"/>
     </row>
-    <row r="988">
+    <row r="988" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A988" s="2"/>
     </row>
-    <row r="989">
+    <row r="989" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A989" s="2"/>
     </row>
-    <row r="990">
+    <row r="990" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A990" s="2"/>
     </row>
-    <row r="991">
+    <row r="991" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A991" s="2"/>
     </row>
-    <row r="992">
+    <row r="992" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A992" s="2"/>
     </row>
-    <row r="993">
+    <row r="993" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A993" s="2"/>
     </row>
-    <row r="994">
+    <row r="994" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A994" s="2"/>
     </row>
-    <row r="995">
+    <row r="995" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A995" s="2"/>
     </row>
-    <row r="996">
+    <row r="996" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A996" s="2"/>
     </row>
-    <row r="997">
+    <row r="997" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A997" s="2"/>
     </row>
-    <row r="998">
+    <row r="998" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A998" s="2"/>
     </row>
-    <row r="999">
+    <row r="999" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A999" s="2"/>
     </row>
-    <row r="1000">
+    <row r="1000" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1000" s="2"/>
     </row>
-    <row r="1001">
+    <row r="1001" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1001" s="2"/>
     </row>
-    <row r="1002">
+    <row r="1002" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1002" s="2"/>
     </row>
-    <row r="1003">
+    <row r="1003" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1003" s="2"/>
     </row>
-    <row r="1004">
+    <row r="1004" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1004" s="2"/>
     </row>
-    <row r="1005">
+    <row r="1005" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1005" s="2"/>
     </row>
-    <row r="1006">
+    <row r="1006" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1006" s="2"/>
     </row>
-    <row r="1007">
+    <row r="1007" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1007" s="2"/>
     </row>
-    <row r="1008">
+    <row r="1008" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1008" s="2"/>
     </row>
-    <row r="1009">
+    <row r="1009" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1009" s="2"/>
     </row>
-    <row r="1010">
+    <row r="1010" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1010" s="2"/>
     </row>
-    <row r="1011">
+    <row r="1011" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1011" s="2"/>
     </row>
-    <row r="1012">
+    <row r="1012" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1012" s="2"/>
     </row>
-    <row r="1013">
+    <row r="1013" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1013" s="2"/>
     </row>
-    <row r="1014">
+    <row r="1014" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1014" s="2"/>
     </row>
-    <row r="1015">
+    <row r="1015" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1015" s="2"/>
     </row>
-    <row r="1016">
+    <row r="1016" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1016" s="2"/>
     </row>
-    <row r="1017">
+    <row r="1017" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1017" s="2"/>
     </row>
-    <row r="1018">
+    <row r="1018" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1018" s="2"/>
     </row>
-    <row r="1019">
+    <row r="1019" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1019" s="2"/>
     </row>
-    <row r="1020">
+    <row r="1020" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1020" s="2"/>
     </row>
-    <row r="1021">
+    <row r="1021" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1021" s="2"/>
     </row>
-    <row r="1022">
+    <row r="1022" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1022" s="2"/>
     </row>
-    <row r="1023">
+    <row r="1023" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1023" s="2"/>
     </row>
-    <row r="1024">
+    <row r="1024" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1024" s="2"/>
     </row>
-    <row r="1025">
+    <row r="1025" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1025" s="2"/>
     </row>
-    <row r="1026">
+    <row r="1026" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1026" s="2"/>
     </row>
-    <row r="1027">
+    <row r="1027" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1027" s="2"/>
     </row>
-    <row r="1028">
+    <row r="1028" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1028" s="2"/>
     </row>
-    <row r="1029">
+    <row r="1029" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1029" s="2"/>
     </row>
-    <row r="1030">
+    <row r="1030" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1030" s="2"/>
     </row>
-    <row r="1031">
+    <row r="1031" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1031" s="2"/>
     </row>
-    <row r="1032">
+    <row r="1032" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1032" s="2"/>
     </row>
-    <row r="1033">
+    <row r="1033" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1033" s="2"/>
     </row>
-    <row r="1034">
+    <row r="1034" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1034" s="2"/>
     </row>
-    <row r="1035">
+    <row r="1035" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1035" s="2"/>
     </row>
-    <row r="1036">
+    <row r="1036" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1036" s="2"/>
     </row>
-    <row r="1037">
+    <row r="1037" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1037" s="2"/>
     </row>
-    <row r="1038">
+    <row r="1038" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1038" s="2"/>
     </row>
-    <row r="1039">
+    <row r="1039" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1039" s="2"/>
     </row>
-    <row r="1040">
+    <row r="1040" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1040" s="2"/>
     </row>
-    <row r="1041">
+    <row r="1041" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1041" s="2"/>
     </row>
-    <row r="1042">
+    <row r="1042" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1042" s="2"/>
     </row>
-    <row r="1043">
+    <row r="1043" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1043" s="2"/>
     </row>
-    <row r="1044">
+    <row r="1044" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1044" s="2"/>
     </row>
-    <row r="1045">
+    <row r="1045" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1045" s="2"/>
     </row>
-    <row r="1046">
+    <row r="1046" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1046" s="2"/>
     </row>
-    <row r="1047">
+    <row r="1047" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1047" s="2"/>
     </row>
-    <row r="1048">
+    <row r="1048" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1048" s="2"/>
     </row>
-    <row r="1049">
+    <row r="1049" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1049" s="2"/>
     </row>
-    <row r="1050">
+    <row r="1050" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1050" s="2"/>
     </row>
-    <row r="1051">
+    <row r="1051" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1051" s="2"/>
     </row>
-    <row r="1052">
+    <row r="1052" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1052" s="2"/>
     </row>
-    <row r="1053">
+    <row r="1053" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1053" s="2"/>
     </row>
-    <row r="1054">
+    <row r="1054" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1054" s="2"/>
     </row>
-    <row r="1055">
+    <row r="1055" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1055" s="2"/>
     </row>
-    <row r="1056">
+    <row r="1056" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1056" s="2"/>
     </row>
-    <row r="1057">
+    <row r="1057" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1057" s="2"/>
     </row>
-    <row r="1058">
+    <row r="1058" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1058" s="2"/>
     </row>
-    <row r="1059">
+    <row r="1059" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1059" s="2"/>
     </row>
-    <row r="1060">
+    <row r="1060" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1060" s="2"/>
     </row>
-    <row r="1061">
+    <row r="1061" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1061" s="2"/>
     </row>
-    <row r="1062">
+    <row r="1062" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1062" s="2"/>
     </row>
-    <row r="1063">
+    <row r="1063" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1063" s="2"/>
     </row>
-    <row r="1064">
+    <row r="1064" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1064" s="2"/>
     </row>
-    <row r="1065">
+    <row r="1065" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1065" s="2"/>
     </row>
-    <row r="1066">
+    <row r="1066" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1066" s="2"/>
     </row>
-    <row r="1067">
+    <row r="1067" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1067" s="2"/>
     </row>
-    <row r="1068">
+    <row r="1068" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1068" s="2"/>
     </row>
-    <row r="1069">
+    <row r="1069" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1069" s="2"/>
     </row>
-    <row r="1070">
+    <row r="1070" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1070" s="2"/>
     </row>
-    <row r="1071">
+    <row r="1071" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1071" s="2"/>
     </row>
-    <row r="1072">
+    <row r="1072" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1072" s="2"/>
     </row>
-    <row r="1073">
+    <row r="1073" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1073" s="2"/>
     </row>
-    <row r="1074">
+    <row r="1074" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1074" s="2"/>
     </row>
-    <row r="1075">
+    <row r="1075" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1075" s="2"/>
     </row>
-    <row r="1076">
+    <row r="1076" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1076" s="2"/>
     </row>
-    <row r="1077">
+    <row r="1077" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1077" s="2"/>
     </row>
-    <row r="1078">
+    <row r="1078" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1078" s="2"/>
     </row>
-    <row r="1079">
+    <row r="1079" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1079" s="2"/>
     </row>
-    <row r="1080">
+    <row r="1080" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1080" s="2"/>
     </row>
-    <row r="1081">
+    <row r="1081" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1081" s="2"/>
     </row>
-    <row r="1082">
+    <row r="1082" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1082" s="2"/>
     </row>
-    <row r="1083">
+    <row r="1083" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1083" s="2"/>
     </row>
-    <row r="1084">
+    <row r="1084" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1084" s="2"/>
     </row>
-    <row r="1085">
+    <row r="1085" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1085" s="2"/>
     </row>
-    <row r="1086">
+    <row r="1086" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1086" s="2"/>
     </row>
-    <row r="1087">
+    <row r="1087" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1087" s="2"/>
     </row>
-    <row r="1088">
+    <row r="1088" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1088" s="2"/>
     </row>
-    <row r="1089">
+    <row r="1089" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1089" s="2"/>
     </row>
-    <row r="1090">
+    <row r="1090" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1090" s="2"/>
     </row>
-    <row r="1091">
+    <row r="1091" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1091" s="2"/>
     </row>
-    <row r="1092">
+    <row r="1092" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1092" s="2"/>
     </row>
-    <row r="1093">
+    <row r="1093" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1093" s="2"/>
     </row>
-    <row r="1094">
+    <row r="1094" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1094" s="2"/>
     </row>
-    <row r="1095">
+    <row r="1095" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1095" s="2"/>
     </row>
-    <row r="1096">
+    <row r="1096" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1096" s="2"/>
     </row>
-    <row r="1097">
+    <row r="1097" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1097" s="2"/>
     </row>
-    <row r="1098">
+    <row r="1098" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1098" s="2"/>
     </row>
-    <row r="1099">
+    <row r="1099" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1099" s="2"/>
     </row>
-    <row r="1100">
+    <row r="1100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1100" s="2"/>
     </row>
-    <row r="1101">
+    <row r="1101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1101" s="2"/>
     </row>
-    <row r="1102">
+    <row r="1102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1102" s="2"/>
     </row>
-    <row r="1103">
+    <row r="1103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1103" s="2"/>
     </row>
-    <row r="1104">
+    <row r="1104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1104" s="2"/>
     </row>
-    <row r="1105">
+    <row r="1105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1105" s="2"/>
     </row>
-    <row r="1106">
+    <row r="1106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1106" s="2"/>
     </row>
-    <row r="1107">
+    <row r="1107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1107" s="2"/>
     </row>
-    <row r="1108">
+    <row r="1108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1108" s="2"/>
     </row>
-    <row r="1109">
+    <row r="1109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1109" s="2"/>
     </row>
-    <row r="1110">
+    <row r="1110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1110" s="2"/>
     </row>
-    <row r="1111">
+    <row r="1111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1111" s="2"/>
     </row>
-    <row r="1112">
+    <row r="1112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1112" s="2"/>
     </row>
-    <row r="1113">
+    <row r="1113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1113" s="2"/>
     </row>
-    <row r="1114">
+    <row r="1114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1114" s="2"/>
     </row>
-    <row r="1115">
+    <row r="1115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1115" s="2"/>
     </row>
-    <row r="1116">
+    <row r="1116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1116" s="2"/>
     </row>
-    <row r="1117">
+    <row r="1117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1117" s="2"/>
     </row>
-    <row r="1118">
+    <row r="1118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1118" s="2"/>
     </row>
-    <row r="1119">
+    <row r="1119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1119" s="2"/>
     </row>
-    <row r="1120">
+    <row r="1120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1120" s="2"/>
     </row>
-    <row r="1121">
+    <row r="1121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1121" s="2"/>
     </row>
-    <row r="1122">
+    <row r="1122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1122" s="2"/>
     </row>
-    <row r="1123">
+    <row r="1123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1123" s="2"/>
     </row>
-    <row r="1124">
+    <row r="1124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1124" s="2"/>
     </row>
-    <row r="1125">
+    <row r="1125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1125" s="2"/>
     </row>
-    <row r="1126">
+    <row r="1126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1126" s="2"/>
     </row>
-    <row r="1127">
+    <row r="1127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1127" s="2"/>
     </row>
-    <row r="1128">
+    <row r="1128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1128" s="2"/>
     </row>
-    <row r="1129">
+    <row r="1129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1129" s="2"/>
     </row>
-    <row r="1130">
+    <row r="1130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1130" s="2"/>
     </row>
-    <row r="1131">
+    <row r="1131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1131" s="2"/>
     </row>
-    <row r="1132">
+    <row r="1132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1132" s="2"/>
     </row>
-    <row r="1133">
+    <row r="1133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1133" s="2"/>
     </row>
-    <row r="1134">
+    <row r="1134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1134" s="2"/>
     </row>
-    <row r="1135">
+    <row r="1135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1135" s="2"/>
     </row>
-    <row r="1136">
+    <row r="1136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1136" s="2"/>
     </row>
-    <row r="1137">
+    <row r="1137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1137" s="2"/>
     </row>
-    <row r="1138">
+    <row r="1138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1138" s="2"/>
     </row>
-    <row r="1139">
+    <row r="1139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1139" s="2"/>
     </row>
-    <row r="1140">
+    <row r="1140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1140" s="2"/>
     </row>
-    <row r="1141">
+    <row r="1141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1141" s="2"/>
     </row>
-    <row r="1142">
+    <row r="1142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1142" s="2"/>
     </row>
-    <row r="1143">
+    <row r="1143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1143" s="2"/>
     </row>
-    <row r="1144">
+    <row r="1144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1144" s="2"/>
     </row>
-    <row r="1145">
+    <row r="1145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1145" s="2"/>
     </row>
-    <row r="1146">
+    <row r="1146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1146" s="2"/>
     </row>
-    <row r="1147">
+    <row r="1147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1147" s="2"/>
     </row>
-    <row r="1148">
+    <row r="1148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1148" s="2"/>
     </row>
-    <row r="1149">
+    <row r="1149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1149" s="2"/>
     </row>
-    <row r="1150">
+    <row r="1150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1150" s="2"/>
     </row>
-    <row r="1151">
+    <row r="1151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1151" s="2"/>
     </row>
-    <row r="1152">
+    <row r="1152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1152" s="2"/>
     </row>
-    <row r="1153">
+    <row r="1153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1153" s="2"/>
     </row>
-    <row r="1154">
+    <row r="1154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1154" s="2"/>
     </row>
-    <row r="1155">
+    <row r="1155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1155" s="2"/>
     </row>
-    <row r="1156">
+    <row r="1156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1156" s="2"/>
     </row>
-    <row r="1157">
+    <row r="1157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1157" s="2"/>
     </row>
-    <row r="1158">
+    <row r="1158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1158" s="2"/>
     </row>
-    <row r="1159">
+    <row r="1159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1159" s="2"/>
     </row>
-    <row r="1160">
+    <row r="1160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1160" s="2"/>
     </row>
-    <row r="1161">
+    <row r="1161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1161" s="2"/>
     </row>
-    <row r="1162">
+    <row r="1162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1162" s="2"/>
     </row>
-    <row r="1163">
+    <row r="1163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1163" s="2"/>
     </row>
-    <row r="1164">
+    <row r="1164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1164" s="2"/>
     </row>
-    <row r="1165">
+    <row r="1165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1165" s="2"/>
     </row>
-    <row r="1166">
+    <row r="1166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1166" s="2"/>
     </row>
-    <row r="1167">
+    <row r="1167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1167" s="2"/>
     </row>
-    <row r="1168">
+    <row r="1168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1168" s="2"/>
     </row>
-    <row r="1169">
+    <row r="1169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1169" s="2"/>
     </row>
-    <row r="1170">
+    <row r="1170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1170" s="2"/>
     </row>
-    <row r="1171">
+    <row r="1171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1171" s="2"/>
     </row>
-    <row r="1172">
+    <row r="1172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1172" s="2"/>
     </row>
-    <row r="1173">
+    <row r="1173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1173" s="2"/>
     </row>
-    <row r="1174">
+    <row r="1174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1174" s="2"/>
     </row>
-    <row r="1175">
+    <row r="1175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1175" s="2"/>
     </row>
-    <row r="1176">
+    <row r="1176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1176" s="2"/>
     </row>
-    <row r="1177">
+    <row r="1177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1177" s="2"/>
     </row>
-    <row r="1178">
+    <row r="1178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1178" s="2"/>
     </row>
-    <row r="1179">
+    <row r="1179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1179" s="2"/>
     </row>
-    <row r="1180">
+    <row r="1180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1180" s="2"/>
     </row>
-    <row r="1181">
+    <row r="1181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1181" s="2"/>
     </row>
-    <row r="1182">
+    <row r="1182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1182" s="2"/>
     </row>
-    <row r="1183">
+    <row r="1183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1183" s="2"/>
     </row>
-    <row r="1184">
+    <row r="1184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1184" s="2"/>
     </row>
-    <row r="1185">
+    <row r="1185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1185" s="2"/>
     </row>
-    <row r="1186">
+    <row r="1186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1186" s="2"/>
     </row>
-    <row r="1187">
+    <row r="1187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1187" s="2"/>
     </row>
-    <row r="1188">
+    <row r="1188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1188" s="2"/>
     </row>
-    <row r="1189">
+    <row r="1189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1189" s="2"/>
     </row>
-    <row r="1190">
+    <row r="1190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1190" s="2"/>
     </row>
-    <row r="1191">
+    <row r="1191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1191" s="2"/>
     </row>
-    <row r="1192">
+    <row r="1192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1192" s="2"/>
     </row>
-    <row r="1193">
+    <row r="1193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1193" s="2"/>
     </row>
-    <row r="1194">
+    <row r="1194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1194" s="2"/>
     </row>
-    <row r="1195">
+    <row r="1195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1195" s="2"/>
     </row>
-    <row r="1196">
+    <row r="1196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1196" s="2"/>
     </row>
-    <row r="1197">
+    <row r="1197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1197" s="2"/>
     </row>
-    <row r="1198">
+    <row r="1198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1198" s="2"/>
     </row>
-    <row r="1199">
+    <row r="1199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1199" s="2"/>
     </row>
-    <row r="1200">
+    <row r="1200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1200" s="2"/>
     </row>
-    <row r="1201">
+    <row r="1201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1201" s="2"/>
     </row>
-    <row r="1202">
+    <row r="1202" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1202" s="2"/>
     </row>
-    <row r="1203">
+    <row r="1203" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1203" s="2"/>
     </row>
-    <row r="1204">
+    <row r="1204" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1204" s="2"/>
     </row>
-    <row r="1205">
+    <row r="1205" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1205" s="2"/>
     </row>
-    <row r="1206">
+    <row r="1206" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1206" s="2"/>
     </row>
-    <row r="1207">
+    <row r="1207" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1207" s="2"/>
     </row>
-    <row r="1208">
+    <row r="1208" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1208" s="2"/>
     </row>
-    <row r="1209">
+    <row r="1209" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1209" s="2"/>
     </row>
-    <row r="1210">
+    <row r="1210" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1210" s="2"/>
     </row>
-    <row r="1211">
+    <row r="1211" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1211" s="2"/>
     </row>
-    <row r="1212">
+    <row r="1212" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1212" s="2"/>
     </row>
-    <row r="1213">
+    <row r="1213" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1213" s="2"/>
     </row>
-    <row r="1214">
+    <row r="1214" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1214" s="2"/>
     </row>
-    <row r="1215">
+    <row r="1215" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1215" s="2"/>
     </row>
-    <row r="1216">
+    <row r="1216" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1216" s="2"/>
     </row>
-    <row r="1217">
+    <row r="1217" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1217" s="2"/>
     </row>
-    <row r="1218">
+    <row r="1218" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1218" s="2"/>
     </row>
-    <row r="1219">
+    <row r="1219" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1219" s="2"/>
     </row>
-    <row r="1220">
+    <row r="1220" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1220" s="2"/>
     </row>
-    <row r="1221">
+    <row r="1221" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1221" s="2"/>
     </row>
-    <row r="1222">
+    <row r="1222" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1222" s="2"/>
     </row>
-    <row r="1223">
+    <row r="1223" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1223" s="2"/>
     </row>
-    <row r="1224">
+    <row r="1224" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1224" s="2"/>
     </row>
-    <row r="1225">
+    <row r="1225" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1225" s="2"/>
     </row>
-    <row r="1226">
+    <row r="1226" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1226" s="2"/>
     </row>
-    <row r="1227">
+    <row r="1227" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1227" s="2"/>
     </row>
-    <row r="1228">
+    <row r="1228" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1228" s="2"/>
     </row>
-    <row r="1229">
+    <row r="1229" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1229" s="2"/>
     </row>
-    <row r="1230">
+    <row r="1230" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1230" s="2"/>
     </row>
-    <row r="1231">
+    <row r="1231" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1231" s="2"/>
     </row>
-    <row r="1232">
+    <row r="1232" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1232" s="2"/>
     </row>
-    <row r="1233">
+    <row r="1233" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1233" s="2"/>
     </row>
-    <row r="1234">
+    <row r="1234" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1234" s="2"/>
     </row>
-    <row r="1235">
+    <row r="1235" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1235" s="2"/>
     </row>
-    <row r="1236">
+    <row r="1236" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1236" s="2"/>
     </row>
-    <row r="1237">
+    <row r="1237" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1237" s="2"/>
     </row>
-    <row r="1238">
+    <row r="1238" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1238" s="2"/>
     </row>
-    <row r="1239">
+    <row r="1239" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1239" s="2"/>
     </row>
-    <row r="1240">
+    <row r="1240" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1240" s="2"/>
     </row>
-    <row r="1241">
+    <row r="1241" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1241" s="2"/>
     </row>
-    <row r="1242">
+    <row r="1242" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1242" s="2"/>
     </row>
-    <row r="1243">
+    <row r="1243" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1243" s="2"/>
     </row>
-    <row r="1244">
+    <row r="1244" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1244" s="2"/>
     </row>
-    <row r="1245">
+    <row r="1245" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1245" s="2"/>
     </row>
-    <row r="1246">
+    <row r="1246" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1246" s="2"/>
     </row>
-    <row r="1247">
+    <row r="1247" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1247" s="2"/>
     </row>
-    <row r="1248">
+    <row r="1248" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1248" s="2"/>
     </row>
-    <row r="1249">
+    <row r="1249" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1249" s="2"/>
     </row>
-    <row r="1250">
+    <row r="1250" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1250" s="2"/>
     </row>
-    <row r="1251">
+    <row r="1251" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1251" s="2"/>
     </row>
-    <row r="1252">
+    <row r="1252" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1252" s="2"/>
     </row>
-    <row r="1253">
+    <row r="1253" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1253" s="2"/>
     </row>
-    <row r="1254">
+    <row r="1254" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1254" s="2"/>
     </row>
-    <row r="1255">
+    <row r="1255" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1255" s="2"/>
     </row>
-    <row r="1256">
+    <row r="1256" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1256" s="2"/>
     </row>
-    <row r="1257">
+    <row r="1257" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1257" s="2"/>
     </row>
-    <row r="1258">
+    <row r="1258" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1258" s="2"/>
     </row>
-    <row r="1259">
+    <row r="1259" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1259" s="2"/>
     </row>
-    <row r="1260">
+    <row r="1260" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1260" s="2"/>
     </row>
-    <row r="1261">
+    <row r="1261" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1261" s="2"/>
     </row>
-    <row r="1262">
+    <row r="1262" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1262" s="2"/>
     </row>
-    <row r="1263">
+    <row r="1263" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1263" s="2"/>
     </row>
-    <row r="1264">
+    <row r="1264" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1264" s="2"/>
     </row>
-    <row r="1265">
+    <row r="1265" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1265" s="2"/>
     </row>
-    <row r="1266">
+    <row r="1266" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1266" s="2"/>
     </row>
-    <row r="1267">
+    <row r="1267" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1267" s="2"/>
     </row>
-    <row r="1268">
+    <row r="1268" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1268" s="2"/>
     </row>
-    <row r="1269">
+    <row r="1269" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1269" s="2"/>
     </row>
-    <row r="1270">
+    <row r="1270" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1270" s="2"/>
     </row>
-    <row r="1271">
+    <row r="1271" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1271" s="2"/>
     </row>
-    <row r="1272">
+    <row r="1272" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1272" s="2"/>
     </row>
-    <row r="1273">
+    <row r="1273" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1273" s="2"/>
     </row>
-    <row r="1274">
+    <row r="1274" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1274" s="2"/>
     </row>
-    <row r="1275">
+    <row r="1275" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1275" s="2"/>
     </row>
-    <row r="1276">
+    <row r="1276" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1276" s="2"/>
     </row>
-    <row r="1277">
+    <row r="1277" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1277" s="2"/>
     </row>
-    <row r="1278">
+    <row r="1278" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1278" s="2"/>
     </row>
-    <row r="1279">
+    <row r="1279" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1279" s="2"/>
     </row>
-    <row r="1280">
+    <row r="1280" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1280" s="2"/>
     </row>
-    <row r="1281">
+    <row r="1281" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1281" s="2"/>
     </row>
-    <row r="1282">
+    <row r="1282" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1282" s="2"/>
     </row>
-    <row r="1283">
+    <row r="1283" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1283" s="2"/>
     </row>
-    <row r="1284">
+    <row r="1284" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1284" s="2"/>
     </row>
-    <row r="1285">
+    <row r="1285" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1285" s="2"/>
     </row>
-    <row r="1286">
+    <row r="1286" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1286" s="2"/>
     </row>
-    <row r="1287">
+    <row r="1287" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1287" s="2"/>
     </row>
-    <row r="1288">
+    <row r="1288" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1288" s="2"/>
     </row>
-    <row r="1289">
+    <row r="1289" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1289" s="2"/>
     </row>
-    <row r="1290">
+    <row r="1290" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1290" s="2"/>
     </row>
-    <row r="1291">
+    <row r="1291" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1291" s="2"/>
     </row>
-    <row r="1292">
+    <row r="1292" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1292" s="2"/>
     </row>
-    <row r="1293">
+    <row r="1293" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1293" s="2"/>
     </row>
-    <row r="1294">
+    <row r="1294" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1294" s="2"/>
     </row>
-    <row r="1295">
+    <row r="1295" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1295" s="2"/>
     </row>
-    <row r="1296">
+    <row r="1296" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1296" s="2"/>
     </row>
-    <row r="1297">
+    <row r="1297" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1297" s="2"/>
     </row>
-    <row r="1298">
+    <row r="1298" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1298" s="2"/>
     </row>
-    <row r="1299">
+    <row r="1299" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1299" s="2"/>
     </row>
-    <row r="1300">
+    <row r="1300" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1300" s="2"/>
     </row>
-    <row r="1301">
+    <row r="1301" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1301" s="2"/>
     </row>
-    <row r="1302">
+    <row r="1302" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1302" s="2"/>
     </row>
-    <row r="1303">
+    <row r="1303" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1303" s="2"/>
     </row>
-    <row r="1304">
+    <row r="1304" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1304" s="2"/>
     </row>
-    <row r="1305">
+    <row r="1305" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1305" s="2"/>
     </row>
-    <row r="1306">
+    <row r="1306" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1306" s="2"/>
     </row>
-    <row r="1307">
+    <row r="1307" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1307" s="2"/>
     </row>
-    <row r="1308">
+    <row r="1308" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1308" s="2"/>
     </row>
-    <row r="1309">
+    <row r="1309" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1309" s="2"/>
     </row>
-    <row r="1310">
+    <row r="1310" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1310" s="2"/>
     </row>
-    <row r="1311">
+    <row r="1311" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1311" s="2"/>
     </row>
-    <row r="1312">
+    <row r="1312" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1312" s="2"/>
     </row>
-    <row r="1313">
+    <row r="1313" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1313" s="2"/>
     </row>
-    <row r="1314">
+    <row r="1314" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1314" s="2"/>
     </row>
-    <row r="1315">
+    <row r="1315" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1315" s="2"/>
     </row>
-    <row r="1316">
+    <row r="1316" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1316" s="2"/>
     </row>
-    <row r="1317">
+    <row r="1317" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1317" s="2"/>
     </row>
-    <row r="1318">
+    <row r="1318" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1318" s="2"/>
     </row>
-    <row r="1319">
+    <row r="1319" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1319" s="2"/>
     </row>
-    <row r="1320">
+    <row r="1320" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1320" s="2"/>
     </row>
-    <row r="1321">
+    <row r="1321" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1321" s="2"/>
     </row>
-    <row r="1322">
+    <row r="1322" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1322" s="2"/>
     </row>
-    <row r="1323">
+    <row r="1323" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1323" s="2"/>
     </row>
-    <row r="1324">
+    <row r="1324" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1324" s="2"/>
     </row>
-    <row r="1325">
+    <row r="1325" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1325" s="2"/>
     </row>
-    <row r="1326">
+    <row r="1326" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1326" s="2"/>
     </row>
-    <row r="1327">
+    <row r="1327" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1327" s="2"/>
     </row>
-    <row r="1328">
+    <row r="1328" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1328" s="2"/>
     </row>
-    <row r="1329">
+    <row r="1329" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1329" s="2"/>
     </row>
-    <row r="1330">
+    <row r="1330" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1330" s="2"/>
     </row>
-    <row r="1331">
+    <row r="1331" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1331" s="2"/>
     </row>
-    <row r="1332">
+    <row r="1332" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1332" s="2"/>
     </row>
-    <row r="1333">
+    <row r="1333" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1333" s="2"/>
     </row>
-    <row r="1334">
+    <row r="1334" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1334" s="2"/>
     </row>
-    <row r="1335">
+    <row r="1335" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1335" s="2"/>
     </row>
-    <row r="1336">
+    <row r="1336" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1336" s="2"/>
     </row>
-    <row r="1337">
+    <row r="1337" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1337" s="2"/>
     </row>
-    <row r="1338">
+    <row r="1338" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1338" s="2"/>
     </row>
-    <row r="1339">
+    <row r="1339" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1339" s="2"/>
     </row>
-    <row r="1340">
+    <row r="1340" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1340" s="2"/>
     </row>
-    <row r="1341">
+    <row r="1341" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1341" s="2"/>
     </row>
-    <row r="1342">
+    <row r="1342" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1342" s="2"/>
     </row>
-    <row r="1343">
+    <row r="1343" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1343" s="2"/>
     </row>
-    <row r="1344">
+    <row r="1344" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1344" s="2"/>
     </row>
-    <row r="1345">
+    <row r="1345" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1345" s="2"/>
     </row>
-    <row r="1346">
+    <row r="1346" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1346" s="2"/>
     </row>
-    <row r="1347">
+    <row r="1347" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1347" s="2"/>
     </row>
-    <row r="1348">
+    <row r="1348" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1348" s="2"/>
     </row>
-    <row r="1349">
+    <row r="1349" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1349" s="2"/>
     </row>
-    <row r="1350">
+    <row r="1350" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1350" s="2"/>
     </row>
-    <row r="1351">
+    <row r="1351" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1351" s="2"/>
     </row>
-    <row r="1352">
+    <row r="1352" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1352" s="2"/>
     </row>
-    <row r="1353">
+    <row r="1353" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1353" s="2"/>
     </row>
-    <row r="1354">
+    <row r="1354" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1354" s="2"/>
     </row>
-    <row r="1355">
+    <row r="1355" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1355" s="2"/>
     </row>
-    <row r="1356">
+    <row r="1356" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1356" s="2"/>
     </row>
-    <row r="1357">
+    <row r="1357" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1357" s="2"/>
     </row>
-    <row r="1358">
+    <row r="1358" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1358" s="2"/>
     </row>
-    <row r="1359">
+    <row r="1359" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1359" s="2"/>
     </row>
-    <row r="1360">
+    <row r="1360" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1360" s="2"/>
     </row>
-    <row r="1361">
+    <row r="1361" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1361" s="2"/>
     </row>
-    <row r="1362">
+    <row r="1362" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1362" s="2"/>
     </row>
-    <row r="1363">
+    <row r="1363" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1363" s="2"/>
     </row>
-    <row r="1364">
+    <row r="1364" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1364" s="2"/>
     </row>
-    <row r="1365">
+    <row r="1365" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1365" s="2"/>
     </row>
-    <row r="1366">
+    <row r="1366" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1366" s="2"/>
     </row>
-    <row r="1367">
+    <row r="1367" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1367" s="2"/>
     </row>
-    <row r="1368">
+    <row r="1368" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1368" s="2"/>
     </row>
-    <row r="1369">
+    <row r="1369" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1369" s="2"/>
     </row>
-    <row r="1370">
+    <row r="1370" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1370" s="2"/>
     </row>
-    <row r="1371">
+    <row r="1371" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1371" s="2"/>
     </row>
-    <row r="1372">
+    <row r="1372" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1372" s="2"/>
     </row>
-    <row r="1373">
+    <row r="1373" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1373" s="2"/>
     </row>
-    <row r="1374">
+    <row r="1374" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1374" s="2"/>
     </row>
-    <row r="1375">
+    <row r="1375" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1375" s="2"/>
     </row>
-    <row r="1376">
+    <row r="1376" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1376" s="2"/>
     </row>
-    <row r="1377">
+    <row r="1377" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1377" s="2"/>
     </row>
-    <row r="1378">
+    <row r="1378" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1378" s="2"/>
     </row>
-    <row r="1379">
+    <row r="1379" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1379" s="2"/>
     </row>
-    <row r="1380">
+    <row r="1380" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1380" s="2"/>
     </row>
-    <row r="1381">
+    <row r="1381" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1381" s="2"/>
     </row>
-    <row r="1382">
+    <row r="1382" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1382" s="2"/>
     </row>
-    <row r="1383">
+    <row r="1383" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1383" s="2"/>
     </row>
-    <row r="1384">
+    <row r="1384" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1384" s="2"/>
     </row>
-    <row r="1385">
+    <row r="1385" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1385" s="2"/>
     </row>
-    <row r="1386">
+    <row r="1386" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1386" s="2"/>
     </row>
-    <row r="1387">
+    <row r="1387" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1387" s="2"/>
     </row>
-    <row r="1388">
+    <row r="1388" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1388" s="2"/>
     </row>
-    <row r="1389">
+    <row r="1389" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1389" s="2"/>
     </row>
-    <row r="1390">
+    <row r="1390" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1390" s="2"/>
     </row>
-    <row r="1391">
+    <row r="1391" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1391" s="2"/>
     </row>
-    <row r="1392">
+    <row r="1392" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1392" s="2"/>
     </row>
-    <row r="1393">
+    <row r="1393" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1393" s="2"/>
     </row>
-    <row r="1394">
+    <row r="1394" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1394" s="2"/>
     </row>
-    <row r="1395">
+    <row r="1395" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1395" s="2"/>
     </row>
-    <row r="1396">
+    <row r="1396" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1396" s="2"/>
     </row>
-    <row r="1397">
+    <row r="1397" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1397" s="2"/>
     </row>
-    <row r="1398">
+    <row r="1398" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1398" s="2"/>
     </row>
-    <row r="1399">
+    <row r="1399" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1399" s="2"/>
     </row>
-    <row r="1400">
+    <row r="1400" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1400" s="2"/>
     </row>
-    <row r="1401">
+    <row r="1401" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1401" s="2"/>
     </row>
-    <row r="1402">
+    <row r="1402" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1402" s="2"/>
     </row>
-    <row r="1403">
+    <row r="1403" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1403" s="2"/>
     </row>
-    <row r="1404">
+    <row r="1404" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1404" s="2"/>
     </row>
-    <row r="1405">
+    <row r="1405" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1405" s="2"/>
     </row>
-    <row r="1406">
+    <row r="1406" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1406" s="2"/>
     </row>
-    <row r="1407">
+    <row r="1407" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1407" s="2"/>
     </row>
-    <row r="1408">
+    <row r="1408" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1408" s="2"/>
     </row>
-    <row r="1409">
+    <row r="1409" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1409" s="2"/>
     </row>
-    <row r="1410">
+    <row r="1410" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1410" s="2"/>
     </row>
-    <row r="1411">
+    <row r="1411" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1411" s="2"/>
     </row>
-    <row r="1412">
+    <row r="1412" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1412" s="2"/>
     </row>
-    <row r="1413">
+    <row r="1413" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1413" s="2"/>
     </row>
-    <row r="1414">
+    <row r="1414" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1414" s="2"/>
     </row>
-    <row r="1415">
+    <row r="1415" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1415" s="2"/>
     </row>
-    <row r="1416">
+    <row r="1416" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1416" s="2"/>
     </row>
-    <row r="1417">
+    <row r="1417" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1417" s="2"/>
     </row>
-    <row r="1418">
+    <row r="1418" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1418" s="2"/>
     </row>
-    <row r="1419">
+    <row r="1419" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1419" s="2"/>
     </row>
-    <row r="1420">
+    <row r="1420" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1420" s="2"/>
     </row>
-    <row r="1421">
+    <row r="1421" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1421" s="2"/>
     </row>
-    <row r="1422">
+    <row r="1422" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1422" s="2"/>
     </row>
-    <row r="1423">
+    <row r="1423" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1423" s="2"/>
     </row>
-    <row r="1424">
+    <row r="1424" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1424" s="2"/>
     </row>
-    <row r="1425">
+    <row r="1425" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1425" s="2"/>
     </row>
-    <row r="1426">
+    <row r="1426" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1426" s="2"/>
     </row>
-    <row r="1427">
+    <row r="1427" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1427" s="2"/>
     </row>
-    <row r="1428">
+    <row r="1428" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1428" s="2"/>
     </row>
-    <row r="1429">
+    <row r="1429" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1429" s="2"/>
     </row>
-    <row r="1430">
+    <row r="1430" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1430" s="2"/>
     </row>
-    <row r="1431">
+    <row r="1431" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1431" s="2"/>
     </row>
-    <row r="1432">
+    <row r="1432" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1432" s="2"/>
     </row>
-    <row r="1433">
+    <row r="1433" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1433" s="2"/>
     </row>
-    <row r="1434">
+    <row r="1434" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1434" s="2"/>
     </row>
-    <row r="1435">
+    <row r="1435" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1435" s="2"/>
     </row>
-    <row r="1436">
+    <row r="1436" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1436" s="2"/>
     </row>
-    <row r="1437">
+    <row r="1437" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1437" s="2"/>
     </row>
-    <row r="1438">
+    <row r="1438" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1438" s="2"/>
     </row>
-    <row r="1439">
+    <row r="1439" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1439" s="2"/>
     </row>
-    <row r="1440">
+    <row r="1440" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1440" s="2"/>
     </row>
-    <row r="1441">
+    <row r="1441" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1441" s="2"/>
     </row>
-    <row r="1442">
+    <row r="1442" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1442" s="2"/>
     </row>
-    <row r="1443">
+    <row r="1443" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1443" s="2"/>
     </row>
-    <row r="1444">
+    <row r="1444" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1444" s="2"/>
     </row>
-    <row r="1445">
+    <row r="1445" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1445" s="2"/>
     </row>
-    <row r="1446">
+    <row r="1446" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1446" s="2"/>
     </row>
-    <row r="1447">
+    <row r="1447" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1447" s="2"/>
     </row>
-    <row r="1448">
+    <row r="1448" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1448" s="2"/>
     </row>
-    <row r="1449">
+    <row r="1449" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1449" s="2"/>
     </row>
-    <row r="1450">
+    <row r="1450" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1450" s="2"/>
     </row>
-    <row r="1451">
+    <row r="1451" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1451" s="2"/>
     </row>
-    <row r="1452">
+    <row r="1452" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1452" s="2"/>
     </row>
-    <row r="1453">
+    <row r="1453" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1453" s="2"/>
     </row>
-    <row r="1454">
+    <row r="1454" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1454" s="2"/>
     </row>
-    <row r="1455">
+    <row r="1455" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1455" s="2"/>
     </row>
-    <row r="1456">
+    <row r="1456" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1456" s="2"/>
     </row>
-    <row r="1457">
+    <row r="1457" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1457" s="2"/>
     </row>
-    <row r="1458">
+    <row r="1458" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1458" s="2"/>
     </row>
-    <row r="1459">
+    <row r="1459" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1459" s="2"/>
     </row>
-    <row r="1460">
+    <row r="1460" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1460" s="2"/>
     </row>
-    <row r="1461">
+    <row r="1461" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1461" s="2"/>
     </row>
-    <row r="1462">
+    <row r="1462" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1462" s="2"/>
     </row>
-    <row r="1463">
+    <row r="1463" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1463" s="2"/>
     </row>
-    <row r="1464">
+    <row r="1464" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1464" s="2"/>
     </row>
-    <row r="1465">
+    <row r="1465" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1465" s="2"/>
     </row>
-    <row r="1466">
+    <row r="1466" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1466" s="2"/>
     </row>
-    <row r="1467">
+    <row r="1467" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1467" s="2"/>
     </row>
-    <row r="1468">
+    <row r="1468" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1468" s="2"/>
     </row>
-    <row r="1469">
+    <row r="1469" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1469" s="2"/>
     </row>
-    <row r="1470">
+    <row r="1470" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1470" s="2"/>
     </row>
-    <row r="1471">
+    <row r="1471" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1471" s="2"/>
     </row>
-    <row r="1472">
+    <row r="1472" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1472" s="2"/>
     </row>
-    <row r="1473">
+    <row r="1473" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1473" s="2"/>
     </row>
-    <row r="1474">
+    <row r="1474" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1474" s="2"/>
     </row>
-    <row r="1475">
+    <row r="1475" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1475" s="2"/>
     </row>
-    <row r="1476">
+    <row r="1476" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1476" s="2"/>
     </row>
-    <row r="1477">
+    <row r="1477" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1477" s="2"/>
     </row>
-    <row r="1478">
+    <row r="1478" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1478" s="2"/>
     </row>
-    <row r="1479">
+    <row r="1479" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1479" s="2"/>
     </row>
-    <row r="1480">
+    <row r="1480" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1480" s="2"/>
     </row>
-    <row r="1481">
+    <row r="1481" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1481" s="2"/>
     </row>
-    <row r="1482">
+    <row r="1482" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1482" s="2"/>
     </row>
-    <row r="1483">
+    <row r="1483" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1483" s="2"/>
     </row>
-    <row r="1484">
+    <row r="1484" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1484" s="2"/>
     </row>
-    <row r="1485">
+    <row r="1485" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1485" s="2"/>
     </row>
-    <row r="1486">
+    <row r="1486" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1486" s="2"/>
     </row>
-    <row r="1487">
+    <row r="1487" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1487" s="2"/>
     </row>
-    <row r="1488">
+    <row r="1488" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1488" s="2"/>
     </row>
-    <row r="1489">
+    <row r="1489" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1489" s="2"/>
     </row>
-    <row r="1490">
+    <row r="1490" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1490" s="2"/>
     </row>
-    <row r="1491">
+    <row r="1491" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1491" s="2"/>
     </row>
-    <row r="1492">
+    <row r="1492" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1492" s="2"/>
     </row>
-    <row r="1493">
+    <row r="1493" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1493" s="2"/>
     </row>
-    <row r="1494">
+    <row r="1494" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1494" s="2"/>
     </row>
-    <row r="1495">
+    <row r="1495" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1495" s="2"/>
     </row>
-    <row r="1496">
+    <row r="1496" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1496" s="2"/>
     </row>
-    <row r="1497">
+    <row r="1497" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1497" s="2"/>
     </row>
-    <row r="1498">
+    <row r="1498" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1498" s="2"/>
     </row>
-    <row r="1499">
+    <row r="1499" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1499" s="2"/>
     </row>
-    <row r="1500">
+    <row r="1500" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1500" s="2"/>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:C201"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="4"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="5" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="5" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="28">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="29">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="32">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="6">
-        <v>1.2142078621E10</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>12142078621</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="5" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="6">
-        <v>1.241051055E9</v>
-      </c>
-    </row>
-    <row r="35">
+        <v>1241051055</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="6">
-        <v>1.2125704002E10</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>12125704002</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="37">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="38">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="39">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="40">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="41">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="42">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="43">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" s="6">
-        <v>1.234976516E9</v>
-      </c>
-    </row>
-    <row r="44">
+        <v>1234976516</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" s="5" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="45">
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" s="5" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="46">
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="47">
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" s="5" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="48">
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="50">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="51">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="52">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="53">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A53" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="54">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A54" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="55">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="56">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A56" s="5" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="57">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A58" s="3" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="59">
+    <row r="59" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A59" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="60">
+    <row r="60" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A60" s="5" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="61">
+    <row r="61" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="62">
+    <row r="62" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="63">
+    <row r="63" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A63" s="5" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="64">
+    <row r="64" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A64" s="5" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="65">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="66">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A66" s="5" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="67">
+    <row r="67" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="68">
+    <row r="68" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="69">
+    <row r="69" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="70">
+    <row r="70" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="71">
+    <row r="71" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="72">
+    <row r="72" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="73">
+    <row r="73" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="74">
+    <row r="74" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A74" s="5" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="75">
+    <row r="75" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="77">
+    <row r="77" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A77" s="5" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="78">
+    <row r="78" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="79">
+    <row r="79" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="80">
+    <row r="80" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="81">
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="82">
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="83">
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A83" s="5" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="84">
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="85">
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="86">
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="87">
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="88">
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="89">
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A89" s="5" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="90">
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="91">
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="92">
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="93">
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="94">
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="95">
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="96">
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="97">
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" s="3" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="99">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" s="3" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="100">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" s="5" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="101">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" s="3" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="102">
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A102" s="3" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="103">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="104">
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A104" s="3" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="105">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="106">
+    <row r="106" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A106" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="107">
+    <row r="107" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A107" s="3" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="108">
+    <row r="108" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A108" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="109">
+    <row r="109" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="110">
+    <row r="110" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="111">
+    <row r="111" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A111" s="6">
-        <v>1.286382472E9</v>
-      </c>
-    </row>
-    <row r="112">
+        <v>1286382472</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A112" s="6">
-        <v>1.271523985E9</v>
-      </c>
-    </row>
-    <row r="113">
+        <v>1271523985</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A113" s="6">
-        <v>1.269639073E9</v>
-      </c>
-    </row>
-    <row r="114">
+        <v>1269639073</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A114" s="6">
-        <v>1.24401112E9</v>
-      </c>
-    </row>
-    <row r="115">
+        <v>1244011120</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A115" s="6">
-        <v>1.226637596E9</v>
-      </c>
-    </row>
-    <row r="116">
+        <v>1226637596</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A116" s="6">
-        <v>1.2185521121E10</v>
-      </c>
-    </row>
-    <row r="117">
+        <v>12185521121</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A117" s="6">
-        <v>1.2159419254E10</v>
-      </c>
-    </row>
-    <row r="118">
+        <v>12159419254</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A118" s="6">
-        <v>1.2154940103E10</v>
-      </c>
-    </row>
-    <row r="119">
+        <v>12154940103</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A119" s="6">
-        <v>1.2144024723E10</v>
-      </c>
-    </row>
-    <row r="120">
+        <v>12144024723</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A120" s="6">
-        <v>1.216762233E10</v>
-      </c>
-    </row>
-    <row r="121">
+        <v>12167622330</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A121" s="6">
-        <v>1.271044398E9</v>
-      </c>
-    </row>
-    <row r="122">
+        <v>1271044398</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A122" s="5" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="123">
+    <row r="123" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A123" s="5" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="124">
+    <row r="124" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A124" s="3" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="125">
+    <row r="125" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A125" s="5" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="126">
+    <row r="126" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="127">
+    <row r="127" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="128">
+    <row r="128" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A128" s="6">
-        <v>1.2166092698E10</v>
-      </c>
-    </row>
-    <row r="129">
+        <v>12166092698</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A129" s="6">
-        <v>1.220769758E9</v>
-      </c>
-    </row>
-    <row r="130">
+        <v>1220769758</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A130" s="3" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="131">
+    <row r="131" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A131" s="6">
-        <v>1.245165249E9</v>
-      </c>
-    </row>
-    <row r="132">
+        <v>1245165249</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A132" s="6">
-        <v>1.2145283143E10</v>
-      </c>
-    </row>
-    <row r="133">
+        <v>12145283143</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A133" s="3" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="134">
+    <row r="134" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A134" s="3" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="135">
+    <row r="135" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A135" s="6">
-        <v>1.220769758E9</v>
-      </c>
-    </row>
-    <row r="136">
+        <v>1220769758</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A136" s="5" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="137">
+    <row r="137" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A137" s="5" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="138">
+    <row r="138" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A138" s="6">
-        <v>1.2141206586E10</v>
-      </c>
-    </row>
-    <row r="139">
+        <v>12141206586</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A139" s="5" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="140">
+    <row r="140" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A140" s="6">
-        <v>1.2146507358E10</v>
-      </c>
-    </row>
-    <row r="141">
+        <v>12146507358</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="142">
+    <row r="142" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="143">
+    <row r="143" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="144">
+    <row r="144" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="145">
+    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A145" s="6">
-        <v>1.270601874E9</v>
-      </c>
-    </row>
-    <row r="146">
+        <v>1270601874</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A146" s="6">
-        <v>1.225702178E9</v>
-      </c>
-    </row>
-    <row r="147">
+        <v>1225702178</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A147" s="5" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="148">
+    <row r="148" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A148" s="5" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="149">
+    <row r="149" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="150">
+    <row r="150" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="151">
+    <row r="151" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A151" s="3" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="152">
+    <row r="152" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A152" s="3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="153">
+    <row r="153" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A153" s="6">
-        <v>1.2145018612E10</v>
-      </c>
-    </row>
-    <row r="154">
+        <v>12145018612</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A154" s="3" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="155">
+    <row r="155" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A155" s="3" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="156">
+    <row r="156" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A156" s="3" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="157">
+    <row r="157" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A157" s="5" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="158">
+    <row r="158" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A158" s="6">
-        <v>1.2101104563E10</v>
-      </c>
-    </row>
-    <row r="159">
+        <v>12101104563</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A159" s="5" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="160">
+    <row r="160" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A160" s="5" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="161">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A161" s="6">
-        <v>1.269709213E9</v>
-      </c>
-    </row>
-    <row r="162">
+        <v>1269709213</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A162" s="3" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="163">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A163" s="5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="164">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A164" s="5" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="165">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A165" s="3" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="166">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A166" s="5" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="167">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A167" s="3" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="168">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="169">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A169" s="3" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="170">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A170" s="3" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="171">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A171" s="3" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="172">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A172" s="5" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="173">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A173" s="5" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="174">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A174" s="3" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="175">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A175" s="6">
-        <v>1.275586189E9</v>
-      </c>
-    </row>
-    <row r="176">
+        <v>1275586189</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A176" s="6">
-        <v>1.2171567532E10</v>
-      </c>
-    </row>
-    <row r="177">
+        <v>12171567532</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A177" s="6">
-        <v>1.2143166687E10</v>
-      </c>
-    </row>
-    <row r="178">
+        <v>12143166687</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A178" s="3" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="179">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A179" s="6">
-        <v>1.254880334E9</v>
-      </c>
-    </row>
-    <row r="180">
+        <v>1254880334</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A180" s="5" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="181">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A181" s="3" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="182">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A182" s="6">
-        <v>1.2151967606E10</v>
-      </c>
-    </row>
-    <row r="183">
+        <v>12151967606</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A183" s="3" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="184">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A184" s="5" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="185">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A185" s="5" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="186">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A186" s="3" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="187">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A187" s="5" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="188">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A188" s="3" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="189">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A189" s="3" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="190">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A190" s="3" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="191">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A191" s="3" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="192">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A192" s="5" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="193">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A193" s="5" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="194">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A194" s="5" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="195">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A195" s="3" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="196">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A196" s="5" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="197">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A197" s="6">
-        <v>1.294124325E9</v>
-      </c>
-    </row>
-    <row r="198">
+        <v>1294124325</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A198" s="3" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="199">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A199" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="200">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A200" s="6">
-        <v>1.2138485512E10</v>
-      </c>
-    </row>
-    <row r="201">
+        <v>12138485512</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A201" s="6">
-        <v>1.273856658E9</v>
+        <v>1273856658</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A2:GS2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="2">
+    <row r="2" spans="1:201" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
@@ -7186,16 +7211,16 @@
         <v>31</v>
       </c>
       <c r="AF2" s="7">
-        <v>1.2142078621E10</v>
+        <v>12142078621</v>
       </c>
       <c r="AG2" s="7" t="s">
         <v>32</v>
       </c>
       <c r="AH2" s="7">
-        <v>1.241051055E9</v>
+        <v>1241051055</v>
       </c>
       <c r="AI2" s="7">
-        <v>1.2125704002E10</v>
+        <v>12125704002</v>
       </c>
       <c r="AJ2" s="7" t="s">
         <v>33</v>
@@ -7219,7 +7244,7 @@
         <v>39</v>
       </c>
       <c r="AQ2" s="7">
-        <v>1.234976516E9</v>
+        <v>1234976516</v>
       </c>
       <c r="AR2" s="7" t="s">
         <v>40</v>
@@ -7423,37 +7448,37 @@
         <v>106</v>
       </c>
       <c r="DG2" s="7">
-        <v>1.286382472E9</v>
+        <v>1286382472</v>
       </c>
       <c r="DH2" s="7">
-        <v>1.271523985E9</v>
+        <v>1271523985</v>
       </c>
       <c r="DI2" s="7">
-        <v>1.269639073E9</v>
+        <v>1269639073</v>
       </c>
       <c r="DJ2" s="7">
-        <v>1.24401112E9</v>
+        <v>1244011120</v>
       </c>
       <c r="DK2" s="7">
-        <v>1.226637596E9</v>
+        <v>1226637596</v>
       </c>
       <c r="DL2" s="7">
-        <v>1.2185521121E10</v>
+        <v>12185521121</v>
       </c>
       <c r="DM2" s="7">
-        <v>1.2159419254E10</v>
+        <v>12159419254</v>
       </c>
       <c r="DN2" s="7">
-        <v>1.2154940103E10</v>
+        <v>12154940103</v>
       </c>
       <c r="DO2" s="7">
-        <v>1.2144024723E10</v>
+        <v>12144024723</v>
       </c>
       <c r="DP2" s="7">
-        <v>1.216762233E10</v>
+        <v>12167622330</v>
       </c>
       <c r="DQ2" s="7">
-        <v>1.271044398E9</v>
+        <v>1271044398</v>
       </c>
       <c r="DR2" s="7" t="s">
         <v>107</v>
@@ -7474,19 +7499,19 @@
         <v>112</v>
       </c>
       <c r="DX2" s="7">
-        <v>1.2166092698E10</v>
+        <v>12166092698</v>
       </c>
       <c r="DY2" s="7">
-        <v>1.220769758E9</v>
+        <v>1220769758</v>
       </c>
       <c r="DZ2" s="7" t="s">
         <v>113</v>
       </c>
       <c r="EA2" s="7">
-        <v>1.245165249E9</v>
+        <v>1245165249</v>
       </c>
       <c r="EB2" s="7">
-        <v>1.2145283143E10</v>
+        <v>12145283143</v>
       </c>
       <c r="EC2" s="7" t="s">
         <v>114</v>
@@ -7495,7 +7520,7 @@
         <v>115</v>
       </c>
       <c r="EE2" s="7">
-        <v>1.220769758E9</v>
+        <v>1220769758</v>
       </c>
       <c r="EF2" s="7" t="s">
         <v>116</v>
@@ -7504,13 +7529,13 @@
         <v>117</v>
       </c>
       <c r="EH2" s="7">
-        <v>1.2141206586E10</v>
+        <v>12141206586</v>
       </c>
       <c r="EI2" s="7" t="s">
         <v>118</v>
       </c>
       <c r="EJ2" s="7">
-        <v>1.2146507358E10</v>
+        <v>12146507358</v>
       </c>
       <c r="EK2" s="7" t="s">
         <v>119</v>
@@ -7525,10 +7550,10 @@
         <v>122</v>
       </c>
       <c r="EO2" s="7">
-        <v>1.270601874E9</v>
+        <v>1270601874</v>
       </c>
       <c r="EP2" s="7">
-        <v>1.225702178E9</v>
+        <v>1225702178</v>
       </c>
       <c r="EQ2" s="7" t="s">
         <v>123</v>
@@ -7549,7 +7574,7 @@
         <v>128</v>
       </c>
       <c r="EW2" s="7">
-        <v>1.2145018612E10</v>
+        <v>12145018612</v>
       </c>
       <c r="EX2" s="7" t="s">
         <v>129</v>
@@ -7564,7 +7589,7 @@
         <v>132</v>
       </c>
       <c r="FB2" s="7">
-        <v>1.2101104563E10</v>
+        <v>12101104563</v>
       </c>
       <c r="FC2" s="7" t="s">
         <v>133</v>
@@ -7573,7 +7598,7 @@
         <v>134</v>
       </c>
       <c r="FE2" s="7">
-        <v>1.269709213E9</v>
+        <v>1269709213</v>
       </c>
       <c r="FF2" s="7" t="s">
         <v>135</v>
@@ -7615,19 +7640,19 @@
         <v>146</v>
       </c>
       <c r="FS2" s="7">
-        <v>1.275586189E9</v>
+        <v>1275586189</v>
       </c>
       <c r="FT2" s="7">
-        <v>1.2171567532E10</v>
+        <v>12171567532</v>
       </c>
       <c r="FU2" s="7">
-        <v>1.2143166687E10</v>
+        <v>12143166687</v>
       </c>
       <c r="FV2" s="7" t="s">
         <v>147</v>
       </c>
       <c r="FW2" s="7">
-        <v>1.254880334E9</v>
+        <v>1254880334</v>
       </c>
       <c r="FX2" s="7" t="s">
         <v>148</v>
@@ -7636,7 +7661,7 @@
         <v>149</v>
       </c>
       <c r="FZ2" s="7">
-        <v>1.2151967606E10</v>
+        <v>12151967606</v>
       </c>
       <c r="GA2" s="7" t="s">
         <v>150</v>
@@ -7681,7 +7706,7 @@
         <v>163</v>
       </c>
       <c r="GO2" s="7">
-        <v>1.294124325E9</v>
+        <v>1294124325</v>
       </c>
       <c r="GP2" s="7" t="s">
         <v>164</v>
@@ -7690,183 +7715,186 @@
         <v>165</v>
       </c>
       <c r="GR2" s="7">
-        <v>1.2138485512E10</v>
+        <v>12138485512</v>
       </c>
       <c r="GS2" s="7">
-        <v>1.273856658E9</v>
+        <v>1273856658</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:A14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="7" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="7" t="s">
         <v>178</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
         <v>184</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
         <v>185</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>187</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/spotifyusernames.xlsx
+++ b/spotifyusernames.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="419" uniqueCount="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="276">
   <si>
     <t>Usernames</t>
   </si>
@@ -641,6 +641,81 @@
   </si>
   <si>
     <t>22hghijikkhsqdgl2grlvjqdy</t>
+  </si>
+  <si>
+    <t>314uky3nvahz663hii3va7m7m7hq</t>
+  </si>
+  <si>
+    <t>emilyschatz9</t>
+  </si>
+  <si>
+    <t>223lp4cv3s2xcnb7fjjmap4uy</t>
+  </si>
+  <si>
+    <t>hannah_ahdab</t>
+  </si>
+  <si>
+    <t>gnpascua</t>
+  </si>
+  <si>
+    <t>22q6nzoamqzfljscxtulxijzi</t>
+  </si>
+  <si>
+    <t>214sju7aucdat3lc2snfvzn7y</t>
+  </si>
+  <si>
+    <t>21pw2w7biybgg42xoo52hffza</t>
+  </si>
+  <si>
+    <t>22qpxvizfpqzovmosa3iz4mlq</t>
+  </si>
+  <si>
+    <t>98s75lj7kd7iugx8t04usuzka</t>
+  </si>
+  <si>
+    <t>bergstromemily</t>
+  </si>
+  <si>
+    <t>kchristiansen4</t>
+  </si>
+  <si>
+    <t>12126260820</t>
+  </si>
+  <si>
+    <t>cfee7</t>
+  </si>
+  <si>
+    <t>kategould5</t>
+  </si>
+  <si>
+    <t>079uq6i1c98ykq3u9pm21fnkt</t>
+  </si>
+  <si>
+    <t>128974285</t>
+  </si>
+  <si>
+    <t>225lckf347bnmwofydpttlghi</t>
+  </si>
+  <si>
+    <t>annatuuohey</t>
+  </si>
+  <si>
+    <t>hailboom</t>
+  </si>
+  <si>
+    <t>gracelynch</t>
+  </si>
+  <si>
+    <t>abbymeyerowitz</t>
+  </si>
+  <si>
+    <t>umich</t>
+  </si>
+  <si>
+    <t>pepsilexie</t>
+  </si>
+  <si>
+    <t>lucyspec26</t>
   </si>
   <si>
     <t>akeerthy</t>
@@ -865,10 +940,10 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
@@ -2363,326 +2438,398 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" s="2"/>
+      <c r="A209" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"314uky3nvahz663hii3va7m7m7hq")</f>
+        <v>314uky3nvahz663hii3va7m7m7hq</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"emilyschatz9")</f>
+        <v>emilyschatz9</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"223lp4cv3s2xcnb7fjjmap4uy")</f>
+        <v>223lp4cv3s2xcnb7fjjmap4uy</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"hannah_ahdab")</f>
+        <v>hannah_ahdab</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"gnpascua")</f>
+        <v>gnpascua</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"22q6nzoamqzfljscxtulxijzi")</f>
+        <v>22q6nzoamqzfljscxtulxijzi</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"214sju7aucdat3lc2snfvzn7y")</f>
+        <v>214sju7aucdat3lc2snfvzn7y</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"21pw2w7biybgg42xoo52hffza")</f>
+        <v>21pw2w7biybgg42xoo52hffza</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"22qpxvizfpqzovmosa3iz4mlq")</f>
+        <v>22qpxvizfpqzovmosa3iz4mlq</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"98s75lj7kd7iugx8t04usuzka")</f>
+        <v>98s75lj7kd7iugx8t04usuzka</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"bergstromemily")</f>
+        <v>bergstromemily</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"kchristiansen4")</f>
+        <v>kchristiansen4</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"12126260820")</f>
+        <v>12126260820</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"cfee7")</f>
+        <v>cfee7</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"kategould5")</f>
+        <v>kategould5</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"079uq6i1c98ykq3u9pm21fnkt")</f>
+        <v>079uq6i1c98ykq3u9pm21fnkt</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"128974285")</f>
+        <v>128974285</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"225lckf347bnmwofydpttlghi")</f>
+        <v>225lckf347bnmwofydpttlghi</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"annatuuohey")</f>
+        <v>annatuuohey</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"hailboom")</f>
+        <v>hailboom</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"gracelynch")</f>
+        <v>gracelynch</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"abbymeyerowitz")</f>
+        <v>abbymeyerowitz</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"pepsilexie")</f>
+        <v>pepsilexie</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"lucyspec26")</f>
+        <v>lucyspec26</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="2"/>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Claudia.hastings0717")</f>
         <v>Claudia.hastings0717</v>
       </c>
     </row>
-    <row r="211">
-      <c r="A211" s="2" t="str">
+    <row r="235">
+      <c r="A235" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"seapanda02")</f>
         <v>seapanda02</v>
       </c>
     </row>
-    <row r="212">
-      <c r="A212" s="2" t="str">
+    <row r="236">
+      <c r="A236" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"minto45")</f>
         <v>minto45</v>
       </c>
     </row>
-    <row r="213">
-      <c r="A213" s="2" t="str">
+    <row r="237">
+      <c r="A237" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"lbrockwell3")</f>
         <v>lbrockwell3</v>
       </c>
     </row>
-    <row r="214">
-      <c r="A214" s="2" t="str">
+    <row r="238">
+      <c r="A238" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"sht6dz4j702fbpbi0bsdcpjbu")</f>
         <v>sht6dz4j702fbpbi0bsdcpjbu</v>
       </c>
     </row>
-    <row r="215">
-      <c r="A215" s="2" t="str">
+    <row r="239">
+      <c r="A239" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"417T6uUZED6VM8euKbFDnM")</f>
         <v>417T6uUZED6VM8euKbFDnM</v>
       </c>
     </row>
-    <row r="216">
-      <c r="A216" s="2" t="str">
+    <row r="240">
+      <c r="A240" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ryguy829")</f>
         <v>ryguy829</v>
       </c>
     </row>
-    <row r="217">
-      <c r="A217" s="2" t="str">
+    <row r="241">
+      <c r="A241" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"5g6wujia2mpdz49g9ifskqmt8")</f>
         <v>5g6wujia2mpdz49g9ifskqmt8</v>
       </c>
     </row>
-    <row r="218">
-      <c r="A218" s="2" t="str">
+    <row r="242">
+      <c r="A242" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ashleydiazdl")</f>
         <v>ashleydiazdl</v>
       </c>
     </row>
-    <row r="219">
-      <c r="A219" s="2" t="str">
+    <row r="243">
+      <c r="A243" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"2m91c7srplu1xe9q5ca5xk8fk")</f>
         <v>2m91c7srplu1xe9q5ca5xk8fk</v>
       </c>
     </row>
-    <row r="220">
-      <c r="A220" s="2" t="str">
+    <row r="244">
+      <c r="A244" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"cinnamon122")</f>
         <v>cinnamon122</v>
       </c>
     </row>
-    <row r="221">
-      <c r="A221" s="2" t="str">
+    <row r="245">
+      <c r="A245" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"graceshapiro1903")</f>
         <v>graceshapiro1903</v>
       </c>
     </row>
-    <row r="222">
-      <c r="A222" s="2" t="str">
+    <row r="246">
+      <c r="A246" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"dizxi4lkttkiyprdepck004y4")</f>
         <v>dizxi4lkttkiyprdepck004y4</v>
       </c>
     </row>
-    <row r="223">
-      <c r="A223" s="2" t="str">
+    <row r="247">
+      <c r="A247" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"cole_wolf16")</f>
         <v>cole_wolf16</v>
       </c>
     </row>
-    <row r="224">
-      <c r="A224" s="2" t="str">
+    <row r="248">
+      <c r="A248" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"quinnrennell")</f>
         <v>quinnrennell</v>
       </c>
     </row>
-    <row r="225">
-      <c r="A225" s="2" t="str">
+    <row r="249">
+      <c r="A249" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"dominatork")</f>
         <v>dominatork</v>
       </c>
     </row>
-    <row r="226">
-      <c r="A226" s="2" t="str">
+    <row r="250">
+      <c r="A250" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"spamjcooper3459")</f>
         <v>spamjcooper3459</v>
       </c>
     </row>
-    <row r="227">
-      <c r="A227" s="2" t="str">
+    <row r="251">
+      <c r="A251" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"5z5uf9efaqg4b9cr5eiku8rdv")</f>
         <v>5z5uf9efaqg4b9cr5eiku8rdv</v>
       </c>
     </row>
-    <row r="228">
-      <c r="A228" s="2" t="str">
+    <row r="252">
+      <c r="A252" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"22jmljvsabjrtfn3676bpqjpy")</f>
         <v>22jmljvsabjrtfn3676bpqjpy</v>
       </c>
     </row>
-    <row r="229">
-      <c r="A229" s="2" t="str">
+    <row r="253">
+      <c r="A253" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"mzarouk")</f>
         <v>mzarouk</v>
       </c>
     </row>
-    <row r="230">
-      <c r="A230" s="2" t="str">
+    <row r="254">
+      <c r="A254" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"adelsoneric")</f>
         <v>adelsoneric</v>
       </c>
     </row>
-    <row r="231">
-      <c r="A231" s="2" t="str">
+    <row r="255">
+      <c r="A255" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"6912zox87iu176v3oyoeq0zna")</f>
         <v>6912zox87iu176v3oyoeq0zna</v>
       </c>
     </row>
-    <row r="232">
-      <c r="A232" s="2" t="str">
+    <row r="256">
+      <c r="A256" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"sbalewlij5gpqkgpucb9jhdy5")</f>
         <v>sbalewlij5gpqkgpucb9jhdy5</v>
       </c>
     </row>
-    <row r="233">
-      <c r="A233" s="3" t="str">
+    <row r="257">
+      <c r="A257" s="3" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"olivia.ma")</f>
         <v>olivia.ma</v>
       </c>
     </row>
-    <row r="234">
-      <c r="A234" s="2" t="str">
+    <row r="258">
+      <c r="A258" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"sabrinasugg")</f>
         <v>sabrinasugg</v>
       </c>
     </row>
-    <row r="235">
-      <c r="A235" s="2" t="str">
+    <row r="259">
+      <c r="A259" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"memzwith1z")</f>
         <v>memzwith1z</v>
       </c>
     </row>
-    <row r="236">
-      <c r="A236" s="2" t="str">
+    <row r="260">
+      <c r="A260" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"a98x1imc6m4r4yrd0hz86h092")</f>
         <v>a98x1imc6m4r4yrd0hz86h092</v>
       </c>
     </row>
-    <row r="237">
-      <c r="A237" s="2" t="str">
+    <row r="261">
+      <c r="A261" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"carlygeezle")</f>
         <v>carlygeezle</v>
       </c>
     </row>
-    <row r="238">
-      <c r="A238" s="2" t="str">
+    <row r="262">
+      <c r="A262" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"tavoduvall")</f>
         <v>tavoduvall</v>
       </c>
     </row>
-    <row r="239">
-      <c r="A239" s="2" t="str">
+    <row r="263">
+      <c r="A263" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"9be7zye8x3t7dhi8jc03mfkye")</f>
         <v>9be7zye8x3t7dhi8jc03mfkye</v>
       </c>
     </row>
-    <row r="240">
-      <c r="A240" s="2" t="str">
+    <row r="264">
+      <c r="A264" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"bumbleebeebee2017")</f>
         <v>bumbleebeebee2017</v>
       </c>
     </row>
-    <row r="241">
-      <c r="A241" s="2" t="str">
+    <row r="265">
+      <c r="A265" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"curlyq013")</f>
         <v>curlyq013</v>
       </c>
     </row>
-    <row r="242">
-      <c r="A242" s="2" t="str">
+    <row r="266">
+      <c r="A266" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"d4503rf1nw1arbnrza08pbjyy")</f>
         <v>d4503rf1nw1arbnrza08pbjyy</v>
       </c>
     </row>
-    <row r="243">
-      <c r="A243" s="2" t="str">
+    <row r="267">
+      <c r="A267" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"dancingpuppydawg")</f>
         <v>dancingpuppydawg</v>
       </c>
     </row>
-    <row r="244">
-      <c r="A244" s="2" t="str">
+    <row r="268">
+      <c r="A268" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"martybaseball15")</f>
         <v>martybaseball15</v>
       </c>
     </row>
-    <row r="245">
-      <c r="A245" s="2" t="str">
+    <row r="269">
+      <c r="A269" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"masterchiqui")</f>
         <v>masterchiqui</v>
       </c>
     </row>
-    <row r="246">
-      <c r="A246" s="2" t="str">
+    <row r="270">
+      <c r="A270" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ohur7tcdvhcigpuuqi9eofkcn")</f>
         <v>ohur7tcdvhcigpuuqi9eofkcn</v>
       </c>
     </row>
-    <row r="247">
-      <c r="A247" s="2" t="str">
+    <row r="271">
+      <c r="A271" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rhea12344")</f>
         <v>rhea12344</v>
       </c>
     </row>
-    <row r="248">
-      <c r="A248" s="2" t="str">
+    <row r="272">
+      <c r="A272" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"thebeautyqueen98")</f>
         <v>thebeautyqueen98</v>
       </c>
     </row>
-    <row r="249">
-      <c r="A249" s="2" t="str">
+    <row r="273">
+      <c r="A273" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"boolovesme")</f>
         <v>boolovesme</v>
       </c>
     </row>
-    <row r="250">
-      <c r="A250" s="2" t="str">
+    <row r="274">
+      <c r="A274" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"pranaygup12")</f>
         <v>pranaygup12</v>
       </c>
     </row>
-    <row r="251">
-      <c r="A251" s="2"/>
-    </row>
-    <row r="252">
-      <c r="A252" s="2"/>
-    </row>
-    <row r="253">
-      <c r="A253" s="2"/>
-    </row>
-    <row r="254">
-      <c r="A254" s="2"/>
-    </row>
-    <row r="255">
-      <c r="A255" s="2"/>
-    </row>
-    <row r="256">
-      <c r="A256" s="2"/>
-    </row>
-    <row r="257">
-      <c r="A257" s="2"/>
-    </row>
-    <row r="258">
-      <c r="A258" s="2"/>
-    </row>
-    <row r="259">
-      <c r="A259" s="2"/>
-    </row>
-    <row r="260">
-      <c r="A260" s="2"/>
-    </row>
-    <row r="261">
-      <c r="A261" s="2"/>
-    </row>
-    <row r="262">
-      <c r="A262" s="2"/>
-    </row>
-    <row r="263">
-      <c r="A263" s="2"/>
-    </row>
-    <row r="264">
-      <c r="A264" s="2"/>
-    </row>
-    <row r="265">
-      <c r="A265" s="2"/>
-    </row>
-    <row r="266">
-      <c r="A266" s="2"/>
-    </row>
-    <row r="267">
-      <c r="A267" s="2"/>
-    </row>
-    <row r="268">
-      <c r="A268" s="2"/>
-    </row>
-    <row r="269">
-      <c r="A269" s="2"/>
-    </row>
-    <row r="270">
-      <c r="A270" s="2"/>
-    </row>
-    <row r="271">
-      <c r="A271" s="2"/>
-    </row>
-    <row r="272">
-      <c r="A272" s="2"/>
-    </row>
-    <row r="273">
-      <c r="A273" s="2"/>
-    </row>
-    <row r="274">
-      <c r="A274" s="2"/>
-    </row>
     <row r="275">
       <c r="A275" s="2"/>
     </row>
@@ -6363,7 +6510,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="A233"/>
+    <hyperlink r:id="rId1" ref="A257"/>
   </hyperlinks>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -7430,2377 +7577,2430 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" s="12"/>
+      <c r="A210" s="11" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="211">
-      <c r="A211" s="12"/>
+      <c r="A211" s="11" t="s">
+        <v>209</v>
+      </c>
     </row>
     <row r="212">
-      <c r="A212" s="12"/>
+      <c r="A212" s="11" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="213">
-      <c r="A213" s="12"/>
+      <c r="A213" s="11" t="s">
+        <v>211</v>
+      </c>
     </row>
     <row r="214">
-      <c r="A214" s="12"/>
+      <c r="A214" s="11" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="215">
-      <c r="A215" s="12"/>
+      <c r="A215" s="11" t="s">
+        <v>213</v>
+      </c>
     </row>
     <row r="216">
-      <c r="A216" s="12"/>
+      <c r="A216" s="11" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="217">
-      <c r="A217" s="12"/>
+      <c r="A217" s="11" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="218">
-      <c r="A218" s="12"/>
+      <c r="A218" s="11" t="s">
+        <v>216</v>
+      </c>
     </row>
     <row r="219">
-      <c r="A219" s="12"/>
+      <c r="A219" s="11" t="s">
+        <v>217</v>
+      </c>
     </row>
     <row r="220">
-      <c r="A220" s="12"/>
+      <c r="A220" s="11" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="221">
-      <c r="A221" s="12"/>
+      <c r="A221" s="11" t="s">
+        <v>219</v>
+      </c>
     </row>
     <row r="222">
-      <c r="A222" s="12"/>
+      <c r="A222" s="11" t="s">
+        <v>220</v>
+      </c>
     </row>
     <row r="223">
-      <c r="A223" s="12"/>
+      <c r="A223" s="11" t="s">
+        <v>221</v>
+      </c>
     </row>
     <row r="224">
-      <c r="A224" s="12"/>
+      <c r="A224" s="11" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="225">
-      <c r="A225" s="12"/>
+      <c r="A225" s="11" t="s">
+        <v>222</v>
+      </c>
     </row>
     <row r="226">
-      <c r="A226" s="12"/>
+      <c r="A226" s="11" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="227">
-      <c r="A227" s="12"/>
+      <c r="A227" s="11" t="s">
+        <v>224</v>
+      </c>
     </row>
     <row r="228">
-      <c r="A228" s="12"/>
+      <c r="A228" s="11" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="229">
-      <c r="A229" s="12"/>
+      <c r="A229" s="11" t="s">
+        <v>226</v>
+      </c>
     </row>
     <row r="230">
-      <c r="A230" s="12"/>
+      <c r="A230" s="11" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="231">
-      <c r="A231" s="12"/>
+      <c r="A231" s="11" t="s">
+        <v>228</v>
+      </c>
     </row>
     <row r="232">
-      <c r="A232" s="12"/>
+      <c r="A232" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="B232" s="12" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="233">
-      <c r="A233" s="12"/>
+      <c r="A233" s="11" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="234">
-      <c r="A234" s="12"/>
+      <c r="A234" s="11" t="s">
+        <v>232</v>
+      </c>
     </row>
     <row r="235">
-      <c r="A235" s="12"/>
+      <c r="A235" s="13"/>
     </row>
     <row r="236">
-      <c r="A236" s="12"/>
+      <c r="A236" s="13"/>
     </row>
     <row r="237">
-      <c r="A237" s="12"/>
+      <c r="A237" s="13"/>
     </row>
     <row r="238">
-      <c r="A238" s="12"/>
+      <c r="A238" s="13"/>
     </row>
     <row r="239">
-      <c r="A239" s="12"/>
+      <c r="A239" s="13"/>
     </row>
     <row r="240">
-      <c r="A240" s="12"/>
+      <c r="A240" s="13"/>
     </row>
     <row r="241">
-      <c r="A241" s="12"/>
+      <c r="A241" s="13"/>
     </row>
     <row r="242">
-      <c r="A242" s="12"/>
+      <c r="A242" s="13"/>
     </row>
     <row r="243">
-      <c r="A243" s="12"/>
+      <c r="A243" s="13"/>
     </row>
     <row r="244">
-      <c r="A244" s="12"/>
+      <c r="A244" s="13"/>
     </row>
     <row r="245">
-      <c r="A245" s="12"/>
+      <c r="A245" s="13"/>
     </row>
     <row r="246">
-      <c r="A246" s="12"/>
+      <c r="A246" s="13"/>
     </row>
     <row r="247">
-      <c r="A247" s="12"/>
+      <c r="A247" s="13"/>
     </row>
     <row r="248">
-      <c r="A248" s="12"/>
+      <c r="A248" s="13"/>
     </row>
     <row r="249">
-      <c r="A249" s="12"/>
+      <c r="A249" s="13"/>
     </row>
     <row r="250">
-      <c r="A250" s="12"/>
+      <c r="A250" s="13"/>
     </row>
     <row r="251">
-      <c r="A251" s="12"/>
+      <c r="A251" s="13"/>
     </row>
     <row r="252">
-      <c r="A252" s="12"/>
+      <c r="A252" s="13"/>
     </row>
     <row r="253">
-      <c r="A253" s="12"/>
+      <c r="A253" s="13"/>
     </row>
     <row r="254">
-      <c r="A254" s="12"/>
+      <c r="A254" s="13"/>
     </row>
     <row r="255">
-      <c r="A255" s="12"/>
+      <c r="A255" s="13"/>
     </row>
     <row r="256">
-      <c r="A256" s="12"/>
+      <c r="A256" s="13"/>
     </row>
     <row r="257">
-      <c r="A257" s="12"/>
+      <c r="A257" s="13"/>
     </row>
     <row r="258">
-      <c r="A258" s="12"/>
+      <c r="A258" s="13"/>
     </row>
     <row r="259">
-      <c r="A259" s="12"/>
+      <c r="A259" s="13"/>
     </row>
     <row r="260">
-      <c r="A260" s="12"/>
+      <c r="A260" s="13"/>
     </row>
     <row r="261">
-      <c r="A261" s="12"/>
+      <c r="A261" s="13"/>
     </row>
     <row r="262">
-      <c r="A262" s="12"/>
+      <c r="A262" s="13"/>
     </row>
     <row r="263">
-      <c r="A263" s="12"/>
+      <c r="A263" s="13"/>
     </row>
     <row r="264">
-      <c r="A264" s="12"/>
+      <c r="A264" s="13"/>
     </row>
     <row r="265">
-      <c r="A265" s="12"/>
+      <c r="A265" s="13"/>
     </row>
     <row r="266">
-      <c r="A266" s="12"/>
+      <c r="A266" s="13"/>
     </row>
     <row r="267">
-      <c r="A267" s="12"/>
+      <c r="A267" s="13"/>
     </row>
     <row r="268">
-      <c r="A268" s="12"/>
+      <c r="A268" s="13"/>
     </row>
     <row r="269">
-      <c r="A269" s="12"/>
+      <c r="A269" s="13"/>
     </row>
     <row r="270">
-      <c r="A270" s="12"/>
+      <c r="A270" s="13"/>
     </row>
     <row r="271">
-      <c r="A271" s="12"/>
+      <c r="A271" s="13"/>
     </row>
     <row r="272">
-      <c r="A272" s="12"/>
+      <c r="A272" s="13"/>
     </row>
     <row r="273">
-      <c r="A273" s="12"/>
+      <c r="A273" s="13"/>
     </row>
     <row r="274">
-      <c r="A274" s="12"/>
+      <c r="A274" s="13"/>
     </row>
     <row r="275">
-      <c r="A275" s="12"/>
+      <c r="A275" s="13"/>
     </row>
     <row r="276">
-      <c r="A276" s="12"/>
+      <c r="A276" s="13"/>
     </row>
     <row r="277">
-      <c r="A277" s="12"/>
+      <c r="A277" s="13"/>
     </row>
     <row r="278">
-      <c r="A278" s="12"/>
+      <c r="A278" s="13"/>
     </row>
     <row r="279">
-      <c r="A279" s="12"/>
+      <c r="A279" s="13"/>
     </row>
     <row r="280">
-      <c r="A280" s="12"/>
+      <c r="A280" s="13"/>
     </row>
     <row r="281">
-      <c r="A281" s="12"/>
+      <c r="A281" s="13"/>
     </row>
     <row r="282">
-      <c r="A282" s="12"/>
+      <c r="A282" s="13"/>
     </row>
     <row r="283">
-      <c r="A283" s="12"/>
+      <c r="A283" s="13"/>
     </row>
     <row r="284">
-      <c r="A284" s="12"/>
+      <c r="A284" s="13"/>
     </row>
     <row r="285">
-      <c r="A285" s="12"/>
+      <c r="A285" s="13"/>
     </row>
     <row r="286">
-      <c r="A286" s="12"/>
+      <c r="A286" s="13"/>
     </row>
     <row r="287">
-      <c r="A287" s="12"/>
+      <c r="A287" s="13"/>
     </row>
     <row r="288">
-      <c r="A288" s="12"/>
+      <c r="A288" s="13"/>
     </row>
     <row r="289">
-      <c r="A289" s="12"/>
+      <c r="A289" s="13"/>
     </row>
     <row r="290">
-      <c r="A290" s="12"/>
+      <c r="A290" s="13"/>
     </row>
     <row r="291">
-      <c r="A291" s="12"/>
+      <c r="A291" s="13"/>
     </row>
     <row r="292">
-      <c r="A292" s="12"/>
+      <c r="A292" s="13"/>
     </row>
     <row r="293">
-      <c r="A293" s="12"/>
+      <c r="A293" s="13"/>
     </row>
     <row r="294">
-      <c r="A294" s="12"/>
+      <c r="A294" s="13"/>
     </row>
     <row r="295">
-      <c r="A295" s="12"/>
+      <c r="A295" s="13"/>
     </row>
     <row r="296">
-      <c r="A296" s="12"/>
+      <c r="A296" s="13"/>
     </row>
     <row r="297">
-      <c r="A297" s="12"/>
+      <c r="A297" s="13"/>
     </row>
     <row r="298">
-      <c r="A298" s="12"/>
+      <c r="A298" s="13"/>
     </row>
     <row r="299">
-      <c r="A299" s="12"/>
+      <c r="A299" s="13"/>
     </row>
     <row r="300">
-      <c r="A300" s="12"/>
+      <c r="A300" s="13"/>
     </row>
     <row r="301">
-      <c r="A301" s="12"/>
+      <c r="A301" s="13"/>
     </row>
     <row r="302">
-      <c r="A302" s="12"/>
+      <c r="A302" s="13"/>
     </row>
     <row r="303">
-      <c r="A303" s="12"/>
+      <c r="A303" s="13"/>
     </row>
     <row r="304">
-      <c r="A304" s="12"/>
+      <c r="A304" s="13"/>
     </row>
     <row r="305">
-      <c r="A305" s="12"/>
+      <c r="A305" s="13"/>
     </row>
     <row r="306">
-      <c r="A306" s="12"/>
+      <c r="A306" s="13"/>
     </row>
     <row r="307">
-      <c r="A307" s="12"/>
+      <c r="A307" s="13"/>
     </row>
     <row r="308">
-      <c r="A308" s="12"/>
+      <c r="A308" s="13"/>
     </row>
     <row r="309">
-      <c r="A309" s="12"/>
+      <c r="A309" s="13"/>
     </row>
     <row r="310">
-      <c r="A310" s="12"/>
+      <c r="A310" s="13"/>
     </row>
     <row r="311">
-      <c r="A311" s="12"/>
+      <c r="A311" s="13"/>
     </row>
     <row r="312">
-      <c r="A312" s="12"/>
+      <c r="A312" s="13"/>
     </row>
     <row r="313">
-      <c r="A313" s="12"/>
+      <c r="A313" s="13"/>
     </row>
     <row r="314">
-      <c r="A314" s="12"/>
+      <c r="A314" s="13"/>
     </row>
     <row r="315">
-      <c r="A315" s="12"/>
+      <c r="A315" s="13"/>
     </row>
     <row r="316">
-      <c r="A316" s="12"/>
+      <c r="A316" s="13"/>
     </row>
     <row r="317">
-      <c r="A317" s="12"/>
+      <c r="A317" s="13"/>
     </row>
     <row r="318">
-      <c r="A318" s="12"/>
+      <c r="A318" s="13"/>
     </row>
     <row r="319">
-      <c r="A319" s="12"/>
+      <c r="A319" s="13"/>
     </row>
     <row r="320">
-      <c r="A320" s="12"/>
+      <c r="A320" s="13"/>
     </row>
     <row r="321">
-      <c r="A321" s="12"/>
+      <c r="A321" s="13"/>
     </row>
     <row r="322">
-      <c r="A322" s="12"/>
+      <c r="A322" s="13"/>
     </row>
     <row r="323">
-      <c r="A323" s="12"/>
+      <c r="A323" s="13"/>
     </row>
     <row r="324">
-      <c r="A324" s="12"/>
+      <c r="A324" s="13"/>
     </row>
     <row r="325">
-      <c r="A325" s="12"/>
+      <c r="A325" s="13"/>
     </row>
     <row r="326">
-      <c r="A326" s="12"/>
+      <c r="A326" s="13"/>
     </row>
     <row r="327">
-      <c r="A327" s="12"/>
+      <c r="A327" s="13"/>
     </row>
     <row r="328">
-      <c r="A328" s="12"/>
+      <c r="A328" s="13"/>
     </row>
     <row r="329">
-      <c r="A329" s="12"/>
+      <c r="A329" s="13"/>
     </row>
     <row r="330">
-      <c r="A330" s="12"/>
+      <c r="A330" s="13"/>
     </row>
     <row r="331">
-      <c r="A331" s="12"/>
+      <c r="A331" s="13"/>
     </row>
     <row r="332">
-      <c r="A332" s="12"/>
+      <c r="A332" s="13"/>
     </row>
     <row r="333">
-      <c r="A333" s="12"/>
+      <c r="A333" s="13"/>
     </row>
     <row r="334">
-      <c r="A334" s="12"/>
+      <c r="A334" s="13"/>
     </row>
     <row r="335">
-      <c r="A335" s="12"/>
+      <c r="A335" s="13"/>
     </row>
     <row r="336">
-      <c r="A336" s="12"/>
+      <c r="A336" s="13"/>
     </row>
     <row r="337">
-      <c r="A337" s="12"/>
+      <c r="A337" s="13"/>
     </row>
     <row r="338">
-      <c r="A338" s="12"/>
+      <c r="A338" s="13"/>
     </row>
     <row r="339">
-      <c r="A339" s="12"/>
+      <c r="A339" s="13"/>
     </row>
     <row r="340">
-      <c r="A340" s="12"/>
+      <c r="A340" s="13"/>
     </row>
     <row r="341">
-      <c r="A341" s="12"/>
+      <c r="A341" s="13"/>
     </row>
     <row r="342">
-      <c r="A342" s="12"/>
+      <c r="A342" s="13"/>
     </row>
     <row r="343">
-      <c r="A343" s="12"/>
+      <c r="A343" s="13"/>
     </row>
     <row r="344">
-      <c r="A344" s="12"/>
+      <c r="A344" s="13"/>
     </row>
     <row r="345">
-      <c r="A345" s="12"/>
+      <c r="A345" s="13"/>
     </row>
     <row r="346">
-      <c r="A346" s="12"/>
+      <c r="A346" s="13"/>
     </row>
     <row r="347">
-      <c r="A347" s="12"/>
+      <c r="A347" s="13"/>
     </row>
     <row r="348">
-      <c r="A348" s="12"/>
+      <c r="A348" s="13"/>
     </row>
     <row r="349">
-      <c r="A349" s="12"/>
+      <c r="A349" s="13"/>
     </row>
     <row r="350">
-      <c r="A350" s="12"/>
+      <c r="A350" s="13"/>
     </row>
     <row r="351">
-      <c r="A351" s="12"/>
+      <c r="A351" s="13"/>
     </row>
     <row r="352">
-      <c r="A352" s="12"/>
+      <c r="A352" s="13"/>
     </row>
     <row r="353">
-      <c r="A353" s="12"/>
+      <c r="A353" s="13"/>
     </row>
     <row r="354">
-      <c r="A354" s="12"/>
+      <c r="A354" s="13"/>
     </row>
     <row r="355">
-      <c r="A355" s="12"/>
+      <c r="A355" s="13"/>
     </row>
     <row r="356">
-      <c r="A356" s="12"/>
+      <c r="A356" s="13"/>
     </row>
     <row r="357">
-      <c r="A357" s="12"/>
+      <c r="A357" s="13"/>
     </row>
     <row r="358">
-      <c r="A358" s="12"/>
+      <c r="A358" s="13"/>
     </row>
     <row r="359">
-      <c r="A359" s="12"/>
+      <c r="A359" s="13"/>
     </row>
     <row r="360">
-      <c r="A360" s="12"/>
+      <c r="A360" s="13"/>
     </row>
     <row r="361">
-      <c r="A361" s="12"/>
+      <c r="A361" s="13"/>
     </row>
     <row r="362">
-      <c r="A362" s="12"/>
+      <c r="A362" s="13"/>
     </row>
     <row r="363">
-      <c r="A363" s="12"/>
+      <c r="A363" s="13"/>
     </row>
     <row r="364">
-      <c r="A364" s="12"/>
+      <c r="A364" s="13"/>
     </row>
     <row r="365">
-      <c r="A365" s="12"/>
+      <c r="A365" s="13"/>
     </row>
     <row r="366">
-      <c r="A366" s="12"/>
+      <c r="A366" s="13"/>
     </row>
     <row r="367">
-      <c r="A367" s="12"/>
+      <c r="A367" s="13"/>
     </row>
     <row r="368">
-      <c r="A368" s="12"/>
+      <c r="A368" s="13"/>
     </row>
     <row r="369">
-      <c r="A369" s="12"/>
+      <c r="A369" s="13"/>
     </row>
     <row r="370">
-      <c r="A370" s="12"/>
+      <c r="A370" s="13"/>
     </row>
     <row r="371">
-      <c r="A371" s="12"/>
+      <c r="A371" s="13"/>
     </row>
     <row r="372">
-      <c r="A372" s="12"/>
+      <c r="A372" s="13"/>
     </row>
     <row r="373">
-      <c r="A373" s="12"/>
+      <c r="A373" s="13"/>
     </row>
     <row r="374">
-      <c r="A374" s="12"/>
+      <c r="A374" s="13"/>
     </row>
     <row r="375">
-      <c r="A375" s="12"/>
+      <c r="A375" s="13"/>
     </row>
     <row r="376">
-      <c r="A376" s="12"/>
+      <c r="A376" s="13"/>
     </row>
     <row r="377">
-      <c r="A377" s="12"/>
+      <c r="A377" s="13"/>
     </row>
     <row r="378">
-      <c r="A378" s="12"/>
+      <c r="A378" s="13"/>
     </row>
     <row r="379">
-      <c r="A379" s="12"/>
+      <c r="A379" s="13"/>
     </row>
     <row r="380">
-      <c r="A380" s="12"/>
+      <c r="A380" s="13"/>
     </row>
     <row r="381">
-      <c r="A381" s="12"/>
+      <c r="A381" s="13"/>
     </row>
     <row r="382">
-      <c r="A382" s="12"/>
+      <c r="A382" s="13"/>
     </row>
     <row r="383">
-      <c r="A383" s="12"/>
+      <c r="A383" s="13"/>
     </row>
     <row r="384">
-      <c r="A384" s="12"/>
+      <c r="A384" s="13"/>
     </row>
     <row r="385">
-      <c r="A385" s="12"/>
+      <c r="A385" s="13"/>
     </row>
     <row r="386">
-      <c r="A386" s="12"/>
+      <c r="A386" s="13"/>
     </row>
     <row r="387">
-      <c r="A387" s="12"/>
+      <c r="A387" s="13"/>
     </row>
     <row r="388">
-      <c r="A388" s="12"/>
+      <c r="A388" s="13"/>
     </row>
     <row r="389">
-      <c r="A389" s="12"/>
+      <c r="A389" s="13"/>
     </row>
     <row r="390">
-      <c r="A390" s="12"/>
+      <c r="A390" s="13"/>
     </row>
     <row r="391">
-      <c r="A391" s="12"/>
+      <c r="A391" s="13"/>
     </row>
     <row r="392">
-      <c r="A392" s="12"/>
+      <c r="A392" s="13"/>
     </row>
     <row r="393">
-      <c r="A393" s="12"/>
+      <c r="A393" s="13"/>
     </row>
     <row r="394">
-      <c r="A394" s="12"/>
+      <c r="A394" s="13"/>
     </row>
     <row r="395">
-      <c r="A395" s="12"/>
+      <c r="A395" s="13"/>
     </row>
     <row r="396">
-      <c r="A396" s="12"/>
+      <c r="A396" s="13"/>
     </row>
     <row r="397">
-      <c r="A397" s="12"/>
+      <c r="A397" s="13"/>
     </row>
     <row r="398">
-      <c r="A398" s="12"/>
+      <c r="A398" s="13"/>
     </row>
     <row r="399">
-      <c r="A399" s="12"/>
+      <c r="A399" s="13"/>
     </row>
     <row r="400">
-      <c r="A400" s="12"/>
+      <c r="A400" s="13"/>
     </row>
     <row r="401">
-      <c r="A401" s="12"/>
+      <c r="A401" s="13"/>
     </row>
     <row r="402">
-      <c r="A402" s="12"/>
+      <c r="A402" s="13"/>
     </row>
     <row r="403">
-      <c r="A403" s="12"/>
+      <c r="A403" s="13"/>
     </row>
     <row r="404">
-      <c r="A404" s="12"/>
+      <c r="A404" s="13"/>
     </row>
     <row r="405">
-      <c r="A405" s="12"/>
+      <c r="A405" s="13"/>
     </row>
     <row r="406">
-      <c r="A406" s="12"/>
+      <c r="A406" s="13"/>
     </row>
     <row r="407">
-      <c r="A407" s="12"/>
+      <c r="A407" s="13"/>
     </row>
     <row r="408">
-      <c r="A408" s="12"/>
+      <c r="A408" s="13"/>
     </row>
     <row r="409">
-      <c r="A409" s="12"/>
+      <c r="A409" s="13"/>
     </row>
     <row r="410">
-      <c r="A410" s="12"/>
+      <c r="A410" s="13"/>
     </row>
     <row r="411">
-      <c r="A411" s="12"/>
+      <c r="A411" s="13"/>
     </row>
     <row r="412">
-      <c r="A412" s="12"/>
+      <c r="A412" s="13"/>
     </row>
     <row r="413">
-      <c r="A413" s="12"/>
+      <c r="A413" s="13"/>
     </row>
     <row r="414">
-      <c r="A414" s="12"/>
+      <c r="A414" s="13"/>
     </row>
     <row r="415">
-      <c r="A415" s="12"/>
+      <c r="A415" s="13"/>
     </row>
     <row r="416">
-      <c r="A416" s="12"/>
+      <c r="A416" s="13"/>
     </row>
     <row r="417">
-      <c r="A417" s="12"/>
+      <c r="A417" s="13"/>
     </row>
     <row r="418">
-      <c r="A418" s="12"/>
+      <c r="A418" s="13"/>
     </row>
     <row r="419">
-      <c r="A419" s="12"/>
+      <c r="A419" s="13"/>
     </row>
     <row r="420">
-      <c r="A420" s="12"/>
+      <c r="A420" s="13"/>
     </row>
     <row r="421">
-      <c r="A421" s="12"/>
+      <c r="A421" s="13"/>
     </row>
     <row r="422">
-      <c r="A422" s="12"/>
+      <c r="A422" s="13"/>
     </row>
     <row r="423">
-      <c r="A423" s="12"/>
+      <c r="A423" s="13"/>
     </row>
     <row r="424">
-      <c r="A424" s="12"/>
+      <c r="A424" s="13"/>
     </row>
     <row r="425">
-      <c r="A425" s="12"/>
+      <c r="A425" s="13"/>
     </row>
     <row r="426">
-      <c r="A426" s="12"/>
+      <c r="A426" s="13"/>
     </row>
     <row r="427">
-      <c r="A427" s="12"/>
+      <c r="A427" s="13"/>
     </row>
     <row r="428">
-      <c r="A428" s="12"/>
+      <c r="A428" s="13"/>
     </row>
     <row r="429">
-      <c r="A429" s="12"/>
+      <c r="A429" s="13"/>
     </row>
     <row r="430">
-      <c r="A430" s="12"/>
+      <c r="A430" s="13"/>
     </row>
     <row r="431">
-      <c r="A431" s="12"/>
+      <c r="A431" s="13"/>
     </row>
     <row r="432">
-      <c r="A432" s="12"/>
+      <c r="A432" s="13"/>
     </row>
     <row r="433">
-      <c r="A433" s="12"/>
+      <c r="A433" s="13"/>
     </row>
     <row r="434">
-      <c r="A434" s="12"/>
+      <c r="A434" s="13"/>
     </row>
     <row r="435">
-      <c r="A435" s="12"/>
+      <c r="A435" s="13"/>
     </row>
     <row r="436">
-      <c r="A436" s="12"/>
+      <c r="A436" s="13"/>
     </row>
     <row r="437">
-      <c r="A437" s="12"/>
+      <c r="A437" s="13"/>
     </row>
     <row r="438">
-      <c r="A438" s="12"/>
+      <c r="A438" s="13"/>
     </row>
     <row r="439">
-      <c r="A439" s="12"/>
+      <c r="A439" s="13"/>
     </row>
     <row r="440">
-      <c r="A440" s="12"/>
+      <c r="A440" s="13"/>
     </row>
     <row r="441">
-      <c r="A441" s="12"/>
+      <c r="A441" s="13"/>
     </row>
     <row r="442">
-      <c r="A442" s="12"/>
+      <c r="A442" s="13"/>
     </row>
     <row r="443">
-      <c r="A443" s="12"/>
+      <c r="A443" s="13"/>
     </row>
     <row r="444">
-      <c r="A444" s="12"/>
+      <c r="A444" s="13"/>
     </row>
     <row r="445">
-      <c r="A445" s="12"/>
+      <c r="A445" s="13"/>
     </row>
     <row r="446">
-      <c r="A446" s="12"/>
+      <c r="A446" s="13"/>
     </row>
     <row r="447">
-      <c r="A447" s="12"/>
+      <c r="A447" s="13"/>
     </row>
     <row r="448">
-      <c r="A448" s="12"/>
+      <c r="A448" s="13"/>
     </row>
     <row r="449">
-      <c r="A449" s="12"/>
+      <c r="A449" s="13"/>
     </row>
     <row r="450">
-      <c r="A450" s="12"/>
+      <c r="A450" s="13"/>
     </row>
     <row r="451">
-      <c r="A451" s="12"/>
+      <c r="A451" s="13"/>
     </row>
     <row r="452">
-      <c r="A452" s="12"/>
+      <c r="A452" s="13"/>
     </row>
     <row r="453">
-      <c r="A453" s="12"/>
+      <c r="A453" s="13"/>
     </row>
     <row r="454">
-      <c r="A454" s="12"/>
+      <c r="A454" s="13"/>
     </row>
     <row r="455">
-      <c r="A455" s="12"/>
+      <c r="A455" s="13"/>
     </row>
     <row r="456">
-      <c r="A456" s="12"/>
+      <c r="A456" s="13"/>
     </row>
     <row r="457">
-      <c r="A457" s="12"/>
+      <c r="A457" s="13"/>
     </row>
     <row r="458">
-      <c r="A458" s="12"/>
+      <c r="A458" s="13"/>
     </row>
     <row r="459">
-      <c r="A459" s="12"/>
+      <c r="A459" s="13"/>
     </row>
     <row r="460">
-      <c r="A460" s="12"/>
+      <c r="A460" s="13"/>
     </row>
     <row r="461">
-      <c r="A461" s="12"/>
+      <c r="A461" s="13"/>
     </row>
     <row r="462">
-      <c r="A462" s="12"/>
+      <c r="A462" s="13"/>
     </row>
     <row r="463">
-      <c r="A463" s="12"/>
+      <c r="A463" s="13"/>
     </row>
     <row r="464">
-      <c r="A464" s="12"/>
+      <c r="A464" s="13"/>
     </row>
     <row r="465">
-      <c r="A465" s="12"/>
+      <c r="A465" s="13"/>
     </row>
     <row r="466">
-      <c r="A466" s="12"/>
+      <c r="A466" s="13"/>
     </row>
     <row r="467">
-      <c r="A467" s="12"/>
+      <c r="A467" s="13"/>
     </row>
     <row r="468">
-      <c r="A468" s="12"/>
+      <c r="A468" s="13"/>
     </row>
     <row r="469">
-      <c r="A469" s="12"/>
+      <c r="A469" s="13"/>
     </row>
     <row r="470">
-      <c r="A470" s="12"/>
+      <c r="A470" s="13"/>
     </row>
     <row r="471">
-      <c r="A471" s="12"/>
+      <c r="A471" s="13"/>
     </row>
     <row r="472">
-      <c r="A472" s="12"/>
+      <c r="A472" s="13"/>
     </row>
     <row r="473">
-      <c r="A473" s="12"/>
+      <c r="A473" s="13"/>
     </row>
     <row r="474">
-      <c r="A474" s="12"/>
+      <c r="A474" s="13"/>
     </row>
     <row r="475">
-      <c r="A475" s="12"/>
+      <c r="A475" s="13"/>
     </row>
     <row r="476">
-      <c r="A476" s="12"/>
+      <c r="A476" s="13"/>
     </row>
     <row r="477">
-      <c r="A477" s="12"/>
+      <c r="A477" s="13"/>
     </row>
     <row r="478">
-      <c r="A478" s="12"/>
+      <c r="A478" s="13"/>
     </row>
     <row r="479">
-      <c r="A479" s="12"/>
+      <c r="A479" s="13"/>
     </row>
     <row r="480">
-      <c r="A480" s="12"/>
+      <c r="A480" s="13"/>
     </row>
     <row r="481">
-      <c r="A481" s="12"/>
+      <c r="A481" s="13"/>
     </row>
     <row r="482">
-      <c r="A482" s="12"/>
+      <c r="A482" s="13"/>
     </row>
     <row r="483">
-      <c r="A483" s="12"/>
+      <c r="A483" s="13"/>
     </row>
     <row r="484">
-      <c r="A484" s="12"/>
+      <c r="A484" s="13"/>
     </row>
     <row r="485">
-      <c r="A485" s="12"/>
+      <c r="A485" s="13"/>
     </row>
     <row r="486">
-      <c r="A486" s="12"/>
+      <c r="A486" s="13"/>
     </row>
     <row r="487">
-      <c r="A487" s="12"/>
+      <c r="A487" s="13"/>
     </row>
     <row r="488">
-      <c r="A488" s="12"/>
+      <c r="A488" s="13"/>
     </row>
     <row r="489">
-      <c r="A489" s="12"/>
+      <c r="A489" s="13"/>
     </row>
     <row r="490">
-      <c r="A490" s="12"/>
+      <c r="A490" s="13"/>
     </row>
     <row r="491">
-      <c r="A491" s="12"/>
+      <c r="A491" s="13"/>
     </row>
     <row r="492">
-      <c r="A492" s="12"/>
+      <c r="A492" s="13"/>
     </row>
     <row r="493">
-      <c r="A493" s="12"/>
+      <c r="A493" s="13"/>
     </row>
     <row r="494">
-      <c r="A494" s="12"/>
+      <c r="A494" s="13"/>
     </row>
     <row r="495">
-      <c r="A495" s="12"/>
+      <c r="A495" s="13"/>
     </row>
     <row r="496">
-      <c r="A496" s="12"/>
+      <c r="A496" s="13"/>
     </row>
     <row r="497">
-      <c r="A497" s="12"/>
+      <c r="A497" s="13"/>
     </row>
     <row r="498">
-      <c r="A498" s="12"/>
+      <c r="A498" s="13"/>
     </row>
     <row r="499">
-      <c r="A499" s="12"/>
+      <c r="A499" s="13"/>
     </row>
     <row r="500">
-      <c r="A500" s="12"/>
+      <c r="A500" s="13"/>
     </row>
     <row r="501">
-      <c r="A501" s="12"/>
+      <c r="A501" s="13"/>
     </row>
     <row r="502">
-      <c r="A502" s="12"/>
+      <c r="A502" s="13"/>
     </row>
     <row r="503">
-      <c r="A503" s="12"/>
+      <c r="A503" s="13"/>
     </row>
     <row r="504">
-      <c r="A504" s="12"/>
+      <c r="A504" s="13"/>
     </row>
     <row r="505">
-      <c r="A505" s="12"/>
+      <c r="A505" s="13"/>
     </row>
     <row r="506">
-      <c r="A506" s="12"/>
+      <c r="A506" s="13"/>
     </row>
     <row r="507">
-      <c r="A507" s="12"/>
+      <c r="A507" s="13"/>
     </row>
     <row r="508">
-      <c r="A508" s="12"/>
+      <c r="A508" s="13"/>
     </row>
     <row r="509">
-      <c r="A509" s="12"/>
+      <c r="A509" s="13"/>
     </row>
     <row r="510">
-      <c r="A510" s="12"/>
+      <c r="A510" s="13"/>
     </row>
     <row r="511">
-      <c r="A511" s="12"/>
+      <c r="A511" s="13"/>
     </row>
     <row r="512">
-      <c r="A512" s="12"/>
+      <c r="A512" s="13"/>
     </row>
     <row r="513">
-      <c r="A513" s="12"/>
+      <c r="A513" s="13"/>
     </row>
     <row r="514">
-      <c r="A514" s="12"/>
+      <c r="A514" s="13"/>
     </row>
     <row r="515">
-      <c r="A515" s="12"/>
+      <c r="A515" s="13"/>
     </row>
     <row r="516">
-      <c r="A516" s="12"/>
+      <c r="A516" s="13"/>
     </row>
     <row r="517">
-      <c r="A517" s="12"/>
+      <c r="A517" s="13"/>
     </row>
     <row r="518">
-      <c r="A518" s="12"/>
+      <c r="A518" s="13"/>
     </row>
     <row r="519">
-      <c r="A519" s="12"/>
+      <c r="A519" s="13"/>
     </row>
     <row r="520">
-      <c r="A520" s="12"/>
+      <c r="A520" s="13"/>
     </row>
     <row r="521">
-      <c r="A521" s="12"/>
+      <c r="A521" s="13"/>
     </row>
     <row r="522">
-      <c r="A522" s="12"/>
+      <c r="A522" s="13"/>
     </row>
     <row r="523">
-      <c r="A523" s="12"/>
+      <c r="A523" s="13"/>
     </row>
     <row r="524">
-      <c r="A524" s="12"/>
+      <c r="A524" s="13"/>
     </row>
     <row r="525">
-      <c r="A525" s="12"/>
+      <c r="A525" s="13"/>
     </row>
     <row r="526">
-      <c r="A526" s="12"/>
+      <c r="A526" s="13"/>
     </row>
     <row r="527">
-      <c r="A527" s="12"/>
+      <c r="A527" s="13"/>
     </row>
     <row r="528">
-      <c r="A528" s="12"/>
+      <c r="A528" s="13"/>
     </row>
     <row r="529">
-      <c r="A529" s="12"/>
+      <c r="A529" s="13"/>
     </row>
     <row r="530">
-      <c r="A530" s="12"/>
+      <c r="A530" s="13"/>
     </row>
     <row r="531">
-      <c r="A531" s="12"/>
+      <c r="A531" s="13"/>
     </row>
     <row r="532">
-      <c r="A532" s="12"/>
+      <c r="A532" s="13"/>
     </row>
     <row r="533">
-      <c r="A533" s="12"/>
+      <c r="A533" s="13"/>
     </row>
     <row r="534">
-      <c r="A534" s="12"/>
+      <c r="A534" s="13"/>
     </row>
     <row r="535">
-      <c r="A535" s="12"/>
+      <c r="A535" s="13"/>
     </row>
     <row r="536">
-      <c r="A536" s="12"/>
+      <c r="A536" s="13"/>
     </row>
     <row r="537">
-      <c r="A537" s="12"/>
+      <c r="A537" s="13"/>
     </row>
     <row r="538">
-      <c r="A538" s="12"/>
+      <c r="A538" s="13"/>
     </row>
     <row r="539">
-      <c r="A539" s="12"/>
+      <c r="A539" s="13"/>
     </row>
     <row r="540">
-      <c r="A540" s="12"/>
+      <c r="A540" s="13"/>
     </row>
     <row r="541">
-      <c r="A541" s="12"/>
+      <c r="A541" s="13"/>
     </row>
     <row r="542">
-      <c r="A542" s="12"/>
+      <c r="A542" s="13"/>
     </row>
     <row r="543">
-      <c r="A543" s="12"/>
+      <c r="A543" s="13"/>
     </row>
     <row r="544">
-      <c r="A544" s="12"/>
+      <c r="A544" s="13"/>
     </row>
     <row r="545">
-      <c r="A545" s="12"/>
+      <c r="A545" s="13"/>
     </row>
     <row r="546">
-      <c r="A546" s="12"/>
+      <c r="A546" s="13"/>
     </row>
     <row r="547">
-      <c r="A547" s="12"/>
+      <c r="A547" s="13"/>
     </row>
     <row r="548">
-      <c r="A548" s="12"/>
+      <c r="A548" s="13"/>
     </row>
     <row r="549">
-      <c r="A549" s="12"/>
+      <c r="A549" s="13"/>
     </row>
     <row r="550">
-      <c r="A550" s="12"/>
+      <c r="A550" s="13"/>
     </row>
     <row r="551">
-      <c r="A551" s="12"/>
+      <c r="A551" s="13"/>
     </row>
     <row r="552">
-      <c r="A552" s="12"/>
+      <c r="A552" s="13"/>
     </row>
     <row r="553">
-      <c r="A553" s="12"/>
+      <c r="A553" s="13"/>
     </row>
     <row r="554">
-      <c r="A554" s="12"/>
+      <c r="A554" s="13"/>
     </row>
     <row r="555">
-      <c r="A555" s="12"/>
+      <c r="A555" s="13"/>
     </row>
     <row r="556">
-      <c r="A556" s="12"/>
+      <c r="A556" s="13"/>
     </row>
     <row r="557">
-      <c r="A557" s="12"/>
+      <c r="A557" s="13"/>
     </row>
     <row r="558">
-      <c r="A558" s="12"/>
+      <c r="A558" s="13"/>
     </row>
     <row r="559">
-      <c r="A559" s="12"/>
+      <c r="A559" s="13"/>
     </row>
     <row r="560">
-      <c r="A560" s="12"/>
+      <c r="A560" s="13"/>
     </row>
     <row r="561">
-      <c r="A561" s="12"/>
+      <c r="A561" s="13"/>
     </row>
     <row r="562">
-      <c r="A562" s="12"/>
+      <c r="A562" s="13"/>
     </row>
     <row r="563">
-      <c r="A563" s="12"/>
+      <c r="A563" s="13"/>
     </row>
     <row r="564">
-      <c r="A564" s="12"/>
+      <c r="A564" s="13"/>
     </row>
     <row r="565">
-      <c r="A565" s="12"/>
+      <c r="A565" s="13"/>
     </row>
     <row r="566">
-      <c r="A566" s="12"/>
+      <c r="A566" s="13"/>
     </row>
     <row r="567">
-      <c r="A567" s="12"/>
+      <c r="A567" s="13"/>
     </row>
     <row r="568">
-      <c r="A568" s="12"/>
+      <c r="A568" s="13"/>
     </row>
     <row r="569">
-      <c r="A569" s="12"/>
+      <c r="A569" s="13"/>
     </row>
     <row r="570">
-      <c r="A570" s="12"/>
+      <c r="A570" s="13"/>
     </row>
     <row r="571">
-      <c r="A571" s="12"/>
+      <c r="A571" s="13"/>
     </row>
     <row r="572">
-      <c r="A572" s="12"/>
+      <c r="A572" s="13"/>
     </row>
     <row r="573">
-      <c r="A573" s="12"/>
+      <c r="A573" s="13"/>
     </row>
     <row r="574">
-      <c r="A574" s="12"/>
+      <c r="A574" s="13"/>
     </row>
     <row r="575">
-      <c r="A575" s="12"/>
+      <c r="A575" s="13"/>
     </row>
     <row r="576">
-      <c r="A576" s="12"/>
+      <c r="A576" s="13"/>
     </row>
     <row r="577">
-      <c r="A577" s="12"/>
+      <c r="A577" s="13"/>
     </row>
     <row r="578">
-      <c r="A578" s="12"/>
+      <c r="A578" s="13"/>
     </row>
     <row r="579">
-      <c r="A579" s="12"/>
+      <c r="A579" s="13"/>
     </row>
     <row r="580">
-      <c r="A580" s="12"/>
+      <c r="A580" s="13"/>
     </row>
     <row r="581">
-      <c r="A581" s="12"/>
+      <c r="A581" s="13"/>
     </row>
     <row r="582">
-      <c r="A582" s="12"/>
+      <c r="A582" s="13"/>
     </row>
     <row r="583">
-      <c r="A583" s="12"/>
+      <c r="A583" s="13"/>
     </row>
     <row r="584">
-      <c r="A584" s="12"/>
+      <c r="A584" s="13"/>
     </row>
     <row r="585">
-      <c r="A585" s="12"/>
+      <c r="A585" s="13"/>
     </row>
     <row r="586">
-      <c r="A586" s="12"/>
+      <c r="A586" s="13"/>
     </row>
     <row r="587">
-      <c r="A587" s="12"/>
+      <c r="A587" s="13"/>
     </row>
     <row r="588">
-      <c r="A588" s="12"/>
+      <c r="A588" s="13"/>
     </row>
     <row r="589">
-      <c r="A589" s="12"/>
+      <c r="A589" s="13"/>
     </row>
     <row r="590">
-      <c r="A590" s="12"/>
+      <c r="A590" s="13"/>
     </row>
     <row r="591">
-      <c r="A591" s="12"/>
+      <c r="A591" s="13"/>
     </row>
     <row r="592">
-      <c r="A592" s="12"/>
+      <c r="A592" s="13"/>
     </row>
     <row r="593">
-      <c r="A593" s="12"/>
+      <c r="A593" s="13"/>
     </row>
     <row r="594">
-      <c r="A594" s="12"/>
+      <c r="A594" s="13"/>
     </row>
     <row r="595">
-      <c r="A595" s="12"/>
+      <c r="A595" s="13"/>
     </row>
     <row r="596">
-      <c r="A596" s="12"/>
+      <c r="A596" s="13"/>
     </row>
     <row r="597">
-      <c r="A597" s="12"/>
+      <c r="A597" s="13"/>
     </row>
     <row r="598">
-      <c r="A598" s="12"/>
+      <c r="A598" s="13"/>
     </row>
     <row r="599">
-      <c r="A599" s="12"/>
+      <c r="A599" s="13"/>
     </row>
     <row r="600">
-      <c r="A600" s="12"/>
+      <c r="A600" s="13"/>
     </row>
     <row r="601">
-      <c r="A601" s="12"/>
+      <c r="A601" s="13"/>
     </row>
     <row r="602">
-      <c r="A602" s="12"/>
+      <c r="A602" s="13"/>
     </row>
     <row r="603">
-      <c r="A603" s="12"/>
+      <c r="A603" s="13"/>
     </row>
     <row r="604">
-      <c r="A604" s="12"/>
+      <c r="A604" s="13"/>
     </row>
     <row r="605">
-      <c r="A605" s="12"/>
+      <c r="A605" s="13"/>
     </row>
     <row r="606">
-      <c r="A606" s="12"/>
+      <c r="A606" s="13"/>
     </row>
     <row r="607">
-      <c r="A607" s="12"/>
+      <c r="A607" s="13"/>
     </row>
     <row r="608">
-      <c r="A608" s="12"/>
+      <c r="A608" s="13"/>
     </row>
     <row r="609">
-      <c r="A609" s="12"/>
+      <c r="A609" s="13"/>
     </row>
     <row r="610">
-      <c r="A610" s="12"/>
+      <c r="A610" s="13"/>
     </row>
     <row r="611">
-      <c r="A611" s="12"/>
+      <c r="A611" s="13"/>
     </row>
     <row r="612">
-      <c r="A612" s="12"/>
+      <c r="A612" s="13"/>
     </row>
     <row r="613">
-      <c r="A613" s="12"/>
+      <c r="A613" s="13"/>
     </row>
     <row r="614">
-      <c r="A614" s="12"/>
+      <c r="A614" s="13"/>
     </row>
     <row r="615">
-      <c r="A615" s="12"/>
+      <c r="A615" s="13"/>
     </row>
     <row r="616">
-      <c r="A616" s="12"/>
+      <c r="A616" s="13"/>
     </row>
     <row r="617">
-      <c r="A617" s="12"/>
+      <c r="A617" s="13"/>
     </row>
     <row r="618">
-      <c r="A618" s="12"/>
+      <c r="A618" s="13"/>
     </row>
     <row r="619">
-      <c r="A619" s="12"/>
+      <c r="A619" s="13"/>
     </row>
     <row r="620">
-      <c r="A620" s="12"/>
+      <c r="A620" s="13"/>
     </row>
     <row r="621">
-      <c r="A621" s="12"/>
+      <c r="A621" s="13"/>
     </row>
     <row r="622">
-      <c r="A622" s="12"/>
+      <c r="A622" s="13"/>
     </row>
     <row r="623">
-      <c r="A623" s="12"/>
+      <c r="A623" s="13"/>
     </row>
     <row r="624">
-      <c r="A624" s="12"/>
+      <c r="A624" s="13"/>
     </row>
     <row r="625">
-      <c r="A625" s="12"/>
+      <c r="A625" s="13"/>
     </row>
     <row r="626">
-      <c r="A626" s="12"/>
+      <c r="A626" s="13"/>
     </row>
     <row r="627">
-      <c r="A627" s="12"/>
+      <c r="A627" s="13"/>
     </row>
     <row r="628">
-      <c r="A628" s="12"/>
+      <c r="A628" s="13"/>
     </row>
     <row r="629">
-      <c r="A629" s="12"/>
+      <c r="A629" s="13"/>
     </row>
     <row r="630">
-      <c r="A630" s="12"/>
+      <c r="A630" s="13"/>
     </row>
     <row r="631">
-      <c r="A631" s="12"/>
+      <c r="A631" s="13"/>
     </row>
     <row r="632">
-      <c r="A632" s="12"/>
+      <c r="A632" s="13"/>
     </row>
     <row r="633">
-      <c r="A633" s="12"/>
+      <c r="A633" s="13"/>
     </row>
     <row r="634">
-      <c r="A634" s="12"/>
+      <c r="A634" s="13"/>
     </row>
     <row r="635">
-      <c r="A635" s="12"/>
+      <c r="A635" s="13"/>
     </row>
     <row r="636">
-      <c r="A636" s="12"/>
+      <c r="A636" s="13"/>
     </row>
     <row r="637">
-      <c r="A637" s="12"/>
+      <c r="A637" s="13"/>
     </row>
     <row r="638">
-      <c r="A638" s="12"/>
+      <c r="A638" s="13"/>
     </row>
     <row r="639">
-      <c r="A639" s="12"/>
+      <c r="A639" s="13"/>
     </row>
     <row r="640">
-      <c r="A640" s="12"/>
+      <c r="A640" s="13"/>
     </row>
     <row r="641">
-      <c r="A641" s="12"/>
+      <c r="A641" s="13"/>
     </row>
     <row r="642">
-      <c r="A642" s="12"/>
+      <c r="A642" s="13"/>
     </row>
     <row r="643">
-      <c r="A643" s="12"/>
+      <c r="A643" s="13"/>
     </row>
     <row r="644">
-      <c r="A644" s="12"/>
+      <c r="A644" s="13"/>
     </row>
     <row r="645">
-      <c r="A645" s="12"/>
+      <c r="A645" s="13"/>
     </row>
     <row r="646">
-      <c r="A646" s="12"/>
+      <c r="A646" s="13"/>
     </row>
     <row r="647">
-      <c r="A647" s="12"/>
+      <c r="A647" s="13"/>
     </row>
     <row r="648">
-      <c r="A648" s="12"/>
+      <c r="A648" s="13"/>
     </row>
     <row r="649">
-      <c r="A649" s="12"/>
+      <c r="A649" s="13"/>
     </row>
     <row r="650">
-      <c r="A650" s="12"/>
+      <c r="A650" s="13"/>
     </row>
     <row r="651">
-      <c r="A651" s="12"/>
+      <c r="A651" s="13"/>
     </row>
     <row r="652">
-      <c r="A652" s="12"/>
+      <c r="A652" s="13"/>
     </row>
     <row r="653">
-      <c r="A653" s="12"/>
+      <c r="A653" s="13"/>
     </row>
     <row r="654">
-      <c r="A654" s="12"/>
+      <c r="A654" s="13"/>
     </row>
     <row r="655">
-      <c r="A655" s="12"/>
+      <c r="A655" s="13"/>
     </row>
     <row r="656">
-      <c r="A656" s="12"/>
+      <c r="A656" s="13"/>
     </row>
     <row r="657">
-      <c r="A657" s="12"/>
+      <c r="A657" s="13"/>
     </row>
     <row r="658">
-      <c r="A658" s="12"/>
+      <c r="A658" s="13"/>
     </row>
     <row r="659">
-      <c r="A659" s="12"/>
+      <c r="A659" s="13"/>
     </row>
     <row r="660">
-      <c r="A660" s="12"/>
+      <c r="A660" s="13"/>
     </row>
     <row r="661">
-      <c r="A661" s="12"/>
+      <c r="A661" s="13"/>
     </row>
     <row r="662">
-      <c r="A662" s="12"/>
+      <c r="A662" s="13"/>
     </row>
     <row r="663">
-      <c r="A663" s="12"/>
+      <c r="A663" s="13"/>
     </row>
     <row r="664">
-      <c r="A664" s="12"/>
+      <c r="A664" s="13"/>
     </row>
     <row r="665">
-      <c r="A665" s="12"/>
+      <c r="A665" s="13"/>
     </row>
     <row r="666">
-      <c r="A666" s="12"/>
+      <c r="A666" s="13"/>
     </row>
     <row r="667">
-      <c r="A667" s="12"/>
+      <c r="A667" s="13"/>
     </row>
     <row r="668">
-      <c r="A668" s="12"/>
+      <c r="A668" s="13"/>
     </row>
     <row r="669">
-      <c r="A669" s="12"/>
+      <c r="A669" s="13"/>
     </row>
     <row r="670">
-      <c r="A670" s="12"/>
+      <c r="A670" s="13"/>
     </row>
     <row r="671">
-      <c r="A671" s="12"/>
+      <c r="A671" s="13"/>
     </row>
     <row r="672">
-      <c r="A672" s="12"/>
+      <c r="A672" s="13"/>
     </row>
     <row r="673">
-      <c r="A673" s="12"/>
+      <c r="A673" s="13"/>
     </row>
     <row r="674">
-      <c r="A674" s="12"/>
+      <c r="A674" s="13"/>
     </row>
     <row r="675">
-      <c r="A675" s="12"/>
+      <c r="A675" s="13"/>
     </row>
     <row r="676">
-      <c r="A676" s="12"/>
+      <c r="A676" s="13"/>
     </row>
     <row r="677">
-      <c r="A677" s="12"/>
+      <c r="A677" s="13"/>
     </row>
     <row r="678">
-      <c r="A678" s="12"/>
+      <c r="A678" s="13"/>
     </row>
     <row r="679">
-      <c r="A679" s="12"/>
+      <c r="A679" s="13"/>
     </row>
     <row r="680">
-      <c r="A680" s="12"/>
+      <c r="A680" s="13"/>
     </row>
     <row r="681">
-      <c r="A681" s="12"/>
+      <c r="A681" s="13"/>
     </row>
     <row r="682">
-      <c r="A682" s="12"/>
+      <c r="A682" s="13"/>
     </row>
     <row r="683">
-      <c r="A683" s="12"/>
+      <c r="A683" s="13"/>
     </row>
     <row r="684">
-      <c r="A684" s="12"/>
+      <c r="A684" s="13"/>
     </row>
     <row r="685">
-      <c r="A685" s="12"/>
+      <c r="A685" s="13"/>
     </row>
     <row r="686">
-      <c r="A686" s="12"/>
+      <c r="A686" s="13"/>
     </row>
     <row r="687">
-      <c r="A687" s="12"/>
+      <c r="A687" s="13"/>
     </row>
     <row r="688">
-      <c r="A688" s="12"/>
+      <c r="A688" s="13"/>
     </row>
     <row r="689">
-      <c r="A689" s="12"/>
+      <c r="A689" s="13"/>
     </row>
     <row r="690">
-      <c r="A690" s="12"/>
+      <c r="A690" s="13"/>
     </row>
     <row r="691">
-      <c r="A691" s="12"/>
+      <c r="A691" s="13"/>
     </row>
     <row r="692">
-      <c r="A692" s="12"/>
+      <c r="A692" s="13"/>
     </row>
     <row r="693">
-      <c r="A693" s="12"/>
+      <c r="A693" s="13"/>
     </row>
     <row r="694">
-      <c r="A694" s="12"/>
+      <c r="A694" s="13"/>
     </row>
     <row r="695">
-      <c r="A695" s="12"/>
+      <c r="A695" s="13"/>
     </row>
     <row r="696">
-      <c r="A696" s="12"/>
+      <c r="A696" s="13"/>
     </row>
     <row r="697">
-      <c r="A697" s="12"/>
+      <c r="A697" s="13"/>
     </row>
     <row r="698">
-      <c r="A698" s="12"/>
+      <c r="A698" s="13"/>
     </row>
     <row r="699">
-      <c r="A699" s="12"/>
+      <c r="A699" s="13"/>
     </row>
     <row r="700">
-      <c r="A700" s="12"/>
+      <c r="A700" s="13"/>
     </row>
     <row r="701">
-      <c r="A701" s="12"/>
+      <c r="A701" s="13"/>
     </row>
     <row r="702">
-      <c r="A702" s="12"/>
+      <c r="A702" s="13"/>
     </row>
     <row r="703">
-      <c r="A703" s="12"/>
+      <c r="A703" s="13"/>
     </row>
     <row r="704">
-      <c r="A704" s="12"/>
+      <c r="A704" s="13"/>
     </row>
     <row r="705">
-      <c r="A705" s="12"/>
+      <c r="A705" s="13"/>
     </row>
     <row r="706">
-      <c r="A706" s="12"/>
+      <c r="A706" s="13"/>
     </row>
     <row r="707">
-      <c r="A707" s="12"/>
+      <c r="A707" s="13"/>
     </row>
     <row r="708">
-      <c r="A708" s="12"/>
+      <c r="A708" s="13"/>
     </row>
     <row r="709">
-      <c r="A709" s="12"/>
+      <c r="A709" s="13"/>
     </row>
     <row r="710">
-      <c r="A710" s="12"/>
+      <c r="A710" s="13"/>
     </row>
     <row r="711">
-      <c r="A711" s="12"/>
+      <c r="A711" s="13"/>
     </row>
     <row r="712">
-      <c r="A712" s="12"/>
+      <c r="A712" s="13"/>
     </row>
     <row r="713">
-      <c r="A713" s="12"/>
+      <c r="A713" s="13"/>
     </row>
     <row r="714">
-      <c r="A714" s="12"/>
+      <c r="A714" s="13"/>
     </row>
     <row r="715">
-      <c r="A715" s="12"/>
+      <c r="A715" s="13"/>
     </row>
     <row r="716">
-      <c r="A716" s="12"/>
+      <c r="A716" s="13"/>
     </row>
     <row r="717">
-      <c r="A717" s="12"/>
+      <c r="A717" s="13"/>
     </row>
     <row r="718">
-      <c r="A718" s="12"/>
+      <c r="A718" s="13"/>
     </row>
     <row r="719">
-      <c r="A719" s="12"/>
+      <c r="A719" s="13"/>
     </row>
     <row r="720">
-      <c r="A720" s="12"/>
+      <c r="A720" s="13"/>
     </row>
     <row r="721">
-      <c r="A721" s="12"/>
+      <c r="A721" s="13"/>
     </row>
     <row r="722">
-      <c r="A722" s="12"/>
+      <c r="A722" s="13"/>
     </row>
     <row r="723">
-      <c r="A723" s="12"/>
+      <c r="A723" s="13"/>
     </row>
     <row r="724">
-      <c r="A724" s="12"/>
+      <c r="A724" s="13"/>
     </row>
     <row r="725">
-      <c r="A725" s="12"/>
+      <c r="A725" s="13"/>
     </row>
     <row r="726">
-      <c r="A726" s="12"/>
+      <c r="A726" s="13"/>
     </row>
     <row r="727">
-      <c r="A727" s="12"/>
+      <c r="A727" s="13"/>
     </row>
     <row r="728">
-      <c r="A728" s="12"/>
+      <c r="A728" s="13"/>
     </row>
     <row r="729">
-      <c r="A729" s="12"/>
+      <c r="A729" s="13"/>
     </row>
     <row r="730">
-      <c r="A730" s="12"/>
+      <c r="A730" s="13"/>
     </row>
     <row r="731">
-      <c r="A731" s="12"/>
+      <c r="A731" s="13"/>
     </row>
     <row r="732">
-      <c r="A732" s="12"/>
+      <c r="A732" s="13"/>
     </row>
     <row r="733">
-      <c r="A733" s="12"/>
+      <c r="A733" s="13"/>
     </row>
     <row r="734">
-      <c r="A734" s="12"/>
+      <c r="A734" s="13"/>
     </row>
     <row r="735">
-      <c r="A735" s="12"/>
+      <c r="A735" s="13"/>
     </row>
     <row r="736">
-      <c r="A736" s="12"/>
+      <c r="A736" s="13"/>
     </row>
     <row r="737">
-      <c r="A737" s="12"/>
+      <c r="A737" s="13"/>
     </row>
     <row r="738">
-      <c r="A738" s="12"/>
+      <c r="A738" s="13"/>
     </row>
     <row r="739">
-      <c r="A739" s="12"/>
+      <c r="A739" s="13"/>
     </row>
     <row r="740">
-      <c r="A740" s="12"/>
+      <c r="A740" s="13"/>
     </row>
     <row r="741">
-      <c r="A741" s="12"/>
+      <c r="A741" s="13"/>
     </row>
     <row r="742">
-      <c r="A742" s="12"/>
+      <c r="A742" s="13"/>
     </row>
     <row r="743">
-      <c r="A743" s="12"/>
+      <c r="A743" s="13"/>
     </row>
     <row r="744">
-      <c r="A744" s="12"/>
+      <c r="A744" s="13"/>
     </row>
     <row r="745">
-      <c r="A745" s="12"/>
+      <c r="A745" s="13"/>
     </row>
     <row r="746">
-      <c r="A746" s="12"/>
+      <c r="A746" s="13"/>
     </row>
     <row r="747">
-      <c r="A747" s="12"/>
+      <c r="A747" s="13"/>
     </row>
     <row r="748">
-      <c r="A748" s="12"/>
+      <c r="A748" s="13"/>
     </row>
     <row r="749">
-      <c r="A749" s="12"/>
+      <c r="A749" s="13"/>
     </row>
     <row r="750">
-      <c r="A750" s="12"/>
+      <c r="A750" s="13"/>
     </row>
     <row r="751">
-      <c r="A751" s="12"/>
+      <c r="A751" s="13"/>
     </row>
     <row r="752">
-      <c r="A752" s="12"/>
+      <c r="A752" s="13"/>
     </row>
     <row r="753">
-      <c r="A753" s="12"/>
+      <c r="A753" s="13"/>
     </row>
     <row r="754">
-      <c r="A754" s="12"/>
+      <c r="A754" s="13"/>
     </row>
     <row r="755">
-      <c r="A755" s="12"/>
+      <c r="A755" s="13"/>
     </row>
     <row r="756">
-      <c r="A756" s="12"/>
+      <c r="A756" s="13"/>
     </row>
     <row r="757">
-      <c r="A757" s="12"/>
+      <c r="A757" s="13"/>
     </row>
     <row r="758">
-      <c r="A758" s="12"/>
+      <c r="A758" s="13"/>
     </row>
     <row r="759">
-      <c r="A759" s="12"/>
+      <c r="A759" s="13"/>
     </row>
     <row r="760">
-      <c r="A760" s="12"/>
+      <c r="A760" s="13"/>
     </row>
     <row r="761">
-      <c r="A761" s="12"/>
+      <c r="A761" s="13"/>
     </row>
     <row r="762">
-      <c r="A762" s="12"/>
+      <c r="A762" s="13"/>
     </row>
     <row r="763">
-      <c r="A763" s="12"/>
+      <c r="A763" s="13"/>
     </row>
     <row r="764">
-      <c r="A764" s="12"/>
+      <c r="A764" s="13"/>
     </row>
     <row r="765">
-      <c r="A765" s="12"/>
+      <c r="A765" s="13"/>
     </row>
     <row r="766">
-      <c r="A766" s="12"/>
+      <c r="A766" s="13"/>
     </row>
     <row r="767">
-      <c r="A767" s="12"/>
+      <c r="A767" s="13"/>
     </row>
     <row r="768">
-      <c r="A768" s="12"/>
+      <c r="A768" s="13"/>
     </row>
     <row r="769">
-      <c r="A769" s="12"/>
+      <c r="A769" s="13"/>
     </row>
     <row r="770">
-      <c r="A770" s="12"/>
+      <c r="A770" s="13"/>
     </row>
     <row r="771">
-      <c r="A771" s="12"/>
+      <c r="A771" s="13"/>
     </row>
     <row r="772">
-      <c r="A772" s="12"/>
+      <c r="A772" s="13"/>
     </row>
     <row r="773">
-      <c r="A773" s="12"/>
+      <c r="A773" s="13"/>
     </row>
     <row r="774">
-      <c r="A774" s="12"/>
+      <c r="A774" s="13"/>
     </row>
     <row r="775">
-      <c r="A775" s="12"/>
+      <c r="A775" s="13"/>
     </row>
     <row r="776">
-      <c r="A776" s="12"/>
+      <c r="A776" s="13"/>
     </row>
     <row r="777">
-      <c r="A777" s="12"/>
+      <c r="A777" s="13"/>
     </row>
     <row r="778">
-      <c r="A778" s="12"/>
+      <c r="A778" s="13"/>
     </row>
     <row r="779">
-      <c r="A779" s="12"/>
+      <c r="A779" s="13"/>
     </row>
     <row r="780">
-      <c r="A780" s="12"/>
+      <c r="A780" s="13"/>
     </row>
     <row r="781">
-      <c r="A781" s="12"/>
+      <c r="A781" s="13"/>
     </row>
     <row r="782">
-      <c r="A782" s="12"/>
+      <c r="A782" s="13"/>
     </row>
     <row r="783">
-      <c r="A783" s="12"/>
+      <c r="A783" s="13"/>
     </row>
     <row r="784">
-      <c r="A784" s="12"/>
+      <c r="A784" s="13"/>
     </row>
     <row r="785">
-      <c r="A785" s="12"/>
+      <c r="A785" s="13"/>
     </row>
     <row r="786">
-      <c r="A786" s="12"/>
+      <c r="A786" s="13"/>
     </row>
     <row r="787">
-      <c r="A787" s="12"/>
+      <c r="A787" s="13"/>
     </row>
     <row r="788">
-      <c r="A788" s="12"/>
+      <c r="A788" s="13"/>
     </row>
     <row r="789">
-      <c r="A789" s="12"/>
+      <c r="A789" s="13"/>
     </row>
     <row r="790">
-      <c r="A790" s="12"/>
+      <c r="A790" s="13"/>
     </row>
     <row r="791">
-      <c r="A791" s="12"/>
+      <c r="A791" s="13"/>
     </row>
     <row r="792">
-      <c r="A792" s="12"/>
+      <c r="A792" s="13"/>
     </row>
     <row r="793">
-      <c r="A793" s="12"/>
+      <c r="A793" s="13"/>
     </row>
     <row r="794">
-      <c r="A794" s="12"/>
+      <c r="A794" s="13"/>
     </row>
     <row r="795">
-      <c r="A795" s="12"/>
+      <c r="A795" s="13"/>
     </row>
     <row r="796">
-      <c r="A796" s="12"/>
+      <c r="A796" s="13"/>
     </row>
     <row r="797">
-      <c r="A797" s="12"/>
+      <c r="A797" s="13"/>
     </row>
     <row r="798">
-      <c r="A798" s="12"/>
+      <c r="A798" s="13"/>
     </row>
     <row r="799">
-      <c r="A799" s="12"/>
+      <c r="A799" s="13"/>
     </row>
     <row r="800">
-      <c r="A800" s="12"/>
+      <c r="A800" s="13"/>
     </row>
     <row r="801">
-      <c r="A801" s="12"/>
+      <c r="A801" s="13"/>
     </row>
     <row r="802">
-      <c r="A802" s="12"/>
+      <c r="A802" s="13"/>
     </row>
     <row r="803">
-      <c r="A803" s="12"/>
+      <c r="A803" s="13"/>
     </row>
     <row r="804">
-      <c r="A804" s="12"/>
+      <c r="A804" s="13"/>
     </row>
     <row r="805">
-      <c r="A805" s="12"/>
+      <c r="A805" s="13"/>
     </row>
     <row r="806">
-      <c r="A806" s="12"/>
+      <c r="A806" s="13"/>
     </row>
     <row r="807">
-      <c r="A807" s="12"/>
+      <c r="A807" s="13"/>
     </row>
     <row r="808">
-      <c r="A808" s="12"/>
+      <c r="A808" s="13"/>
     </row>
     <row r="809">
-      <c r="A809" s="12"/>
+      <c r="A809" s="13"/>
     </row>
     <row r="810">
-      <c r="A810" s="12"/>
+      <c r="A810" s="13"/>
     </row>
     <row r="811">
-      <c r="A811" s="12"/>
+      <c r="A811" s="13"/>
     </row>
     <row r="812">
-      <c r="A812" s="12"/>
+      <c r="A812" s="13"/>
     </row>
     <row r="813">
-      <c r="A813" s="12"/>
+      <c r="A813" s="13"/>
     </row>
     <row r="814">
-      <c r="A814" s="12"/>
+      <c r="A814" s="13"/>
     </row>
     <row r="815">
-      <c r="A815" s="12"/>
+      <c r="A815" s="13"/>
     </row>
     <row r="816">
-      <c r="A816" s="12"/>
+      <c r="A816" s="13"/>
     </row>
     <row r="817">
-      <c r="A817" s="12"/>
+      <c r="A817" s="13"/>
     </row>
     <row r="818">
-      <c r="A818" s="12"/>
+      <c r="A818" s="13"/>
     </row>
     <row r="819">
-      <c r="A819" s="12"/>
+      <c r="A819" s="13"/>
     </row>
     <row r="820">
-      <c r="A820" s="12"/>
+      <c r="A820" s="13"/>
     </row>
     <row r="821">
-      <c r="A821" s="12"/>
+      <c r="A821" s="13"/>
     </row>
     <row r="822">
-      <c r="A822" s="12"/>
+      <c r="A822" s="13"/>
     </row>
     <row r="823">
-      <c r="A823" s="12"/>
+      <c r="A823" s="13"/>
     </row>
     <row r="824">
-      <c r="A824" s="12"/>
+      <c r="A824" s="13"/>
     </row>
     <row r="825">
-      <c r="A825" s="12"/>
+      <c r="A825" s="13"/>
     </row>
     <row r="826">
-      <c r="A826" s="12"/>
+      <c r="A826" s="13"/>
     </row>
     <row r="827">
-      <c r="A827" s="12"/>
+      <c r="A827" s="13"/>
     </row>
     <row r="828">
-      <c r="A828" s="12"/>
+      <c r="A828" s="13"/>
     </row>
     <row r="829">
-      <c r="A829" s="12"/>
+      <c r="A829" s="13"/>
     </row>
     <row r="830">
-      <c r="A830" s="12"/>
+      <c r="A830" s="13"/>
     </row>
     <row r="831">
-      <c r="A831" s="12"/>
+      <c r="A831" s="13"/>
     </row>
     <row r="832">
-      <c r="A832" s="12"/>
+      <c r="A832" s="13"/>
     </row>
     <row r="833">
-      <c r="A833" s="12"/>
+      <c r="A833" s="13"/>
     </row>
     <row r="834">
-      <c r="A834" s="12"/>
+      <c r="A834" s="13"/>
     </row>
     <row r="835">
-      <c r="A835" s="12"/>
+      <c r="A835" s="13"/>
     </row>
     <row r="836">
-      <c r="A836" s="12"/>
+      <c r="A836" s="13"/>
     </row>
     <row r="837">
-      <c r="A837" s="12"/>
+      <c r="A837" s="13"/>
     </row>
     <row r="838">
-      <c r="A838" s="12"/>
+      <c r="A838" s="13"/>
     </row>
     <row r="839">
-      <c r="A839" s="12"/>
+      <c r="A839" s="13"/>
     </row>
     <row r="840">
-      <c r="A840" s="12"/>
+      <c r="A840" s="13"/>
     </row>
     <row r="841">
-      <c r="A841" s="12"/>
+      <c r="A841" s="13"/>
     </row>
     <row r="842">
-      <c r="A842" s="12"/>
+      <c r="A842" s="13"/>
     </row>
     <row r="843">
-      <c r="A843" s="12"/>
+      <c r="A843" s="13"/>
     </row>
     <row r="844">
-      <c r="A844" s="12"/>
+      <c r="A844" s="13"/>
     </row>
     <row r="845">
-      <c r="A845" s="12"/>
+      <c r="A845" s="13"/>
     </row>
     <row r="846">
-      <c r="A846" s="12"/>
+      <c r="A846" s="13"/>
     </row>
     <row r="847">
-      <c r="A847" s="12"/>
+      <c r="A847" s="13"/>
     </row>
     <row r="848">
-      <c r="A848" s="12"/>
+      <c r="A848" s="13"/>
     </row>
     <row r="849">
-      <c r="A849" s="12"/>
+      <c r="A849" s="13"/>
     </row>
     <row r="850">
-      <c r="A850" s="12"/>
+      <c r="A850" s="13"/>
     </row>
     <row r="851">
-      <c r="A851" s="12"/>
+      <c r="A851" s="13"/>
     </row>
     <row r="852">
-      <c r="A852" s="12"/>
+      <c r="A852" s="13"/>
     </row>
     <row r="853">
-      <c r="A853" s="12"/>
+      <c r="A853" s="13"/>
     </row>
     <row r="854">
-      <c r="A854" s="12"/>
+      <c r="A854" s="13"/>
     </row>
     <row r="855">
-      <c r="A855" s="12"/>
+      <c r="A855" s="13"/>
     </row>
     <row r="856">
-      <c r="A856" s="12"/>
+      <c r="A856" s="13"/>
     </row>
     <row r="857">
-      <c r="A857" s="12"/>
+      <c r="A857" s="13"/>
     </row>
     <row r="858">
-      <c r="A858" s="12"/>
+      <c r="A858" s="13"/>
     </row>
     <row r="859">
-      <c r="A859" s="12"/>
+      <c r="A859" s="13"/>
     </row>
     <row r="860">
-      <c r="A860" s="12"/>
+      <c r="A860" s="13"/>
     </row>
     <row r="861">
-      <c r="A861" s="12"/>
+      <c r="A861" s="13"/>
     </row>
     <row r="862">
-      <c r="A862" s="12"/>
+      <c r="A862" s="13"/>
     </row>
     <row r="863">
-      <c r="A863" s="12"/>
+      <c r="A863" s="13"/>
     </row>
     <row r="864">
-      <c r="A864" s="12"/>
+      <c r="A864" s="13"/>
     </row>
     <row r="865">
-      <c r="A865" s="12"/>
+      <c r="A865" s="13"/>
     </row>
     <row r="866">
-      <c r="A866" s="12"/>
+      <c r="A866" s="13"/>
     </row>
     <row r="867">
-      <c r="A867" s="12"/>
+      <c r="A867" s="13"/>
     </row>
     <row r="868">
-      <c r="A868" s="12"/>
+      <c r="A868" s="13"/>
     </row>
     <row r="869">
-      <c r="A869" s="12"/>
+      <c r="A869" s="13"/>
     </row>
     <row r="870">
-      <c r="A870" s="12"/>
+      <c r="A870" s="13"/>
     </row>
     <row r="871">
-      <c r="A871" s="12"/>
+      <c r="A871" s="13"/>
     </row>
     <row r="872">
-      <c r="A872" s="12"/>
+      <c r="A872" s="13"/>
     </row>
     <row r="873">
-      <c r="A873" s="12"/>
+      <c r="A873" s="13"/>
     </row>
     <row r="874">
-      <c r="A874" s="12"/>
+      <c r="A874" s="13"/>
     </row>
     <row r="875">
-      <c r="A875" s="12"/>
+      <c r="A875" s="13"/>
     </row>
     <row r="876">
-      <c r="A876" s="12"/>
+      <c r="A876" s="13"/>
     </row>
     <row r="877">
-      <c r="A877" s="12"/>
+      <c r="A877" s="13"/>
     </row>
     <row r="878">
-      <c r="A878" s="12"/>
+      <c r="A878" s="13"/>
     </row>
     <row r="879">
-      <c r="A879" s="12"/>
+      <c r="A879" s="13"/>
     </row>
     <row r="880">
-      <c r="A880" s="12"/>
+      <c r="A880" s="13"/>
     </row>
     <row r="881">
-      <c r="A881" s="12"/>
+      <c r="A881" s="13"/>
     </row>
     <row r="882">
-      <c r="A882" s="12"/>
+      <c r="A882" s="13"/>
     </row>
     <row r="883">
-      <c r="A883" s="12"/>
+      <c r="A883" s="13"/>
     </row>
     <row r="884">
-      <c r="A884" s="12"/>
+      <c r="A884" s="13"/>
     </row>
     <row r="885">
-      <c r="A885" s="12"/>
+      <c r="A885" s="13"/>
     </row>
     <row r="886">
-      <c r="A886" s="12"/>
+      <c r="A886" s="13"/>
     </row>
     <row r="887">
-      <c r="A887" s="12"/>
+      <c r="A887" s="13"/>
     </row>
     <row r="888">
-      <c r="A888" s="12"/>
+      <c r="A888" s="13"/>
     </row>
     <row r="889">
-      <c r="A889" s="12"/>
+      <c r="A889" s="13"/>
     </row>
     <row r="890">
-      <c r="A890" s="12"/>
+      <c r="A890" s="13"/>
     </row>
     <row r="891">
-      <c r="A891" s="12"/>
+      <c r="A891" s="13"/>
     </row>
     <row r="892">
-      <c r="A892" s="12"/>
+      <c r="A892" s="13"/>
     </row>
     <row r="893">
-      <c r="A893" s="12"/>
+      <c r="A893" s="13"/>
     </row>
     <row r="894">
-      <c r="A894" s="12"/>
+      <c r="A894" s="13"/>
     </row>
     <row r="895">
-      <c r="A895" s="12"/>
+      <c r="A895" s="13"/>
     </row>
     <row r="896">
-      <c r="A896" s="12"/>
+      <c r="A896" s="13"/>
     </row>
     <row r="897">
-      <c r="A897" s="12"/>
+      <c r="A897" s="13"/>
     </row>
     <row r="898">
-      <c r="A898" s="12"/>
+      <c r="A898" s="13"/>
     </row>
     <row r="899">
-      <c r="A899" s="12"/>
+      <c r="A899" s="13"/>
     </row>
     <row r="900">
-      <c r="A900" s="12"/>
+      <c r="A900" s="13"/>
     </row>
     <row r="901">
-      <c r="A901" s="12"/>
+      <c r="A901" s="13"/>
     </row>
     <row r="902">
-      <c r="A902" s="12"/>
+      <c r="A902" s="13"/>
     </row>
     <row r="903">
-      <c r="A903" s="12"/>
+      <c r="A903" s="13"/>
     </row>
     <row r="904">
-      <c r="A904" s="12"/>
+      <c r="A904" s="13"/>
     </row>
     <row r="905">
-      <c r="A905" s="12"/>
+      <c r="A905" s="13"/>
     </row>
     <row r="906">
-      <c r="A906" s="12"/>
+      <c r="A906" s="13"/>
     </row>
     <row r="907">
-      <c r="A907" s="12"/>
+      <c r="A907" s="13"/>
     </row>
     <row r="908">
-      <c r="A908" s="12"/>
+      <c r="A908" s="13"/>
     </row>
     <row r="909">
-      <c r="A909" s="12"/>
+      <c r="A909" s="13"/>
     </row>
     <row r="910">
-      <c r="A910" s="12"/>
+      <c r="A910" s="13"/>
     </row>
     <row r="911">
-      <c r="A911" s="12"/>
+      <c r="A911" s="13"/>
     </row>
     <row r="912">
-      <c r="A912" s="12"/>
+      <c r="A912" s="13"/>
     </row>
     <row r="913">
-      <c r="A913" s="12"/>
+      <c r="A913" s="13"/>
     </row>
     <row r="914">
-      <c r="A914" s="12"/>
+      <c r="A914" s="13"/>
     </row>
     <row r="915">
-      <c r="A915" s="12"/>
+      <c r="A915" s="13"/>
     </row>
     <row r="916">
-      <c r="A916" s="12"/>
+      <c r="A916" s="13"/>
     </row>
     <row r="917">
-      <c r="A917" s="12"/>
+      <c r="A917" s="13"/>
     </row>
     <row r="918">
-      <c r="A918" s="12"/>
+      <c r="A918" s="13"/>
     </row>
     <row r="919">
-      <c r="A919" s="12"/>
+      <c r="A919" s="13"/>
     </row>
     <row r="920">
-      <c r="A920" s="12"/>
+      <c r="A920" s="13"/>
     </row>
     <row r="921">
-      <c r="A921" s="12"/>
+      <c r="A921" s="13"/>
     </row>
     <row r="922">
-      <c r="A922" s="12"/>
+      <c r="A922" s="13"/>
     </row>
     <row r="923">
-      <c r="A923" s="12"/>
+      <c r="A923" s="13"/>
     </row>
     <row r="924">
-      <c r="A924" s="12"/>
+      <c r="A924" s="13"/>
     </row>
     <row r="925">
-      <c r="A925" s="12"/>
+      <c r="A925" s="13"/>
     </row>
     <row r="926">
-      <c r="A926" s="12"/>
+      <c r="A926" s="13"/>
     </row>
     <row r="927">
-      <c r="A927" s="12"/>
+      <c r="A927" s="13"/>
     </row>
     <row r="928">
-      <c r="A928" s="12"/>
+      <c r="A928" s="13"/>
     </row>
     <row r="929">
-      <c r="A929" s="12"/>
+      <c r="A929" s="13"/>
     </row>
     <row r="930">
-      <c r="A930" s="12"/>
+      <c r="A930" s="13"/>
     </row>
     <row r="931">
-      <c r="A931" s="12"/>
+      <c r="A931" s="13"/>
     </row>
     <row r="932">
-      <c r="A932" s="12"/>
+      <c r="A932" s="13"/>
     </row>
     <row r="933">
-      <c r="A933" s="12"/>
+      <c r="A933" s="13"/>
     </row>
     <row r="934">
-      <c r="A934" s="12"/>
+      <c r="A934" s="13"/>
     </row>
     <row r="935">
-      <c r="A935" s="12"/>
+      <c r="A935" s="13"/>
     </row>
     <row r="936">
-      <c r="A936" s="12"/>
+      <c r="A936" s="13"/>
     </row>
     <row r="937">
-      <c r="A937" s="12"/>
+      <c r="A937" s="13"/>
     </row>
     <row r="938">
-      <c r="A938" s="12"/>
+      <c r="A938" s="13"/>
     </row>
     <row r="939">
-      <c r="A939" s="12"/>
+      <c r="A939" s="13"/>
     </row>
     <row r="940">
-      <c r="A940" s="12"/>
+      <c r="A940" s="13"/>
     </row>
     <row r="941">
-      <c r="A941" s="12"/>
+      <c r="A941" s="13"/>
     </row>
     <row r="942">
-      <c r="A942" s="12"/>
+      <c r="A942" s="13"/>
     </row>
     <row r="943">
-      <c r="A943" s="12"/>
+      <c r="A943" s="13"/>
     </row>
     <row r="944">
-      <c r="A944" s="12"/>
+      <c r="A944" s="13"/>
     </row>
     <row r="945">
-      <c r="A945" s="12"/>
+      <c r="A945" s="13"/>
     </row>
     <row r="946">
-      <c r="A946" s="12"/>
+      <c r="A946" s="13"/>
     </row>
     <row r="947">
-      <c r="A947" s="12"/>
+      <c r="A947" s="13"/>
     </row>
     <row r="948">
-      <c r="A948" s="12"/>
+      <c r="A948" s="13"/>
     </row>
     <row r="949">
-      <c r="A949" s="12"/>
+      <c r="A949" s="13"/>
     </row>
     <row r="950">
-      <c r="A950" s="12"/>
+      <c r="A950" s="13"/>
     </row>
     <row r="951">
-      <c r="A951" s="12"/>
+      <c r="A951" s="13"/>
     </row>
     <row r="952">
-      <c r="A952" s="12"/>
+      <c r="A952" s="13"/>
     </row>
     <row r="953">
-      <c r="A953" s="12"/>
+      <c r="A953" s="13"/>
     </row>
     <row r="954">
-      <c r="A954" s="12"/>
+      <c r="A954" s="13"/>
     </row>
     <row r="955">
-      <c r="A955" s="12"/>
+      <c r="A955" s="13"/>
     </row>
     <row r="956">
-      <c r="A956" s="12"/>
+      <c r="A956" s="13"/>
     </row>
     <row r="957">
-      <c r="A957" s="12"/>
+      <c r="A957" s="13"/>
     </row>
     <row r="958">
-      <c r="A958" s="12"/>
+      <c r="A958" s="13"/>
     </row>
     <row r="959">
-      <c r="A959" s="12"/>
+      <c r="A959" s="13"/>
     </row>
     <row r="960">
-      <c r="A960" s="12"/>
+      <c r="A960" s="13"/>
     </row>
     <row r="961">
-      <c r="A961" s="12"/>
+      <c r="A961" s="13"/>
     </row>
     <row r="962">
-      <c r="A962" s="12"/>
+      <c r="A962" s="13"/>
     </row>
     <row r="963">
-      <c r="A963" s="12"/>
+      <c r="A963" s="13"/>
     </row>
     <row r="964">
-      <c r="A964" s="12"/>
+      <c r="A964" s="13"/>
     </row>
     <row r="965">
-      <c r="A965" s="12"/>
+      <c r="A965" s="13"/>
     </row>
     <row r="966">
-      <c r="A966" s="12"/>
+      <c r="A966" s="13"/>
     </row>
     <row r="967">
-      <c r="A967" s="12"/>
+      <c r="A967" s="13"/>
     </row>
     <row r="968">
-      <c r="A968" s="12"/>
+      <c r="A968" s="13"/>
     </row>
     <row r="969">
-      <c r="A969" s="12"/>
+      <c r="A969" s="13"/>
     </row>
     <row r="970">
-      <c r="A970" s="12"/>
+      <c r="A970" s="13"/>
     </row>
     <row r="971">
-      <c r="A971" s="12"/>
+      <c r="A971" s="13"/>
     </row>
     <row r="972">
-      <c r="A972" s="12"/>
+      <c r="A972" s="13"/>
     </row>
     <row r="973">
-      <c r="A973" s="12"/>
+      <c r="A973" s="13"/>
     </row>
     <row r="974">
-      <c r="A974" s="12"/>
+      <c r="A974" s="13"/>
     </row>
     <row r="975">
-      <c r="A975" s="12"/>
+      <c r="A975" s="13"/>
     </row>
     <row r="976">
-      <c r="A976" s="12"/>
+      <c r="A976" s="13"/>
     </row>
     <row r="977">
-      <c r="A977" s="12"/>
+      <c r="A977" s="13"/>
     </row>
     <row r="978">
-      <c r="A978" s="12"/>
+      <c r="A978" s="13"/>
     </row>
     <row r="979">
-      <c r="A979" s="12"/>
+      <c r="A979" s="13"/>
     </row>
     <row r="980">
-      <c r="A980" s="12"/>
+      <c r="A980" s="13"/>
     </row>
     <row r="981">
-      <c r="A981" s="12"/>
+      <c r="A981" s="13"/>
     </row>
     <row r="982">
-      <c r="A982" s="12"/>
+      <c r="A982" s="13"/>
     </row>
     <row r="983">
-      <c r="A983" s="12"/>
+      <c r="A983" s="13"/>
     </row>
     <row r="984">
-      <c r="A984" s="12"/>
+      <c r="A984" s="13"/>
     </row>
     <row r="985">
-      <c r="A985" s="12"/>
+      <c r="A985" s="13"/>
     </row>
     <row r="986">
-      <c r="A986" s="12"/>
+      <c r="A986" s="13"/>
     </row>
     <row r="987">
-      <c r="A987" s="12"/>
+      <c r="A987" s="13"/>
     </row>
     <row r="988">
-      <c r="A988" s="12"/>
+      <c r="A988" s="13"/>
     </row>
     <row r="989">
-      <c r="A989" s="12"/>
+      <c r="A989" s="13"/>
     </row>
     <row r="990">
-      <c r="A990" s="12"/>
+      <c r="A990" s="13"/>
     </row>
     <row r="991">
-      <c r="A991" s="12"/>
+      <c r="A991" s="13"/>
     </row>
     <row r="992">
-      <c r="A992" s="12"/>
+      <c r="A992" s="13"/>
     </row>
     <row r="993">
-      <c r="A993" s="12"/>
+      <c r="A993" s="13"/>
     </row>
     <row r="994">
-      <c r="A994" s="12"/>
+      <c r="A994" s="13"/>
     </row>
     <row r="995">
-      <c r="A995" s="12"/>
+      <c r="A995" s="13"/>
     </row>
     <row r="996">
-      <c r="A996" s="12"/>
+      <c r="A996" s="13"/>
     </row>
     <row r="997">
-      <c r="A997" s="12"/>
+      <c r="A997" s="13"/>
     </row>
     <row r="998">
-      <c r="A998" s="12"/>
+      <c r="A998" s="13"/>
     </row>
     <row r="999">
-      <c r="A999" s="12"/>
+      <c r="A999" s="13"/>
     </row>
     <row r="1000">
-      <c r="A1000" s="12"/>
+      <c r="A1000" s="13"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -9818,607 +10018,607 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <sheetData>
     <row r="2">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="13" t="s">
+      <c r="B2" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="12" t="s">
         <v>6</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="13" t="s">
+      <c r="I2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="J2" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="K2" s="13" t="s">
+      <c r="J2" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="K2" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="L2" s="13" t="s">
+      <c r="L2" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="13" t="s">
+      <c r="M2" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="13" t="s">
+      <c r="N2" s="12" t="s">
         <v>14</v>
       </c>
-      <c r="O2" s="13" t="s">
+      <c r="O2" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="P2" s="13" t="s">
+      <c r="P2" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="13" t="s">
+      <c r="Q2" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="R2" s="13" t="s">
+      <c r="R2" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="S2" s="13" t="s">
+      <c r="S2" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="13" t="s">
+      <c r="T2" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="U2" s="13" t="s">
+      <c r="U2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="V2" s="13" t="s">
+      <c r="V2" s="12" t="s">
         <v>22</v>
       </c>
-      <c r="W2" s="13" t="s">
+      <c r="W2" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="X2" s="13" t="s">
+      <c r="X2" s="12" t="s">
         <v>24</v>
       </c>
-      <c r="Y2" s="13" t="s">
+      <c r="Y2" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="Z2" s="13" t="s">
+      <c r="Z2" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="AA2" s="13" t="s">
+      <c r="AA2" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="AB2" s="13" t="s">
+      <c r="AB2" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="AC2" s="13" t="s">
+      <c r="AC2" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="AD2" s="13" t="s">
+      <c r="AD2" s="12" t="s">
         <v>30</v>
       </c>
-      <c r="AE2" s="13" t="s">
+      <c r="AE2" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="AF2" s="13">
+      <c r="AF2" s="12">
         <v>1.2142078621E10</v>
       </c>
-      <c r="AG2" s="13" t="s">
+      <c r="AG2" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="AH2" s="13">
+      <c r="AH2" s="12">
         <v>1.241051055E9</v>
       </c>
-      <c r="AI2" s="13">
+      <c r="AI2" s="12">
         <v>1.2125704002E10</v>
       </c>
-      <c r="AJ2" s="13" t="s">
+      <c r="AJ2" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="AK2" s="13" t="s">
+      <c r="AK2" s="12" t="s">
         <v>37</v>
       </c>
-      <c r="AL2" s="13" t="s">
+      <c r="AL2" s="12" t="s">
         <v>38</v>
       </c>
-      <c r="AM2" s="13" t="s">
+      <c r="AM2" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="AN2" s="13" t="s">
+      <c r="AN2" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="AO2" s="13" t="s">
+      <c r="AO2" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="AP2" s="13" t="s">
+      <c r="AP2" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="AQ2" s="13">
+      <c r="AQ2" s="12">
         <v>1.234976516E9</v>
       </c>
-      <c r="AR2" s="13" t="s">
+      <c r="AR2" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="AS2" s="13" t="s">
-        <v>209</v>
-      </c>
-      <c r="AT2" s="13" t="s">
+      <c r="AS2" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="AT2" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="AU2" s="13" t="s">
+      <c r="AU2" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="AV2" s="13" t="s">
+      <c r="AV2" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="AW2" s="13" t="s">
+      <c r="AW2" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="AX2" s="13" t="s">
+      <c r="AX2" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="AY2" s="13" t="s">
+      <c r="AY2" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="AZ2" s="13" t="s">
+      <c r="AZ2" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="BA2" s="13" t="s">
+      <c r="BA2" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="BB2" s="13" t="s">
+      <c r="BB2" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="BC2" s="13" t="s">
+      <c r="BC2" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="BD2" s="13" t="s">
+      <c r="BD2" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="BE2" s="13" t="s">
+      <c r="BE2" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="BF2" s="13" t="s">
+      <c r="BF2" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="BG2" s="13" t="s">
+      <c r="BG2" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="BH2" s="13" t="s">
+      <c r="BH2" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="BI2" s="13" t="s">
+      <c r="BI2" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="BJ2" s="13" t="s">
+      <c r="BJ2" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="BK2" s="13" t="s">
+      <c r="BK2" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="BL2" s="13" t="s">
+      <c r="BL2" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="BM2" s="13" t="s">
+      <c r="BM2" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="BN2" s="13" t="s">
+      <c r="BN2" s="12" t="s">
         <v>66</v>
       </c>
-      <c r="BO2" s="13" t="s">
+      <c r="BO2" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="BP2" s="13" t="s">
+      <c r="BP2" s="12" t="s">
         <v>68</v>
       </c>
-      <c r="BQ2" s="13" t="s">
+      <c r="BQ2" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="BR2" s="13" t="s">
+      <c r="BR2" s="12" t="s">
         <v>70</v>
       </c>
-      <c r="BS2" s="13" t="s">
+      <c r="BS2" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="BT2" s="13" t="s">
+      <c r="BT2" s="12" t="s">
         <v>72</v>
       </c>
-      <c r="BU2" s="13" t="s">
+      <c r="BU2" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="BV2" s="13" t="s">
+      <c r="BV2" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="BW2" s="13" t="s">
+      <c r="BW2" s="12" t="s">
         <v>75</v>
       </c>
-      <c r="BX2" s="13" t="s">
+      <c r="BX2" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="BY2" s="13" t="s">
+      <c r="BY2" s="12" t="s">
         <v>77</v>
       </c>
-      <c r="BZ2" s="13" t="s">
+      <c r="BZ2" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="CA2" s="13" t="s">
+      <c r="CA2" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="CB2" s="13" t="s">
+      <c r="CB2" s="12" t="s">
         <v>80</v>
       </c>
-      <c r="CC2" s="13" t="s">
+      <c r="CC2" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="CD2" s="13" t="s">
+      <c r="CD2" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="CE2" s="13" t="s">
+      <c r="CE2" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="CF2" s="13" t="s">
+      <c r="CF2" s="12" t="s">
         <v>84</v>
       </c>
-      <c r="CG2" s="13" t="s">
+      <c r="CG2" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="CH2" s="13" t="s">
+      <c r="CH2" s="12" t="s">
         <v>86</v>
       </c>
-      <c r="CI2" s="13" t="s">
+      <c r="CI2" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="CJ2" s="13" t="s">
+      <c r="CJ2" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="CK2" s="13" t="s">
+      <c r="CK2" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="CL2" s="13" t="s">
+      <c r="CL2" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="CM2" s="13" t="s">
+      <c r="CM2" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="CN2" s="13" t="s">
+      <c r="CN2" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="CO2" s="13" t="s">
+      <c r="CO2" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="CP2" s="13" t="s">
+      <c r="CP2" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="CQ2" s="13" t="s">
+      <c r="CQ2" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="CR2" s="13" t="s">
+      <c r="CR2" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="CS2" s="13" t="s">
+      <c r="CS2" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="CT2" s="13" t="s">
+      <c r="CT2" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="CU2" s="13" t="s">
+      <c r="CU2" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="CV2" s="13" t="s">
+      <c r="CV2" s="12" t="s">
         <v>100</v>
       </c>
-      <c r="CW2" s="13" t="s">
+      <c r="CW2" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="CX2" s="13" t="s">
+      <c r="CX2" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="CY2" s="13" t="s">
+      <c r="CY2" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="CZ2" s="13" t="s">
+      <c r="CZ2" s="12" t="s">
         <v>104</v>
       </c>
-      <c r="DA2" s="13" t="s">
+      <c r="DA2" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="DB2" s="13" t="s">
+      <c r="DB2" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="DC2" s="13" t="s">
+      <c r="DC2" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="DD2" s="13" t="s">
+      <c r="DD2" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="DE2" s="13" t="s">
+      <c r="DE2" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="DF2" s="13" t="s">
+      <c r="DF2" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="DG2" s="13">
+      <c r="DG2" s="12">
         <v>1.286382472E9</v>
       </c>
-      <c r="DH2" s="13">
+      <c r="DH2" s="12">
         <v>1.271523985E9</v>
       </c>
-      <c r="DI2" s="13">
+      <c r="DI2" s="12">
         <v>1.269639073E9</v>
       </c>
-      <c r="DJ2" s="13">
+      <c r="DJ2" s="12">
         <v>1.24401112E9</v>
       </c>
-      <c r="DK2" s="13">
+      <c r="DK2" s="12">
         <v>1.226637596E9</v>
       </c>
-      <c r="DL2" s="13">
+      <c r="DL2" s="12">
         <v>1.2185521121E10</v>
       </c>
-      <c r="DM2" s="13">
+      <c r="DM2" s="12">
         <v>1.2159419254E10</v>
       </c>
-      <c r="DN2" s="13">
+      <c r="DN2" s="12">
         <v>1.2154940103E10</v>
       </c>
-      <c r="DO2" s="13">
+      <c r="DO2" s="12">
         <v>1.2144024723E10</v>
       </c>
-      <c r="DP2" s="13">
+      <c r="DP2" s="12">
         <v>1.216762233E10</v>
       </c>
-      <c r="DQ2" s="13">
+      <c r="DQ2" s="12">
         <v>1.271044398E9</v>
       </c>
-      <c r="DR2" s="13" t="s">
+      <c r="DR2" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="DS2" s="13" t="s">
+      <c r="DS2" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="DT2" s="13" t="s">
+      <c r="DT2" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="DU2" s="13" t="s">
+      <c r="DU2" s="12" t="s">
         <v>125</v>
       </c>
-      <c r="DV2" s="13" t="s">
+      <c r="DV2" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="DW2" s="13" t="s">
+      <c r="DW2" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="DX2" s="13">
+      <c r="DX2" s="12">
         <v>1.2166092698E10</v>
       </c>
-      <c r="DY2" s="13">
+      <c r="DY2" s="12">
         <v>1.220769758E9</v>
       </c>
-      <c r="DZ2" s="13" t="s">
+      <c r="DZ2" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="EA2" s="13">
+      <c r="EA2" s="12">
         <v>1.245165249E9</v>
       </c>
-      <c r="EB2" s="13">
+      <c r="EB2" s="12">
         <v>1.2145283143E10</v>
       </c>
-      <c r="EC2" s="13" t="s">
+      <c r="EC2" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="ED2" s="13" t="s">
+      <c r="ED2" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="EE2" s="13">
+      <c r="EE2" s="12">
         <v>1.220769758E9</v>
       </c>
-      <c r="EF2" s="13" t="s">
+      <c r="EF2" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="EG2" s="13" t="s">
+      <c r="EG2" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="EH2" s="13">
+      <c r="EH2" s="12">
         <v>1.2141206586E10</v>
       </c>
-      <c r="EI2" s="13" t="s">
+      <c r="EI2" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="EJ2" s="13">
+      <c r="EJ2" s="12">
         <v>1.2146507358E10</v>
       </c>
-      <c r="EK2" s="13" t="s">
+      <c r="EK2" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="EL2" s="13" t="s">
+      <c r="EL2" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="EM2" s="13" t="s">
+      <c r="EM2" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="EN2" s="13" t="s">
+      <c r="EN2" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="EO2" s="13">
+      <c r="EO2" s="12">
         <v>1.270601874E9</v>
       </c>
-      <c r="EP2" s="13">
+      <c r="EP2" s="12">
         <v>1.225702178E9</v>
       </c>
-      <c r="EQ2" s="13" t="s">
+      <c r="EQ2" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="ER2" s="13" t="s">
+      <c r="ER2" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="ES2" s="13" t="s">
+      <c r="ES2" s="12" t="s">
         <v>148</v>
       </c>
-      <c r="ET2" s="13" t="s">
+      <c r="ET2" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="EU2" s="13" t="s">
+      <c r="EU2" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="EV2" s="13" t="s">
+      <c r="EV2" s="12" t="s">
         <v>151</v>
       </c>
-      <c r="EW2" s="13">
+      <c r="EW2" s="12">
         <v>1.2145018612E10</v>
       </c>
-      <c r="EX2" s="13" t="s">
+      <c r="EX2" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="EY2" s="13" t="s">
+      <c r="EY2" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="EZ2" s="13" t="s">
+      <c r="EZ2" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="FA2" s="13" t="s">
+      <c r="FA2" s="12" t="s">
         <v>156</v>
       </c>
-      <c r="FB2" s="13">
+      <c r="FB2" s="12">
         <v>1.2101104563E10</v>
       </c>
-      <c r="FC2" s="13" t="s">
+      <c r="FC2" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="FD2" s="13" t="s">
+      <c r="FD2" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="FE2" s="13">
+      <c r="FE2" s="12">
         <v>1.269709213E9</v>
       </c>
-      <c r="FF2" s="13" t="s">
+      <c r="FF2" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="FG2" s="13" t="s">
+      <c r="FG2" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="FH2" s="13" t="s">
+      <c r="FH2" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="FI2" s="13" t="s">
+      <c r="FI2" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="FJ2" s="13" t="s">
+      <c r="FJ2" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="FK2" s="13" t="s">
+      <c r="FK2" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="FL2" s="13" t="s">
+      <c r="FL2" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="FM2" s="13" t="s">
+      <c r="FM2" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="FN2" s="13" t="s">
+      <c r="FN2" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="FO2" s="13" t="s">
+      <c r="FO2" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="FP2" s="13" t="s">
+      <c r="FP2" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="FQ2" s="13" t="s">
+      <c r="FQ2" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="FR2" s="13" t="s">
+      <c r="FR2" s="12" t="s">
         <v>172</v>
       </c>
-      <c r="FS2" s="13">
+      <c r="FS2" s="12">
         <v>1.275586189E9</v>
       </c>
-      <c r="FT2" s="13">
+      <c r="FT2" s="12">
         <v>1.2171567532E10</v>
       </c>
-      <c r="FU2" s="13">
+      <c r="FU2" s="12">
         <v>1.2143166687E10</v>
       </c>
-      <c r="FV2" s="13" t="s">
+      <c r="FV2" s="12" t="s">
         <v>176</v>
       </c>
-      <c r="FW2" s="13">
+      <c r="FW2" s="12">
         <v>1.254880334E9</v>
       </c>
-      <c r="FX2" s="13" t="s">
+      <c r="FX2" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="FY2" s="13" t="s">
+      <c r="FY2" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="FZ2" s="13">
+      <c r="FZ2" s="12">
         <v>1.2151967606E10</v>
       </c>
-      <c r="GA2" s="13" t="s">
+      <c r="GA2" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="GB2" s="13" t="s">
+      <c r="GB2" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="GC2" s="13" t="s">
+      <c r="GC2" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="GD2" s="13" t="s">
+      <c r="GD2" s="12" t="s">
         <v>184</v>
       </c>
-      <c r="GE2" s="13" t="s">
+      <c r="GE2" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="GF2" s="13" t="s">
+      <c r="GF2" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="GG2" s="13" t="s">
+      <c r="GG2" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="GH2" s="13" t="s">
+      <c r="GH2" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="GI2" s="13" t="s">
+      <c r="GI2" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="GJ2" s="13" t="s">
+      <c r="GJ2" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="GK2" s="13" t="s">
+      <c r="GK2" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="GL2" s="13" t="s">
+      <c r="GL2" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="GM2" s="13" t="s">
+      <c r="GM2" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="GN2" s="13" t="s">
+      <c r="GN2" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="GO2" s="13">
+      <c r="GO2" s="12">
         <v>1.294124325E9</v>
       </c>
-      <c r="GP2" s="13" t="s">
+      <c r="GP2" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="GQ2" s="13" t="s">
+      <c r="GQ2" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="GR2" s="13">
+      <c r="GR2" s="12">
         <v>1.2138485512E10</v>
       </c>
-      <c r="GS2" s="13">
+      <c r="GS2" s="12">
         <v>1.273856658E9</v>
       </c>
     </row>
@@ -10441,68 +10641,68 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="13" t="s">
-        <v>210</v>
+      <c r="A1" s="12" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="13" t="s">
-        <v>211</v>
+      <c r="A2" s="12" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="13" t="s">
-        <v>212</v>
+      <c r="A3" s="12" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="13" t="s">
-        <v>213</v>
+      <c r="A4" s="12" t="s">
+        <v>238</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="13" t="s">
-        <v>214</v>
+      <c r="A5" s="12" t="s">
+        <v>239</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="13" t="s">
-        <v>215</v>
+      <c r="A6" s="12" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="13" t="s">
-        <v>216</v>
+      <c r="A7" s="12" t="s">
+        <v>241</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="13" t="s">
-        <v>217</v>
+      <c r="A8" s="12" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="13" t="s">
-        <v>218</v>
+      <c r="A9" s="12" t="s">
+        <v>243</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="13" t="s">
-        <v>219</v>
+      <c r="A10" s="12" t="s">
+        <v>244</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="13" t="s">
-        <v>220</v>
+      <c r="A11" s="12" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="13" t="s">
-        <v>221</v>
+      <c r="A12" s="12" t="s">
+        <v>246</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="13" t="s">
-        <v>222</v>
+      <c r="A13" s="12" t="s">
+        <v>247</v>
       </c>
     </row>
   </sheetData>
@@ -10524,53 +10724,53 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="13" t="s">
-        <v>212</v>
+      <c r="A1" s="12" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="12" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="13" t="s">
-        <v>223</v>
+      <c r="A3" s="12" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="13" t="s">
-        <v>224</v>
+      <c r="A4" s="12" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="13" t="s">
-        <v>225</v>
+      <c r="A5" s="12" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="13" t="s">
-        <v>226</v>
+      <c r="A6" s="12" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="13" t="s">
-        <v>227</v>
+      <c r="A7" s="12" t="s">
+        <v>252</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="13" t="s">
-        <v>228</v>
+      <c r="A8" s="12" t="s">
+        <v>253</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="13" t="s">
-        <v>229</v>
+      <c r="A9" s="12" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="13" t="s">
-        <v>230</v>
+      <c r="A10" s="12" t="s">
+        <v>255</v>
       </c>
     </row>
   </sheetData>
@@ -10592,13 +10792,13 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="13" t="s">
-        <v>231</v>
+      <c r="A1" s="12" t="s">
+        <v>256</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="13" t="s">
-        <v>232</v>
+      <c r="A2" s="12" t="s">
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -10621,92 +10821,92 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="14" t="s">
-        <v>233</v>
+        <v>258</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="13" t="s">
-        <v>234</v>
+      <c r="A2" s="12" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="13" t="s">
-        <v>235</v>
+      <c r="A3" s="12" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="13" t="s">
-        <v>236</v>
+      <c r="A4" s="12" t="s">
+        <v>261</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="13" t="s">
-        <v>237</v>
+      <c r="A5" s="12" t="s">
+        <v>262</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="13" t="s">
-        <v>238</v>
+      <c r="A6" s="12" t="s">
+        <v>263</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="13" t="s">
-        <v>239</v>
+      <c r="A7" s="12" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="13" t="s">
-        <v>240</v>
+      <c r="A8" s="12" t="s">
+        <v>265</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="13" t="s">
-        <v>241</v>
+      <c r="A9" s="12" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="13" t="s">
-        <v>242</v>
+      <c r="A10" s="12" t="s">
+        <v>267</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="13" t="s">
-        <v>243</v>
+      <c r="A11" s="12" t="s">
+        <v>268</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="13" t="s">
-        <v>244</v>
+      <c r="A12" s="12" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="13" t="s">
-        <v>245</v>
+      <c r="A13" s="12" t="s">
+        <v>270</v>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="13" t="s">
-        <v>246</v>
+      <c r="A14" s="12" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="13" t="s">
-        <v>247</v>
+      <c r="A15" s="12" t="s">
+        <v>272</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="13" t="s">
-        <v>248</v>
+      <c r="A16" s="12" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="13" t="s">
-        <v>249</v>
+      <c r="A17" s="12" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="13" t="s">
-        <v>250</v>
+      <c r="A18" s="12" t="s">
+        <v>275</v>
       </c>
     </row>
   </sheetData>

--- a/spotifyusernames.xlsx
+++ b/spotifyusernames.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="445" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="289">
   <si>
     <t>Usernames</t>
   </si>
@@ -716,6 +716,45 @@
   </si>
   <si>
     <t>lucyspec26</t>
+  </si>
+  <si>
+    <t>lilpopsisdead</t>
+  </si>
+  <si>
+    <t>pkudv4sb28zc27l59irvfo73m</t>
+  </si>
+  <si>
+    <t>annissarep</t>
+  </si>
+  <si>
+    <t>ashstoneman10</t>
+  </si>
+  <si>
+    <t>jamie708</t>
+  </si>
+  <si>
+    <t>dypylk0iy3jhkc62sgt3l3qsr</t>
+  </si>
+  <si>
+    <t>bwoodrum1341</t>
+  </si>
+  <si>
+    <t>basherthegreat</t>
+  </si>
+  <si>
+    <t>premmamehta</t>
+  </si>
+  <si>
+    <t>kissane1</t>
+  </si>
+  <si>
+    <t>moonpearlium</t>
+  </si>
+  <si>
+    <t>314k2w7t3bwhqg57i5eox44icy4u</t>
+  </si>
+  <si>
+    <t>skeil5</t>
   </si>
   <si>
     <t>akeerthy</t>
@@ -851,7 +890,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -877,6 +916,10 @@
       <name val="Inconsolata"/>
     </font>
     <font>
+      <color theme="1"/>
+      <name val="Roboto"/>
+    </font>
+    <font>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -896,16 +939,30 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border/>
     <border>
       <right/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -943,8 +1000,14 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="2" fillId="0" fontId="5" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyFont="1" applyNumberFormat="1"/>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -2582,293 +2645,332 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" s="2"/>
+      <c r="A233" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"lilpopsisdead")</f>
+        <v>lilpopsisdead</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"pkudv4sb28zc27l59irvfo73m")</f>
+        <v>pkudv4sb28zc27l59irvfo73m</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"annissarep")</f>
+        <v>annissarep</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ashstoneman10")</f>
+        <v>ashstoneman10</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"jamie708")</f>
+        <v>jamie708</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"dypylk0iy3jhkc62sgt3l3qsr")</f>
+        <v>dypylk0iy3jhkc62sgt3l3qsr</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"bwoodrum1341")</f>
+        <v>bwoodrum1341</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"basherthegreat")</f>
+        <v>basherthegreat</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"premmamehta")</f>
+        <v>premmamehta</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"kissane1")</f>
+        <v>kissane1</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"moonpearlium")</f>
+        <v>moonpearlium</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"314k2w7t3bwhqg57i5eox44icy4u")</f>
+        <v>314k2w7t3bwhqg57i5eox44icy4u</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" s="2" t="str">
+        <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"skeil5")</f>
+        <v>skeil5</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" s="2"/>
+    </row>
+    <row r="247">
+      <c r="A247" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"Claudia.hastings0717")</f>
         <v>Claudia.hastings0717</v>
       </c>
     </row>
-    <row r="235">
-      <c r="A235" s="2" t="str">
+    <row r="248">
+      <c r="A248" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"seapanda02")</f>
         <v>seapanda02</v>
       </c>
     </row>
-    <row r="236">
-      <c r="A236" s="2" t="str">
+    <row r="249">
+      <c r="A249" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"minto45")</f>
         <v>minto45</v>
       </c>
     </row>
-    <row r="237">
-      <c r="A237" s="2" t="str">
+    <row r="250">
+      <c r="A250" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"lbrockwell3")</f>
         <v>lbrockwell3</v>
       </c>
     </row>
-    <row r="238">
-      <c r="A238" s="2" t="str">
+    <row r="251">
+      <c r="A251" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"sht6dz4j702fbpbi0bsdcpjbu")</f>
         <v>sht6dz4j702fbpbi0bsdcpjbu</v>
       </c>
     </row>
-    <row r="239">
-      <c r="A239" s="2" t="str">
+    <row r="252">
+      <c r="A252" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"417T6uUZED6VM8euKbFDnM")</f>
         <v>417T6uUZED6VM8euKbFDnM</v>
       </c>
     </row>
-    <row r="240">
-      <c r="A240" s="2" t="str">
+    <row r="253">
+      <c r="A253" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ryguy829")</f>
         <v>ryguy829</v>
       </c>
     </row>
-    <row r="241">
-      <c r="A241" s="2" t="str">
+    <row r="254">
+      <c r="A254" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"5g6wujia2mpdz49g9ifskqmt8")</f>
         <v>5g6wujia2mpdz49g9ifskqmt8</v>
       </c>
     </row>
-    <row r="242">
-      <c r="A242" s="2" t="str">
+    <row r="255">
+      <c r="A255" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ashleydiazdl")</f>
         <v>ashleydiazdl</v>
       </c>
     </row>
-    <row r="243">
-      <c r="A243" s="2" t="str">
+    <row r="256">
+      <c r="A256" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"2m91c7srplu1xe9q5ca5xk8fk")</f>
         <v>2m91c7srplu1xe9q5ca5xk8fk</v>
       </c>
     </row>
-    <row r="244">
-      <c r="A244" s="2" t="str">
+    <row r="257">
+      <c r="A257" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"cinnamon122")</f>
         <v>cinnamon122</v>
       </c>
     </row>
-    <row r="245">
-      <c r="A245" s="2" t="str">
+    <row r="258">
+      <c r="A258" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"graceshapiro1903")</f>
         <v>graceshapiro1903</v>
       </c>
     </row>
-    <row r="246">
-      <c r="A246" s="2" t="str">
+    <row r="259">
+      <c r="A259" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"dizxi4lkttkiyprdepck004y4")</f>
         <v>dizxi4lkttkiyprdepck004y4</v>
       </c>
     </row>
-    <row r="247">
-      <c r="A247" s="2" t="str">
+    <row r="260">
+      <c r="A260" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"cole_wolf16")</f>
         <v>cole_wolf16</v>
       </c>
     </row>
-    <row r="248">
-      <c r="A248" s="2" t="str">
+    <row r="261">
+      <c r="A261" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"quinnrennell")</f>
         <v>quinnrennell</v>
       </c>
     </row>
-    <row r="249">
-      <c r="A249" s="2" t="str">
+    <row r="262">
+      <c r="A262" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"dominatork")</f>
         <v>dominatork</v>
       </c>
     </row>
-    <row r="250">
-      <c r="A250" s="2" t="str">
+    <row r="263">
+      <c r="A263" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"spamjcooper3459")</f>
         <v>spamjcooper3459</v>
       </c>
     </row>
-    <row r="251">
-      <c r="A251" s="2" t="str">
+    <row r="264">
+      <c r="A264" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"5z5uf9efaqg4b9cr5eiku8rdv")</f>
         <v>5z5uf9efaqg4b9cr5eiku8rdv</v>
       </c>
     </row>
-    <row r="252">
-      <c r="A252" s="2" t="str">
+    <row r="265">
+      <c r="A265" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"22jmljvsabjrtfn3676bpqjpy")</f>
         <v>22jmljvsabjrtfn3676bpqjpy</v>
       </c>
     </row>
-    <row r="253">
-      <c r="A253" s="2" t="str">
+    <row r="266">
+      <c r="A266" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"mzarouk")</f>
         <v>mzarouk</v>
       </c>
     </row>
-    <row r="254">
-      <c r="A254" s="2" t="str">
+    <row r="267">
+      <c r="A267" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"adelsoneric")</f>
         <v>adelsoneric</v>
       </c>
     </row>
-    <row r="255">
-      <c r="A255" s="2" t="str">
+    <row r="268">
+      <c r="A268" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"6912zox87iu176v3oyoeq0zna")</f>
         <v>6912zox87iu176v3oyoeq0zna</v>
       </c>
     </row>
-    <row r="256">
-      <c r="A256" s="2" t="str">
+    <row r="269">
+      <c r="A269" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"sbalewlij5gpqkgpucb9jhdy5")</f>
         <v>sbalewlij5gpqkgpucb9jhdy5</v>
       </c>
     </row>
-    <row r="257">
-      <c r="A257" s="3" t="str">
+    <row r="270">
+      <c r="A270" s="3" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"olivia.ma")</f>
         <v>olivia.ma</v>
       </c>
     </row>
-    <row r="258">
-      <c r="A258" s="2" t="str">
+    <row r="271">
+      <c r="A271" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"sabrinasugg")</f>
         <v>sabrinasugg</v>
       </c>
     </row>
-    <row r="259">
-      <c r="A259" s="2" t="str">
+    <row r="272">
+      <c r="A272" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"memzwith1z")</f>
         <v>memzwith1z</v>
       </c>
     </row>
-    <row r="260">
-      <c r="A260" s="2" t="str">
+    <row r="273">
+      <c r="A273" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"a98x1imc6m4r4yrd0hz86h092")</f>
         <v>a98x1imc6m4r4yrd0hz86h092</v>
       </c>
     </row>
-    <row r="261">
-      <c r="A261" s="2" t="str">
+    <row r="274">
+      <c r="A274" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"carlygeezle")</f>
         <v>carlygeezle</v>
       </c>
     </row>
-    <row r="262">
-      <c r="A262" s="2" t="str">
+    <row r="275">
+      <c r="A275" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"tavoduvall")</f>
         <v>tavoduvall</v>
       </c>
     </row>
-    <row r="263">
-      <c r="A263" s="2" t="str">
+    <row r="276">
+      <c r="A276" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"9be7zye8x3t7dhi8jc03mfkye")</f>
         <v>9be7zye8x3t7dhi8jc03mfkye</v>
       </c>
     </row>
-    <row r="264">
-      <c r="A264" s="2" t="str">
+    <row r="277">
+      <c r="A277" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"bumbleebeebee2017")</f>
         <v>bumbleebeebee2017</v>
       </c>
     </row>
-    <row r="265">
-      <c r="A265" s="2" t="str">
+    <row r="278">
+      <c r="A278" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"curlyq013")</f>
         <v>curlyq013</v>
       </c>
     </row>
-    <row r="266">
-      <c r="A266" s="2" t="str">
+    <row r="279">
+      <c r="A279" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"d4503rf1nw1arbnrza08pbjyy")</f>
         <v>d4503rf1nw1arbnrza08pbjyy</v>
       </c>
     </row>
-    <row r="267">
-      <c r="A267" s="2" t="str">
+    <row r="280">
+      <c r="A280" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"dancingpuppydawg")</f>
         <v>dancingpuppydawg</v>
       </c>
     </row>
-    <row r="268">
-      <c r="A268" s="2" t="str">
+    <row r="281">
+      <c r="A281" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"martybaseball15")</f>
         <v>martybaseball15</v>
       </c>
     </row>
-    <row r="269">
-      <c r="A269" s="2" t="str">
+    <row r="282">
+      <c r="A282" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"masterchiqui")</f>
         <v>masterchiqui</v>
       </c>
     </row>
-    <row r="270">
-      <c r="A270" s="2" t="str">
+    <row r="283">
+      <c r="A283" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"ohur7tcdvhcigpuuqi9eofkcn")</f>
         <v>ohur7tcdvhcigpuuqi9eofkcn</v>
       </c>
     </row>
-    <row r="271">
-      <c r="A271" s="2" t="str">
+    <row r="284">
+      <c r="A284" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"rhea12344")</f>
         <v>rhea12344</v>
       </c>
     </row>
-    <row r="272">
-      <c r="A272" s="2" t="str">
+    <row r="285">
+      <c r="A285" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"thebeautyqueen98")</f>
         <v>thebeautyqueen98</v>
       </c>
     </row>
-    <row r="273">
-      <c r="A273" s="2" t="str">
+    <row r="286">
+      <c r="A286" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"boolovesme")</f>
         <v>boolovesme</v>
       </c>
     </row>
-    <row r="274">
-      <c r="A274" s="2" t="str">
+    <row r="287">
+      <c r="A287" s="2" t="str">
         <f>IFERROR(__xludf.DUMMYFUNCTION("""COMPUTED_VALUE"""),"pranaygup12")</f>
         <v>pranaygup12</v>
       </c>
     </row>
-    <row r="275">
-      <c r="A275" s="2"/>
-    </row>
-    <row r="276">
-      <c r="A276" s="2"/>
-    </row>
-    <row r="277">
-      <c r="A277" s="2"/>
-    </row>
-    <row r="278">
-      <c r="A278" s="2"/>
-    </row>
-    <row r="279">
-      <c r="A279" s="2"/>
-    </row>
-    <row r="280">
-      <c r="A280" s="2"/>
-    </row>
-    <row r="281">
-      <c r="A281" s="2"/>
-    </row>
-    <row r="282">
-      <c r="A282" s="2"/>
-    </row>
-    <row r="283">
-      <c r="A283" s="2"/>
-    </row>
-    <row r="284">
-      <c r="A284" s="2"/>
-    </row>
-    <row r="285">
-      <c r="A285" s="2"/>
-    </row>
-    <row r="286">
-      <c r="A286" s="2"/>
-    </row>
-    <row r="287">
-      <c r="A287" s="2"/>
-    </row>
     <row r="288">
       <c r="A288" s="2"/>
     </row>
@@ -6510,7 +6612,7 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="A257"/>
+    <hyperlink r:id="rId1" ref="A270"/>
   </hyperlinks>
   <drawing r:id="rId2"/>
 </worksheet>
@@ -7705,2302 +7807,2328 @@
       </c>
     </row>
     <row r="235">
-      <c r="A235" s="13"/>
+      <c r="A235" s="13" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="236">
-      <c r="A236" s="13"/>
+      <c r="A236" s="14" t="s">
+        <v>234</v>
+      </c>
     </row>
     <row r="237">
-      <c r="A237" s="13"/>
+      <c r="A237" s="13" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="238">
-      <c r="A238" s="13"/>
+      <c r="A238" s="13" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="239">
-      <c r="A239" s="13"/>
+      <c r="A239" s="13" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="240">
-      <c r="A240" s="13"/>
+      <c r="A240" s="14" t="s">
+        <v>238</v>
+      </c>
     </row>
     <row r="241">
-      <c r="A241" s="13"/>
+      <c r="A241" s="13" t="s">
+        <v>239</v>
+      </c>
     </row>
     <row r="242">
-      <c r="A242" s="13"/>
+      <c r="A242" s="13" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="243">
-      <c r="A243" s="13"/>
+      <c r="A243" s="13" t="s">
+        <v>241</v>
+      </c>
     </row>
     <row r="244">
-      <c r="A244" s="13"/>
+      <c r="A244" s="13" t="s">
+        <v>242</v>
+      </c>
     </row>
     <row r="245">
-      <c r="A245" s="13"/>
+      <c r="A245" s="13" t="s">
+        <v>243</v>
+      </c>
     </row>
     <row r="246">
-      <c r="A246" s="13"/>
+      <c r="A246" s="14" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="247">
-      <c r="A247" s="13"/>
+      <c r="A247" s="13" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="248">
-      <c r="A248" s="13"/>
+      <c r="A248" s="15"/>
     </row>
     <row r="249">
-      <c r="A249" s="13"/>
+      <c r="A249" s="15"/>
     </row>
     <row r="250">
-      <c r="A250" s="13"/>
+      <c r="A250" s="15"/>
     </row>
     <row r="251">
-      <c r="A251" s="13"/>
+      <c r="A251" s="15"/>
     </row>
     <row r="252">
-      <c r="A252" s="13"/>
+      <c r="A252" s="15"/>
     </row>
     <row r="253">
-      <c r="A253" s="13"/>
+      <c r="A253" s="15"/>
     </row>
     <row r="254">
-      <c r="A254" s="13"/>
+      <c r="A254" s="15"/>
     </row>
     <row r="255">
-      <c r="A255" s="13"/>
+      <c r="A255" s="15"/>
     </row>
     <row r="256">
-      <c r="A256" s="13"/>
+      <c r="A256" s="15"/>
     </row>
     <row r="257">
-      <c r="A257" s="13"/>
+      <c r="A257" s="15"/>
     </row>
     <row r="258">
-      <c r="A258" s="13"/>
+      <c r="A258" s="15"/>
     </row>
     <row r="259">
-      <c r="A259" s="13"/>
+      <c r="A259" s="15"/>
     </row>
     <row r="260">
-      <c r="A260" s="13"/>
+      <c r="A260" s="15"/>
     </row>
     <row r="261">
-      <c r="A261" s="13"/>
+      <c r="A261" s="15"/>
     </row>
     <row r="262">
-      <c r="A262" s="13"/>
+      <c r="A262" s="15"/>
     </row>
     <row r="263">
-      <c r="A263" s="13"/>
+      <c r="A263" s="15"/>
     </row>
     <row r="264">
-      <c r="A264" s="13"/>
+      <c r="A264" s="15"/>
     </row>
     <row r="265">
-      <c r="A265" s="13"/>
+      <c r="A265" s="15"/>
     </row>
     <row r="266">
-      <c r="A266" s="13"/>
+      <c r="A266" s="15"/>
     </row>
     <row r="267">
-      <c r="A267" s="13"/>
+      <c r="A267" s="15"/>
     </row>
     <row r="268">
-      <c r="A268" s="13"/>
+      <c r="A268" s="15"/>
     </row>
     <row r="269">
-      <c r="A269" s="13"/>
+      <c r="A269" s="15"/>
     </row>
     <row r="270">
-      <c r="A270" s="13"/>
+      <c r="A270" s="15"/>
     </row>
     <row r="271">
-      <c r="A271" s="13"/>
+      <c r="A271" s="15"/>
     </row>
     <row r="272">
-      <c r="A272" s="13"/>
+      <c r="A272" s="15"/>
     </row>
     <row r="273">
-      <c r="A273" s="13"/>
+      <c r="A273" s="15"/>
     </row>
     <row r="274">
-      <c r="A274" s="13"/>
+      <c r="A274" s="15"/>
     </row>
     <row r="275">
-      <c r="A275" s="13"/>
+      <c r="A275" s="15"/>
     </row>
     <row r="276">
-      <c r="A276" s="13"/>
+      <c r="A276" s="15"/>
     </row>
     <row r="277">
-      <c r="A277" s="13"/>
+      <c r="A277" s="15"/>
     </row>
     <row r="278">
-      <c r="A278" s="13"/>
+      <c r="A278" s="15"/>
     </row>
     <row r="279">
-      <c r="A279" s="13"/>
+      <c r="A279" s="15"/>
     </row>
     <row r="280">
-      <c r="A280" s="13"/>
+      <c r="A280" s="15"/>
     </row>
     <row r="281">
-      <c r="A281" s="13"/>
+      <c r="A281" s="15"/>
     </row>
     <row r="282">
-      <c r="A282" s="13"/>
+      <c r="A282" s="15"/>
     </row>
     <row r="283">
-      <c r="A283" s="13"/>
+      <c r="A283" s="15"/>
     </row>
     <row r="284">
-      <c r="A284" s="13"/>
+      <c r="A284" s="15"/>
     </row>
     <row r="285">
-      <c r="A285" s="13"/>
+      <c r="A285" s="15"/>
     </row>
     <row r="286">
-      <c r="A286" s="13"/>
+      <c r="A286" s="15"/>
     </row>
     <row r="287">
-      <c r="A287" s="13"/>
+      <c r="A287" s="15"/>
     </row>
     <row r="288">
-      <c r="A288" s="13"/>
+      <c r="A288" s="15"/>
     </row>
     <row r="289">
-      <c r="A289" s="13"/>
+      <c r="A289" s="15"/>
     </row>
     <row r="290">
-      <c r="A290" s="13"/>
+      <c r="A290" s="15"/>
     </row>
     <row r="291">
-      <c r="A291" s="13"/>
+      <c r="A291" s="15"/>
     </row>
     <row r="292">
-      <c r="A292" s="13"/>
+      <c r="A292" s="15"/>
     </row>
     <row r="293">
-      <c r="A293" s="13"/>
+      <c r="A293" s="15"/>
     </row>
     <row r="294">
-      <c r="A294" s="13"/>
+      <c r="A294" s="15"/>
     </row>
     <row r="295">
-      <c r="A295" s="13"/>
+      <c r="A295" s="15"/>
     </row>
     <row r="296">
-      <c r="A296" s="13"/>
+      <c r="A296" s="15"/>
     </row>
     <row r="297">
-      <c r="A297" s="13"/>
+      <c r="A297" s="15"/>
     </row>
     <row r="298">
-      <c r="A298" s="13"/>
+      <c r="A298" s="15"/>
     </row>
     <row r="299">
-      <c r="A299" s="13"/>
+      <c r="A299" s="15"/>
     </row>
     <row r="300">
-      <c r="A300" s="13"/>
+      <c r="A300" s="15"/>
     </row>
     <row r="301">
-      <c r="A301" s="13"/>
+      <c r="A301" s="15"/>
     </row>
     <row r="302">
-      <c r="A302" s="13"/>
+      <c r="A302" s="15"/>
     </row>
     <row r="303">
-      <c r="A303" s="13"/>
+      <c r="A303" s="15"/>
     </row>
     <row r="304">
-      <c r="A304" s="13"/>
+      <c r="A304" s="15"/>
     </row>
     <row r="305">
-      <c r="A305" s="13"/>
+      <c r="A305" s="15"/>
     </row>
     <row r="306">
-      <c r="A306" s="13"/>
+      <c r="A306" s="15"/>
     </row>
     <row r="307">
-      <c r="A307" s="13"/>
+      <c r="A307" s="15"/>
     </row>
     <row r="308">
-      <c r="A308" s="13"/>
+      <c r="A308" s="15"/>
     </row>
     <row r="309">
-      <c r="A309" s="13"/>
+      <c r="A309" s="15"/>
     </row>
     <row r="310">
-      <c r="A310" s="13"/>
+      <c r="A310" s="15"/>
     </row>
     <row r="311">
-      <c r="A311" s="13"/>
+      <c r="A311" s="15"/>
     </row>
     <row r="312">
-      <c r="A312" s="13"/>
+      <c r="A312" s="15"/>
     </row>
     <row r="313">
-      <c r="A313" s="13"/>
+      <c r="A313" s="15"/>
     </row>
     <row r="314">
-      <c r="A314" s="13"/>
+      <c r="A314" s="15"/>
     </row>
     <row r="315">
-      <c r="A315" s="13"/>
+      <c r="A315" s="15"/>
     </row>
     <row r="316">
-      <c r="A316" s="13"/>
+      <c r="A316" s="15"/>
     </row>
     <row r="317">
-      <c r="A317" s="13"/>
+      <c r="A317" s="15"/>
     </row>
     <row r="318">
-      <c r="A318" s="13"/>
+      <c r="A318" s="15"/>
     </row>
     <row r="319">
-      <c r="A319" s="13"/>
+      <c r="A319" s="15"/>
     </row>
     <row r="320">
-      <c r="A320" s="13"/>
+      <c r="A320" s="15"/>
     </row>
     <row r="321">
-      <c r="A321" s="13"/>
+      <c r="A321" s="15"/>
     </row>
     <row r="322">
-      <c r="A322" s="13"/>
+      <c r="A322" s="15"/>
     </row>
     <row r="323">
-      <c r="A323" s="13"/>
+      <c r="A323" s="15"/>
     </row>
     <row r="324">
-      <c r="A324" s="13"/>
+      <c r="A324" s="15"/>
     </row>
     <row r="325">
-      <c r="A325" s="13"/>
+      <c r="A325" s="15"/>
     </row>
     <row r="326">
-      <c r="A326" s="13"/>
+      <c r="A326" s="15"/>
     </row>
     <row r="327">
-      <c r="A327" s="13"/>
+      <c r="A327" s="15"/>
     </row>
     <row r="328">
-      <c r="A328" s="13"/>
+      <c r="A328" s="15"/>
     </row>
     <row r="329">
-      <c r="A329" s="13"/>
+      <c r="A329" s="15"/>
     </row>
     <row r="330">
-      <c r="A330" s="13"/>
+      <c r="A330" s="15"/>
     </row>
     <row r="331">
-      <c r="A331" s="13"/>
+      <c r="A331" s="15"/>
     </row>
     <row r="332">
-      <c r="A332" s="13"/>
+      <c r="A332" s="15"/>
     </row>
     <row r="333">
-      <c r="A333" s="13"/>
+      <c r="A333" s="15"/>
     </row>
     <row r="334">
-      <c r="A334" s="13"/>
+      <c r="A334" s="15"/>
     </row>
     <row r="335">
-      <c r="A335" s="13"/>
+      <c r="A335" s="15"/>
     </row>
     <row r="336">
-      <c r="A336" s="13"/>
+      <c r="A336" s="15"/>
     </row>
     <row r="337">
-      <c r="A337" s="13"/>
+      <c r="A337" s="15"/>
     </row>
     <row r="338">
-      <c r="A338" s="13"/>
+      <c r="A338" s="15"/>
     </row>
     <row r="339">
-      <c r="A339" s="13"/>
+      <c r="A339" s="15"/>
     </row>
     <row r="340">
-      <c r="A340" s="13"/>
+      <c r="A340" s="15"/>
     </row>
     <row r="341">
-      <c r="A341" s="13"/>
+      <c r="A341" s="15"/>
     </row>
     <row r="342">
-      <c r="A342" s="13"/>
+      <c r="A342" s="15"/>
     </row>
     <row r="343">
-      <c r="A343" s="13"/>
+      <c r="A343" s="15"/>
     </row>
     <row r="344">
-      <c r="A344" s="13"/>
+      <c r="A344" s="15"/>
     </row>
     <row r="345">
-      <c r="A345" s="13"/>
+      <c r="A345" s="15"/>
     </row>
     <row r="346">
-      <c r="A346" s="13"/>
+      <c r="A346" s="15"/>
     </row>
     <row r="347">
-      <c r="A347" s="13"/>
+      <c r="A347" s="15"/>
     </row>
     <row r="348">
-      <c r="A348" s="13"/>
+      <c r="A348" s="15"/>
     </row>
     <row r="349">
-      <c r="A349" s="13"/>
+      <c r="A349" s="15"/>
     </row>
     <row r="350">
-      <c r="A350" s="13"/>
+      <c r="A350" s="15"/>
     </row>
     <row r="351">
-      <c r="A351" s="13"/>
+      <c r="A351" s="15"/>
     </row>
     <row r="352">
-      <c r="A352" s="13"/>
+      <c r="A352" s="15"/>
     </row>
     <row r="353">
-      <c r="A353" s="13"/>
+      <c r="A353" s="15"/>
     </row>
     <row r="354">
-      <c r="A354" s="13"/>
+      <c r="A354" s="15"/>
     </row>
     <row r="355">
-      <c r="A355" s="13"/>
+      <c r="A355" s="15"/>
     </row>
     <row r="356">
-      <c r="A356" s="13"/>
+      <c r="A356" s="15"/>
     </row>
     <row r="357">
-      <c r="A357" s="13"/>
+      <c r="A357" s="15"/>
     </row>
     <row r="358">
-      <c r="A358" s="13"/>
+      <c r="A358" s="15"/>
     </row>
     <row r="359">
-      <c r="A359" s="13"/>
+      <c r="A359" s="15"/>
     </row>
     <row r="360">
-      <c r="A360" s="13"/>
+      <c r="A360" s="15"/>
     </row>
     <row r="361">
-      <c r="A361" s="13"/>
+      <c r="A361" s="15"/>
     </row>
     <row r="362">
-      <c r="A362" s="13"/>
+      <c r="A362" s="15"/>
     </row>
     <row r="363">
-      <c r="A363" s="13"/>
+      <c r="A363" s="15"/>
     </row>
     <row r="364">
-      <c r="A364" s="13"/>
+      <c r="A364" s="15"/>
     </row>
     <row r="365">
-      <c r="A365" s="13"/>
+      <c r="A365" s="15"/>
     </row>
     <row r="366">
-      <c r="A366" s="13"/>
+      <c r="A366" s="15"/>
     </row>
     <row r="367">
-      <c r="A367" s="13"/>
+      <c r="A367" s="15"/>
     </row>
     <row r="368">
-      <c r="A368" s="13"/>
+      <c r="A368" s="15"/>
     </row>
     <row r="369">
-      <c r="A369" s="13"/>
+      <c r="A369" s="15"/>
     </row>
     <row r="370">
-      <c r="A370" s="13"/>
+      <c r="A370" s="15"/>
     </row>
     <row r="371">
-      <c r="A371" s="13"/>
+      <c r="A371" s="15"/>
     </row>
     <row r="372">
-      <c r="A372" s="13"/>
+      <c r="A372" s="15"/>
     </row>
     <row r="373">
-      <c r="A373" s="13"/>
+      <c r="A373" s="15"/>
     </row>
     <row r="374">
-      <c r="A374" s="13"/>
+      <c r="A374" s="15"/>
     </row>
     <row r="375">
-      <c r="A375" s="13"/>
+      <c r="A375" s="15"/>
     </row>
     <row r="376">
-      <c r="A376" s="13"/>
+      <c r="A376" s="15"/>
     </row>
     <row r="377">
-      <c r="A377" s="13"/>
+      <c r="A377" s="15"/>
     </row>
     <row r="378">
-      <c r="A378" s="13"/>
+      <c r="A378" s="15"/>
     </row>
     <row r="379">
-      <c r="A379" s="13"/>
+      <c r="A379" s="15"/>
     </row>
     <row r="380">
-      <c r="A380" s="13"/>
+      <c r="A380" s="15"/>
     </row>
     <row r="381">
-      <c r="A381" s="13"/>
+      <c r="A381" s="15"/>
     </row>
     <row r="382">
-      <c r="A382" s="13"/>
+      <c r="A382" s="15"/>
     </row>
     <row r="383">
-      <c r="A383" s="13"/>
+      <c r="A383" s="15"/>
     </row>
     <row r="384">
-      <c r="A384" s="13"/>
+      <c r="A384" s="15"/>
     </row>
     <row r="385">
-      <c r="A385" s="13"/>
+      <c r="A385" s="15"/>
     </row>
     <row r="386">
-      <c r="A386" s="13"/>
+      <c r="A386" s="15"/>
     </row>
     <row r="387">
-      <c r="A387" s="13"/>
+      <c r="A387" s="15"/>
     </row>
     <row r="388">
-      <c r="A388" s="13"/>
+      <c r="A388" s="15"/>
     </row>
     <row r="389">
-      <c r="A389" s="13"/>
+      <c r="A389" s="15"/>
     </row>
     <row r="390">
-      <c r="A390" s="13"/>
+      <c r="A390" s="15"/>
     </row>
     <row r="391">
-      <c r="A391" s="13"/>
+      <c r="A391" s="15"/>
     </row>
     <row r="392">
-      <c r="A392" s="13"/>
+      <c r="A392" s="15"/>
     </row>
     <row r="393">
-      <c r="A393" s="13"/>
+      <c r="A393" s="15"/>
     </row>
     <row r="394">
-      <c r="A394" s="13"/>
+      <c r="A394" s="15"/>
     </row>
     <row r="395">
-      <c r="A395" s="13"/>
+      <c r="A395" s="15"/>
     </row>
     <row r="396">
-      <c r="A396" s="13"/>
+      <c r="A396" s="15"/>
     </row>
     <row r="397">
-      <c r="A397" s="13"/>
+      <c r="A397" s="15"/>
     </row>
     <row r="398">
-      <c r="A398" s="13"/>
+      <c r="A398" s="15"/>
     </row>
     <row r="399">
-      <c r="A399" s="13"/>
+      <c r="A399" s="15"/>
     </row>
     <row r="400">
-      <c r="A400" s="13"/>
+      <c r="A400" s="15"/>
     </row>
     <row r="401">
-      <c r="A401" s="13"/>
+      <c r="A401" s="15"/>
     </row>
     <row r="402">
-      <c r="A402" s="13"/>
+      <c r="A402" s="15"/>
     </row>
     <row r="403">
-      <c r="A403" s="13"/>
+      <c r="A403" s="15"/>
     </row>
     <row r="404">
-      <c r="A404" s="13"/>
+      <c r="A404" s="15"/>
     </row>
     <row r="405">
-      <c r="A405" s="13"/>
+      <c r="A405" s="15"/>
     </row>
     <row r="406">
-      <c r="A406" s="13"/>
+      <c r="A406" s="15"/>
     </row>
     <row r="407">
-      <c r="A407" s="13"/>
+      <c r="A407" s="15"/>
     </row>
     <row r="408">
-      <c r="A408" s="13"/>
+      <c r="A408" s="15"/>
     </row>
     <row r="409">
-      <c r="A409" s="13"/>
+      <c r="A409" s="15"/>
     </row>
     <row r="410">
-      <c r="A410" s="13"/>
+      <c r="A410" s="15"/>
     </row>
     <row r="411">
-      <c r="A411" s="13"/>
+      <c r="A411" s="15"/>
     </row>
     <row r="412">
-      <c r="A412" s="13"/>
+      <c r="A412" s="15"/>
     </row>
     <row r="413">
-      <c r="A413" s="13"/>
+      <c r="A413" s="15"/>
     </row>
     <row r="414">
-      <c r="A414" s="13"/>
+      <c r="A414" s="15"/>
     </row>
     <row r="415">
-      <c r="A415" s="13"/>
+      <c r="A415" s="15"/>
     </row>
     <row r="416">
-      <c r="A416" s="13"/>
+      <c r="A416" s="15"/>
     </row>
     <row r="417">
-      <c r="A417" s="13"/>
+      <c r="A417" s="15"/>
     </row>
     <row r="418">
-      <c r="A418" s="13"/>
+      <c r="A418" s="15"/>
     </row>
     <row r="419">
-      <c r="A419" s="13"/>
+      <c r="A419" s="15"/>
     </row>
     <row r="420">
-      <c r="A420" s="13"/>
+      <c r="A420" s="15"/>
     </row>
     <row r="421">
-      <c r="A421" s="13"/>
+      <c r="A421" s="15"/>
     </row>
     <row r="422">
-      <c r="A422" s="13"/>
+      <c r="A422" s="15"/>
     </row>
     <row r="423">
-      <c r="A423" s="13"/>
+      <c r="A423" s="15"/>
     </row>
     <row r="424">
-      <c r="A424" s="13"/>
+      <c r="A424" s="15"/>
     </row>
     <row r="425">
-      <c r="A425" s="13"/>
+      <c r="A425" s="15"/>
     </row>
     <row r="426">
-      <c r="A426" s="13"/>
+      <c r="A426" s="15"/>
     </row>
     <row r="427">
-      <c r="A427" s="13"/>
+      <c r="A427" s="15"/>
     </row>
     <row r="428">
-      <c r="A428" s="13"/>
+      <c r="A428" s="15"/>
     </row>
     <row r="429">
-      <c r="A429" s="13"/>
+      <c r="A429" s="15"/>
     </row>
     <row r="430">
-      <c r="A430" s="13"/>
+      <c r="A430" s="15"/>
     </row>
     <row r="431">
-      <c r="A431" s="13"/>
+      <c r="A431" s="15"/>
     </row>
     <row r="432">
-      <c r="A432" s="13"/>
+      <c r="A432" s="15"/>
     </row>
     <row r="433">
-      <c r="A433" s="13"/>
+      <c r="A433" s="15"/>
     </row>
     <row r="434">
-      <c r="A434" s="13"/>
+      <c r="A434" s="15"/>
     </row>
     <row r="435">
-      <c r="A435" s="13"/>
+      <c r="A435" s="15"/>
     </row>
     <row r="436">
-      <c r="A436" s="13"/>
+      <c r="A436" s="15"/>
     </row>
     <row r="437">
-      <c r="A437" s="13"/>
+      <c r="A437" s="15"/>
     </row>
     <row r="438">
-      <c r="A438" s="13"/>
+      <c r="A438" s="15"/>
     </row>
     <row r="439">
-      <c r="A439" s="13"/>
+      <c r="A439" s="15"/>
     </row>
     <row r="440">
-      <c r="A440" s="13"/>
+      <c r="A440" s="15"/>
     </row>
     <row r="441">
-      <c r="A441" s="13"/>
+      <c r="A441" s="15"/>
     </row>
     <row r="442">
-      <c r="A442" s="13"/>
+      <c r="A442" s="15"/>
     </row>
     <row r="443">
-      <c r="A443" s="13"/>
+      <c r="A443" s="15"/>
     </row>
     <row r="444">
-      <c r="A444" s="13"/>
+      <c r="A444" s="15"/>
     </row>
     <row r="445">
-      <c r="A445" s="13"/>
+      <c r="A445" s="15"/>
     </row>
     <row r="446">
-      <c r="A446" s="13"/>
+      <c r="A446" s="15"/>
     </row>
     <row r="447">
-      <c r="A447" s="13"/>
+      <c r="A447" s="15"/>
     </row>
     <row r="448">
-      <c r="A448" s="13"/>
+      <c r="A448" s="15"/>
     </row>
     <row r="449">
-      <c r="A449" s="13"/>
+      <c r="A449" s="15"/>
     </row>
     <row r="450">
-      <c r="A450" s="13"/>
+      <c r="A450" s="15"/>
     </row>
     <row r="451">
-      <c r="A451" s="13"/>
+      <c r="A451" s="15"/>
     </row>
     <row r="452">
-      <c r="A452" s="13"/>
+      <c r="A452" s="15"/>
     </row>
     <row r="453">
-      <c r="A453" s="13"/>
+      <c r="A453" s="15"/>
     </row>
     <row r="454">
-      <c r="A454" s="13"/>
+      <c r="A454" s="15"/>
     </row>
     <row r="455">
-      <c r="A455" s="13"/>
+      <c r="A455" s="15"/>
     </row>
     <row r="456">
-      <c r="A456" s="13"/>
+      <c r="A456" s="15"/>
     </row>
     <row r="457">
-      <c r="A457" s="13"/>
+      <c r="A457" s="15"/>
     </row>
     <row r="458">
-      <c r="A458" s="13"/>
+      <c r="A458" s="15"/>
     </row>
     <row r="459">
-      <c r="A459" s="13"/>
+      <c r="A459" s="15"/>
     </row>
     <row r="460">
-      <c r="A460" s="13"/>
+      <c r="A460" s="15"/>
     </row>
     <row r="461">
-      <c r="A461" s="13"/>
+      <c r="A461" s="15"/>
     </row>
     <row r="462">
-      <c r="A462" s="13"/>
+      <c r="A462" s="15"/>
     </row>
     <row r="463">
-      <c r="A463" s="13"/>
+      <c r="A463" s="15"/>
     </row>
     <row r="464">
-      <c r="A464" s="13"/>
+      <c r="A464" s="15"/>
     </row>
     <row r="465">
-      <c r="A465" s="13"/>
+      <c r="A465" s="15"/>
     </row>
     <row r="466">
-      <c r="A466" s="13"/>
+      <c r="A466" s="15"/>
     </row>
     <row r="467">
-      <c r="A467" s="13"/>
+      <c r="A467" s="15"/>
     </row>
     <row r="468">
-      <c r="A468" s="13"/>
+      <c r="A468" s="15"/>
     </row>
     <row r="469">
-      <c r="A469" s="13"/>
+      <c r="A469" s="15"/>
     </row>
     <row r="470">
-      <c r="A470" s="13"/>
+      <c r="A470" s="15"/>
     </row>
     <row r="471">
-      <c r="A471" s="13"/>
+      <c r="A471" s="15"/>
     </row>
     <row r="472">
-      <c r="A472" s="13"/>
+      <c r="A472" s="15"/>
     </row>
     <row r="473">
-      <c r="A473" s="13"/>
+      <c r="A473" s="15"/>
     </row>
     <row r="474">
-      <c r="A474" s="13"/>
+      <c r="A474" s="15"/>
     </row>
     <row r="475">
-      <c r="A475" s="13"/>
+      <c r="A475" s="15"/>
     </row>
     <row r="476">
-      <c r="A476" s="13"/>
+      <c r="A476" s="15"/>
     </row>
     <row r="477">
-      <c r="A477" s="13"/>
+      <c r="A477" s="15"/>
     </row>
     <row r="478">
-      <c r="A478" s="13"/>
+      <c r="A478" s="15"/>
     </row>
     <row r="479">
-      <c r="A479" s="13"/>
+      <c r="A479" s="15"/>
     </row>
     <row r="480">
-      <c r="A480" s="13"/>
+      <c r="A480" s="15"/>
     </row>
     <row r="481">
-      <c r="A481" s="13"/>
+      <c r="A481" s="15"/>
     </row>
     <row r="482">
-      <c r="A482" s="13"/>
+      <c r="A482" s="15"/>
     </row>
     <row r="483">
-      <c r="A483" s="13"/>
+      <c r="A483" s="15"/>
     </row>
     <row r="484">
-      <c r="A484" s="13"/>
+      <c r="A484" s="15"/>
     </row>
     <row r="485">
-      <c r="A485" s="13"/>
+      <c r="A485" s="15"/>
     </row>
     <row r="486">
-      <c r="A486" s="13"/>
+      <c r="A486" s="15"/>
     </row>
     <row r="487">
-      <c r="A487" s="13"/>
+      <c r="A487" s="15"/>
     </row>
     <row r="488">
-      <c r="A488" s="13"/>
+      <c r="A488" s="15"/>
     </row>
     <row r="489">
-      <c r="A489" s="13"/>
+      <c r="A489" s="15"/>
     </row>
     <row r="490">
-      <c r="A490" s="13"/>
+      <c r="A490" s="15"/>
     </row>
     <row r="491">
-      <c r="A491" s="13"/>
+      <c r="A491" s="15"/>
     </row>
     <row r="492">
-      <c r="A492" s="13"/>
+      <c r="A492" s="15"/>
     </row>
     <row r="493">
-      <c r="A493" s="13"/>
+      <c r="A493" s="15"/>
     </row>
     <row r="494">
-      <c r="A494" s="13"/>
+      <c r="A494" s="15"/>
     </row>
     <row r="495">
-      <c r="A495" s="13"/>
+      <c r="A495" s="15"/>
     </row>
     <row r="496">
-      <c r="A496" s="13"/>
+      <c r="A496" s="15"/>
     </row>
     <row r="497">
-      <c r="A497" s="13"/>
+      <c r="A497" s="15"/>
     </row>
     <row r="498">
-      <c r="A498" s="13"/>
+      <c r="A498" s="15"/>
     </row>
     <row r="499">
-      <c r="A499" s="13"/>
+      <c r="A499" s="15"/>
     </row>
     <row r="500">
-      <c r="A500" s="13"/>
+      <c r="A500" s="15"/>
     </row>
     <row r="501">
-      <c r="A501" s="13"/>
+      <c r="A501" s="15"/>
     </row>
     <row r="502">
-      <c r="A502" s="13"/>
+      <c r="A502" s="15"/>
     </row>
     <row r="503">
-      <c r="A503" s="13"/>
+      <c r="A503" s="15"/>
     </row>
     <row r="504">
-      <c r="A504" s="13"/>
+      <c r="A504" s="15"/>
     </row>
     <row r="505">
-      <c r="A505" s="13"/>
+      <c r="A505" s="15"/>
     </row>
     <row r="506">
-      <c r="A506" s="13"/>
+      <c r="A506" s="15"/>
     </row>
     <row r="507">
-      <c r="A507" s="13"/>
+      <c r="A507" s="15"/>
     </row>
     <row r="508">
-      <c r="A508" s="13"/>
+      <c r="A508" s="15"/>
     </row>
     <row r="509">
-      <c r="A509" s="13"/>
+      <c r="A509" s="15"/>
     </row>
     <row r="510">
-      <c r="A510" s="13"/>
+      <c r="A510" s="15"/>
     </row>
     <row r="511">
-      <c r="A511" s="13"/>
+      <c r="A511" s="15"/>
     </row>
     <row r="512">
-      <c r="A512" s="13"/>
+      <c r="A512" s="15"/>
     </row>
     <row r="513">
-      <c r="A513" s="13"/>
+      <c r="A513" s="15"/>
     </row>
     <row r="514">
-      <c r="A514" s="13"/>
+      <c r="A514" s="15"/>
     </row>
     <row r="515">
-      <c r="A515" s="13"/>
+      <c r="A515" s="15"/>
     </row>
     <row r="516">
-      <c r="A516" s="13"/>
+      <c r="A516" s="15"/>
     </row>
     <row r="517">
-      <c r="A517" s="13"/>
+      <c r="A517" s="15"/>
     </row>
     <row r="518">
-      <c r="A518" s="13"/>
+      <c r="A518" s="15"/>
     </row>
     <row r="519">
-      <c r="A519" s="13"/>
+      <c r="A519" s="15"/>
     </row>
     <row r="520">
-      <c r="A520" s="13"/>
+      <c r="A520" s="15"/>
     </row>
     <row r="521">
-      <c r="A521" s="13"/>
+      <c r="A521" s="15"/>
     </row>
     <row r="522">
-      <c r="A522" s="13"/>
+      <c r="A522" s="15"/>
     </row>
     <row r="523">
-      <c r="A523" s="13"/>
+      <c r="A523" s="15"/>
     </row>
     <row r="524">
-      <c r="A524" s="13"/>
+      <c r="A524" s="15"/>
     </row>
     <row r="525">
-      <c r="A525" s="13"/>
+      <c r="A525" s="15"/>
     </row>
     <row r="526">
-      <c r="A526" s="13"/>
+      <c r="A526" s="15"/>
     </row>
     <row r="527">
-      <c r="A527" s="13"/>
+      <c r="A527" s="15"/>
     </row>
     <row r="528">
-      <c r="A528" s="13"/>
+      <c r="A528" s="15"/>
     </row>
     <row r="529">
-      <c r="A529" s="13"/>
+      <c r="A529" s="15"/>
     </row>
     <row r="530">
-      <c r="A530" s="13"/>
+      <c r="A530" s="15"/>
     </row>
     <row r="531">
-      <c r="A531" s="13"/>
+      <c r="A531" s="15"/>
     </row>
     <row r="532">
-      <c r="A532" s="13"/>
+      <c r="A532" s="15"/>
     </row>
     <row r="533">
-      <c r="A533" s="13"/>
+      <c r="A533" s="15"/>
     </row>
     <row r="534">
-      <c r="A534" s="13"/>
+      <c r="A534" s="15"/>
     </row>
     <row r="535">
-      <c r="A535" s="13"/>
+      <c r="A535" s="15"/>
     </row>
     <row r="536">
-      <c r="A536" s="13"/>
+      <c r="A536" s="15"/>
     </row>
     <row r="537">
-      <c r="A537" s="13"/>
+      <c r="A537" s="15"/>
     </row>
     <row r="538">
-      <c r="A538" s="13"/>
+      <c r="A538" s="15"/>
     </row>
     <row r="539">
-      <c r="A539" s="13"/>
+      <c r="A539" s="15"/>
     </row>
     <row r="540">
-      <c r="A540" s="13"/>
+      <c r="A540" s="15"/>
     </row>
     <row r="541">
-      <c r="A541" s="13"/>
+      <c r="A541" s="15"/>
     </row>
     <row r="542">
-      <c r="A542" s="13"/>
+      <c r="A542" s="15"/>
     </row>
     <row r="543">
-      <c r="A543" s="13"/>
+      <c r="A543" s="15"/>
     </row>
     <row r="544">
-      <c r="A544" s="13"/>
+      <c r="A544" s="15"/>
     </row>
     <row r="545">
-      <c r="A545" s="13"/>
+      <c r="A545" s="15"/>
     </row>
     <row r="546">
-      <c r="A546" s="13"/>
+      <c r="A546" s="15"/>
     </row>
     <row r="547">
-      <c r="A547" s="13"/>
+      <c r="A547" s="15"/>
     </row>
     <row r="548">
-      <c r="A548" s="13"/>
+      <c r="A548" s="15"/>
     </row>
     <row r="549">
-      <c r="A549" s="13"/>
+      <c r="A549" s="15"/>
     </row>
     <row r="550">
-      <c r="A550" s="13"/>
+      <c r="A550" s="15"/>
     </row>
     <row r="551">
-      <c r="A551" s="13"/>
+      <c r="A551" s="15"/>
     </row>
     <row r="552">
-      <c r="A552" s="13"/>
+      <c r="A552" s="15"/>
     </row>
     <row r="553">
-      <c r="A553" s="13"/>
+      <c r="A553" s="15"/>
     </row>
     <row r="554">
-      <c r="A554" s="13"/>
+      <c r="A554" s="15"/>
     </row>
     <row r="555">
-      <c r="A555" s="13"/>
+      <c r="A555" s="15"/>
     </row>
     <row r="556">
-      <c r="A556" s="13"/>
+      <c r="A556" s="15"/>
     </row>
     <row r="557">
-      <c r="A557" s="13"/>
+      <c r="A557" s="15"/>
     </row>
     <row r="558">
-      <c r="A558" s="13"/>
+      <c r="A558" s="15"/>
     </row>
     <row r="559">
-      <c r="A559" s="13"/>
+      <c r="A559" s="15"/>
     </row>
     <row r="560">
-      <c r="A560" s="13"/>
+      <c r="A560" s="15"/>
     </row>
     <row r="561">
-      <c r="A561" s="13"/>
+      <c r="A561" s="15"/>
     </row>
     <row r="562">
-      <c r="A562" s="13"/>
+      <c r="A562" s="15"/>
     </row>
     <row r="563">
-      <c r="A563" s="13"/>
+      <c r="A563" s="15"/>
     </row>
     <row r="564">
-      <c r="A564" s="13"/>
+      <c r="A564" s="15"/>
     </row>
     <row r="565">
-      <c r="A565" s="13"/>
+      <c r="A565" s="15"/>
     </row>
     <row r="566">
-      <c r="A566" s="13"/>
+      <c r="A566" s="15"/>
     </row>
     <row r="567">
-      <c r="A567" s="13"/>
+      <c r="A567" s="15"/>
     </row>
     <row r="568">
-      <c r="A568" s="13"/>
+      <c r="A568" s="15"/>
     </row>
     <row r="569">
-      <c r="A569" s="13"/>
+      <c r="A569" s="15"/>
     </row>
     <row r="570">
-      <c r="A570" s="13"/>
+      <c r="A570" s="15"/>
     </row>
     <row r="571">
-      <c r="A571" s="13"/>
+      <c r="A571" s="15"/>
     </row>
     <row r="572">
-      <c r="A572" s="13"/>
+      <c r="A572" s="15"/>
     </row>
     <row r="573">
-      <c r="A573" s="13"/>
+      <c r="A573" s="15"/>
     </row>
     <row r="574">
-      <c r="A574" s="13"/>
+      <c r="A574" s="15"/>
     </row>
     <row r="575">
-      <c r="A575" s="13"/>
+      <c r="A575" s="15"/>
     </row>
     <row r="576">
-      <c r="A576" s="13"/>
+      <c r="A576" s="15"/>
     </row>
     <row r="577">
-      <c r="A577" s="13"/>
+      <c r="A577" s="15"/>
     </row>
     <row r="578">
-      <c r="A578" s="13"/>
+      <c r="A578" s="15"/>
     </row>
     <row r="579">
-      <c r="A579" s="13"/>
+      <c r="A579" s="15"/>
     </row>
     <row r="580">
-      <c r="A580" s="13"/>
+      <c r="A580" s="15"/>
     </row>
     <row r="581">
-      <c r="A581" s="13"/>
+      <c r="A581" s="15"/>
     </row>
     <row r="582">
-      <c r="A582" s="13"/>
+      <c r="A582" s="15"/>
     </row>
     <row r="583">
-      <c r="A583" s="13"/>
+      <c r="A583" s="15"/>
     </row>
     <row r="584">
-      <c r="A584" s="13"/>
+      <c r="A584" s="15"/>
     </row>
     <row r="585">
-      <c r="A585" s="13"/>
+      <c r="A585" s="15"/>
     </row>
     <row r="586">
-      <c r="A586" s="13"/>
+      <c r="A586" s="15"/>
     </row>
     <row r="587">
-      <c r="A587" s="13"/>
+      <c r="A587" s="15"/>
     </row>
     <row r="588">
-      <c r="A588" s="13"/>
+      <c r="A588" s="15"/>
     </row>
     <row r="589">
-      <c r="A589" s="13"/>
+      <c r="A589" s="15"/>
     </row>
     <row r="590">
-      <c r="A590" s="13"/>
+      <c r="A590" s="15"/>
     </row>
     <row r="591">
-      <c r="A591" s="13"/>
+      <c r="A591" s="15"/>
     </row>
     <row r="592">
-      <c r="A592" s="13"/>
+      <c r="A592" s="15"/>
     </row>
     <row r="593">
-      <c r="A593" s="13"/>
+      <c r="A593" s="15"/>
     </row>
     <row r="594">
-      <c r="A594" s="13"/>
+      <c r="A594" s="15"/>
     </row>
     <row r="595">
-      <c r="A595" s="13"/>
+      <c r="A595" s="15"/>
     </row>
     <row r="596">
-      <c r="A596" s="13"/>
+      <c r="A596" s="15"/>
     </row>
     <row r="597">
-      <c r="A597" s="13"/>
+      <c r="A597" s="15"/>
     </row>
     <row r="598">
-      <c r="A598" s="13"/>
+      <c r="A598" s="15"/>
     </row>
     <row r="599">
-      <c r="A599" s="13"/>
+      <c r="A599" s="15"/>
     </row>
     <row r="600">
-      <c r="A600" s="13"/>
+      <c r="A600" s="15"/>
     </row>
     <row r="601">
-      <c r="A601" s="13"/>
+      <c r="A601" s="15"/>
     </row>
     <row r="602">
-      <c r="A602" s="13"/>
+      <c r="A602" s="15"/>
     </row>
     <row r="603">
-      <c r="A603" s="13"/>
+      <c r="A603" s="15"/>
     </row>
     <row r="604">
-      <c r="A604" s="13"/>
+      <c r="A604" s="15"/>
     </row>
     <row r="605">
-      <c r="A605" s="13"/>
+      <c r="A605" s="15"/>
     </row>
     <row r="606">
-      <c r="A606" s="13"/>
+      <c r="A606" s="15"/>
     </row>
     <row r="607">
-      <c r="A607" s="13"/>
+      <c r="A607" s="15"/>
     </row>
     <row r="608">
-      <c r="A608" s="13"/>
+      <c r="A608" s="15"/>
     </row>
     <row r="609">
-      <c r="A609" s="13"/>
+      <c r="A609" s="15"/>
     </row>
     <row r="610">
-      <c r="A610" s="13"/>
+      <c r="A610" s="15"/>
     </row>
     <row r="611">
-      <c r="A611" s="13"/>
+      <c r="A611" s="15"/>
     </row>
     <row r="612">
-      <c r="A612" s="13"/>
+      <c r="A612" s="15"/>
     </row>
     <row r="613">
-      <c r="A613" s="13"/>
+      <c r="A613" s="15"/>
     </row>
     <row r="614">
-      <c r="A614" s="13"/>
+      <c r="A614" s="15"/>
     </row>
     <row r="615">
-      <c r="A615" s="13"/>
+      <c r="A615" s="15"/>
     </row>
     <row r="616">
-      <c r="A616" s="13"/>
+      <c r="A616" s="15"/>
     </row>
     <row r="617">
-      <c r="A617" s="13"/>
+      <c r="A617" s="15"/>
     </row>
     <row r="618">
-      <c r="A618" s="13"/>
+      <c r="A618" s="15"/>
     </row>
     <row r="619">
-      <c r="A619" s="13"/>
+      <c r="A619" s="15"/>
     </row>
     <row r="620">
-      <c r="A620" s="13"/>
+      <c r="A620" s="15"/>
     </row>
     <row r="621">
-      <c r="A621" s="13"/>
+      <c r="A621" s="15"/>
     </row>
     <row r="622">
-      <c r="A622" s="13"/>
+      <c r="A622" s="15"/>
     </row>
     <row r="623">
-      <c r="A623" s="13"/>
+      <c r="A623" s="15"/>
     </row>
     <row r="624">
-      <c r="A624" s="13"/>
+      <c r="A624" s="15"/>
     </row>
     <row r="625">
-      <c r="A625" s="13"/>
+      <c r="A625" s="15"/>
     </row>
     <row r="626">
-      <c r="A626" s="13"/>
+      <c r="A626" s="15"/>
     </row>
     <row r="627">
-      <c r="A627" s="13"/>
+      <c r="A627" s="15"/>
     </row>
     <row r="628">
-      <c r="A628" s="13"/>
+      <c r="A628" s="15"/>
     </row>
     <row r="629">
-      <c r="A629" s="13"/>
+      <c r="A629" s="15"/>
     </row>
     <row r="630">
-      <c r="A630" s="13"/>
+      <c r="A630" s="15"/>
     </row>
     <row r="631">
-      <c r="A631" s="13"/>
+      <c r="A631" s="15"/>
     </row>
     <row r="632">
-      <c r="A632" s="13"/>
+      <c r="A632" s="15"/>
     </row>
     <row r="633">
-      <c r="A633" s="13"/>
+      <c r="A633" s="15"/>
     </row>
     <row r="634">
-      <c r="A634" s="13"/>
+      <c r="A634" s="15"/>
     </row>
     <row r="635">
-      <c r="A635" s="13"/>
+      <c r="A635" s="15"/>
     </row>
     <row r="636">
-      <c r="A636" s="13"/>
+      <c r="A636" s="15"/>
     </row>
     <row r="637">
-      <c r="A637" s="13"/>
+      <c r="A637" s="15"/>
     </row>
     <row r="638">
-      <c r="A638" s="13"/>
+      <c r="A638" s="15"/>
     </row>
     <row r="639">
-      <c r="A639" s="13"/>
+      <c r="A639" s="15"/>
     </row>
     <row r="640">
-      <c r="A640" s="13"/>
+      <c r="A640" s="15"/>
     </row>
     <row r="641">
-      <c r="A641" s="13"/>
+      <c r="A641" s="15"/>
     </row>
     <row r="642">
-      <c r="A642" s="13"/>
+      <c r="A642" s="15"/>
     </row>
     <row r="643">
-      <c r="A643" s="13"/>
+      <c r="A643" s="15"/>
     </row>
     <row r="644">
-      <c r="A644" s="13"/>
+      <c r="A644" s="15"/>
     </row>
     <row r="645">
-      <c r="A645" s="13"/>
+      <c r="A645" s="15"/>
     </row>
     <row r="646">
-      <c r="A646" s="13"/>
+      <c r="A646" s="15"/>
     </row>
     <row r="647">
-      <c r="A647" s="13"/>
+      <c r="A647" s="15"/>
     </row>
     <row r="648">
-      <c r="A648" s="13"/>
+      <c r="A648" s="15"/>
     </row>
     <row r="649">
-      <c r="A649" s="13"/>
+      <c r="A649" s="15"/>
     </row>
     <row r="650">
-      <c r="A650" s="13"/>
+      <c r="A650" s="15"/>
     </row>
     <row r="651">
-      <c r="A651" s="13"/>
+      <c r="A651" s="15"/>
     </row>
     <row r="652">
-      <c r="A652" s="13"/>
+      <c r="A652" s="15"/>
     </row>
     <row r="653">
-      <c r="A653" s="13"/>
+      <c r="A653" s="15"/>
     </row>
     <row r="654">
-      <c r="A654" s="13"/>
+      <c r="A654" s="15"/>
     </row>
     <row r="655">
-      <c r="A655" s="13"/>
+      <c r="A655" s="15"/>
     </row>
     <row r="656">
-      <c r="A656" s="13"/>
+      <c r="A656" s="15"/>
     </row>
     <row r="657">
-      <c r="A657" s="13"/>
+      <c r="A657" s="15"/>
     </row>
     <row r="658">
-      <c r="A658" s="13"/>
+      <c r="A658" s="15"/>
     </row>
     <row r="659">
-      <c r="A659" s="13"/>
+      <c r="A659" s="15"/>
     </row>
     <row r="660">
-      <c r="A660" s="13"/>
+      <c r="A660" s="15"/>
     </row>
     <row r="661">
-      <c r="A661" s="13"/>
+      <c r="A661" s="15"/>
     </row>
     <row r="662">
-      <c r="A662" s="13"/>
+      <c r="A662" s="15"/>
     </row>
     <row r="663">
-      <c r="A663" s="13"/>
+      <c r="A663" s="15"/>
     </row>
     <row r="664">
-      <c r="A664" s="13"/>
+      <c r="A664" s="15"/>
     </row>
     <row r="665">
-      <c r="A665" s="13"/>
+      <c r="A665" s="15"/>
     </row>
     <row r="666">
-      <c r="A666" s="13"/>
+      <c r="A666" s="15"/>
     </row>
     <row r="667">
-      <c r="A667" s="13"/>
+      <c r="A667" s="15"/>
     </row>
     <row r="668">
-      <c r="A668" s="13"/>
+      <c r="A668" s="15"/>
     </row>
     <row r="669">
-      <c r="A669" s="13"/>
+      <c r="A669" s="15"/>
     </row>
     <row r="670">
-      <c r="A670" s="13"/>
+      <c r="A670" s="15"/>
     </row>
     <row r="671">
-      <c r="A671" s="13"/>
+      <c r="A671" s="15"/>
     </row>
     <row r="672">
-      <c r="A672" s="13"/>
+      <c r="A672" s="15"/>
     </row>
     <row r="673">
-      <c r="A673" s="13"/>
+      <c r="A673" s="15"/>
     </row>
     <row r="674">
-      <c r="A674" s="13"/>
+      <c r="A674" s="15"/>
     </row>
     <row r="675">
-      <c r="A675" s="13"/>
+      <c r="A675" s="15"/>
     </row>
     <row r="676">
-      <c r="A676" s="13"/>
+      <c r="A676" s="15"/>
     </row>
     <row r="677">
-      <c r="A677" s="13"/>
+      <c r="A677" s="15"/>
     </row>
     <row r="678">
-      <c r="A678" s="13"/>
+      <c r="A678" s="15"/>
     </row>
     <row r="679">
-      <c r="A679" s="13"/>
+      <c r="A679" s="15"/>
     </row>
     <row r="680">
-      <c r="A680" s="13"/>
+      <c r="A680" s="15"/>
     </row>
     <row r="681">
-      <c r="A681" s="13"/>
+      <c r="A681" s="15"/>
     </row>
     <row r="682">
-      <c r="A682" s="13"/>
+      <c r="A682" s="15"/>
     </row>
     <row r="683">
-      <c r="A683" s="13"/>
+      <c r="A683" s="15"/>
     </row>
     <row r="684">
-      <c r="A684" s="13"/>
+      <c r="A684" s="15"/>
     </row>
     <row r="685">
-      <c r="A685" s="13"/>
+      <c r="A685" s="15"/>
     </row>
     <row r="686">
-      <c r="A686" s="13"/>
+      <c r="A686" s="15"/>
     </row>
     <row r="687">
-      <c r="A687" s="13"/>
+      <c r="A687" s="15"/>
     </row>
     <row r="688">
-      <c r="A688" s="13"/>
+      <c r="A688" s="15"/>
     </row>
     <row r="689">
-      <c r="A689" s="13"/>
+      <c r="A689" s="15"/>
     </row>
     <row r="690">
-      <c r="A690" s="13"/>
+      <c r="A690" s="15"/>
     </row>
     <row r="691">
-      <c r="A691" s="13"/>
+      <c r="A691" s="15"/>
     </row>
     <row r="692">
-      <c r="A692" s="13"/>
+      <c r="A692" s="15"/>
     </row>
     <row r="693">
-      <c r="A693" s="13"/>
+      <c r="A693" s="15"/>
     </row>
     <row r="694">
-      <c r="A694" s="13"/>
+      <c r="A694" s="15"/>
     </row>
     <row r="695">
-      <c r="A695" s="13"/>
+      <c r="A695" s="15"/>
     </row>
     <row r="696">
-      <c r="A696" s="13"/>
+      <c r="A696" s="15"/>
     </row>
     <row r="697">
-      <c r="A697" s="13"/>
+      <c r="A697" s="15"/>
     </row>
     <row r="698">
-      <c r="A698" s="13"/>
+      <c r="A698" s="15"/>
     </row>
     <row r="699">
-      <c r="A699" s="13"/>
+      <c r="A699" s="15"/>
     </row>
     <row r="700">
-      <c r="A700" s="13"/>
+      <c r="A700" s="15"/>
     </row>
     <row r="701">
-      <c r="A701" s="13"/>
+      <c r="A701" s="15"/>
     </row>
     <row r="702">
-      <c r="A702" s="13"/>
+      <c r="A702" s="15"/>
     </row>
     <row r="703">
-      <c r="A703" s="13"/>
+      <c r="A703" s="15"/>
     </row>
     <row r="704">
-      <c r="A704" s="13"/>
+      <c r="A704" s="15"/>
     </row>
     <row r="705">
-      <c r="A705" s="13"/>
+      <c r="A705" s="15"/>
     </row>
     <row r="706">
-      <c r="A706" s="13"/>
+      <c r="A706" s="15"/>
     </row>
     <row r="707">
-      <c r="A707" s="13"/>
+      <c r="A707" s="15"/>
     </row>
     <row r="708">
-      <c r="A708" s="13"/>
+      <c r="A708" s="15"/>
     </row>
     <row r="709">
-      <c r="A709" s="13"/>
+      <c r="A709" s="15"/>
     </row>
     <row r="710">
-      <c r="A710" s="13"/>
+      <c r="A710" s="15"/>
     </row>
     <row r="711">
-      <c r="A711" s="13"/>
+      <c r="A711" s="15"/>
     </row>
     <row r="712">
-      <c r="A712" s="13"/>
+      <c r="A712" s="15"/>
     </row>
     <row r="713">
-      <c r="A713" s="13"/>
+      <c r="A713" s="15"/>
     </row>
     <row r="714">
-      <c r="A714" s="13"/>
+      <c r="A714" s="15"/>
     </row>
     <row r="715">
-      <c r="A715" s="13"/>
+      <c r="A715" s="15"/>
     </row>
     <row r="716">
-      <c r="A716" s="13"/>
+      <c r="A716" s="15"/>
     </row>
     <row r="717">
-      <c r="A717" s="13"/>
+      <c r="A717" s="15"/>
     </row>
     <row r="718">
-      <c r="A718" s="13"/>
+      <c r="A718" s="15"/>
     </row>
     <row r="719">
-      <c r="A719" s="13"/>
+      <c r="A719" s="15"/>
     </row>
     <row r="720">
-      <c r="A720" s="13"/>
+      <c r="A720" s="15"/>
     </row>
     <row r="721">
-      <c r="A721" s="13"/>
+      <c r="A721" s="15"/>
     </row>
     <row r="722">
-      <c r="A722" s="13"/>
+      <c r="A722" s="15"/>
     </row>
     <row r="723">
-      <c r="A723" s="13"/>
+      <c r="A723" s="15"/>
     </row>
     <row r="724">
-      <c r="A724" s="13"/>
+      <c r="A724" s="15"/>
     </row>
     <row r="725">
-      <c r="A725" s="13"/>
+      <c r="A725" s="15"/>
     </row>
     <row r="726">
-      <c r="A726" s="13"/>
+      <c r="A726" s="15"/>
     </row>
     <row r="727">
-      <c r="A727" s="13"/>
+      <c r="A727" s="15"/>
     </row>
     <row r="728">
-      <c r="A728" s="13"/>
+      <c r="A728" s="15"/>
     </row>
     <row r="729">
-      <c r="A729" s="13"/>
+      <c r="A729" s="15"/>
     </row>
     <row r="730">
-      <c r="A730" s="13"/>
+      <c r="A730" s="15"/>
     </row>
     <row r="731">
-      <c r="A731" s="13"/>
+      <c r="A731" s="15"/>
     </row>
     <row r="732">
-      <c r="A732" s="13"/>
+      <c r="A732" s="15"/>
     </row>
     <row r="733">
-      <c r="A733" s="13"/>
+      <c r="A733" s="15"/>
     </row>
     <row r="734">
-      <c r="A734" s="13"/>
+      <c r="A734" s="15"/>
     </row>
     <row r="735">
-      <c r="A735" s="13"/>
+      <c r="A735" s="15"/>
     </row>
     <row r="736">
-      <c r="A736" s="13"/>
+      <c r="A736" s="15"/>
     </row>
     <row r="737">
-      <c r="A737" s="13"/>
+      <c r="A737" s="15"/>
     </row>
     <row r="738">
-      <c r="A738" s="13"/>
+      <c r="A738" s="15"/>
     </row>
     <row r="739">
-      <c r="A739" s="13"/>
+      <c r="A739" s="15"/>
     </row>
     <row r="740">
-      <c r="A740" s="13"/>
+      <c r="A740" s="15"/>
     </row>
     <row r="741">
-      <c r="A741" s="13"/>
+      <c r="A741" s="15"/>
     </row>
     <row r="742">
-      <c r="A742" s="13"/>
+      <c r="A742" s="15"/>
     </row>
     <row r="743">
-      <c r="A743" s="13"/>
+      <c r="A743" s="15"/>
     </row>
     <row r="744">
-      <c r="A744" s="13"/>
+      <c r="A744" s="15"/>
     </row>
     <row r="745">
-      <c r="A745" s="13"/>
+      <c r="A745" s="15"/>
     </row>
     <row r="746">
-      <c r="A746" s="13"/>
+      <c r="A746" s="15"/>
     </row>
     <row r="747">
-      <c r="A747" s="13"/>
+      <c r="A747" s="15"/>
     </row>
     <row r="748">
-      <c r="A748" s="13"/>
+      <c r="A748" s="15"/>
     </row>
     <row r="749">
-      <c r="A749" s="13"/>
+      <c r="A749" s="15"/>
     </row>
     <row r="750">
-      <c r="A750" s="13"/>
+      <c r="A750" s="15"/>
     </row>
     <row r="751">
-      <c r="A751" s="13"/>
+      <c r="A751" s="15"/>
     </row>
     <row r="752">
-      <c r="A752" s="13"/>
+      <c r="A752" s="15"/>
     </row>
     <row r="753">
-      <c r="A753" s="13"/>
+      <c r="A753" s="15"/>
     </row>
     <row r="754">
-      <c r="A754" s="13"/>
+      <c r="A754" s="15"/>
     </row>
     <row r="755">
-      <c r="A755" s="13"/>
+      <c r="A755" s="15"/>
     </row>
     <row r="756">
-      <c r="A756" s="13"/>
+      <c r="A756" s="15"/>
     </row>
     <row r="757">
-      <c r="A757" s="13"/>
+      <c r="A757" s="15"/>
     </row>
     <row r="758">
-      <c r="A758" s="13"/>
+      <c r="A758" s="15"/>
     </row>
     <row r="759">
-      <c r="A759" s="13"/>
+      <c r="A759" s="15"/>
     </row>
     <row r="760">
-      <c r="A760" s="13"/>
+      <c r="A760" s="15"/>
     </row>
     <row r="761">
-      <c r="A761" s="13"/>
+      <c r="A761" s="15"/>
     </row>
     <row r="762">
-      <c r="A762" s="13"/>
+      <c r="A762" s="15"/>
     </row>
     <row r="763">
-      <c r="A763" s="13"/>
+      <c r="A763" s="15"/>
     </row>
     <row r="764">
-      <c r="A764" s="13"/>
+      <c r="A764" s="15"/>
     </row>
     <row r="765">
-      <c r="A765" s="13"/>
+      <c r="A765" s="15"/>
     </row>
     <row r="766">
-      <c r="A766" s="13"/>
+      <c r="A766" s="15"/>
     </row>
     <row r="767">
-      <c r="A767" s="13"/>
+      <c r="A767" s="15"/>
     </row>
     <row r="768">
-      <c r="A768" s="13"/>
+      <c r="A768" s="15"/>
     </row>
     <row r="769">
-      <c r="A769" s="13"/>
+      <c r="A769" s="15"/>
     </row>
     <row r="770">
-      <c r="A770" s="13"/>
+      <c r="A770" s="15"/>
     </row>
     <row r="771">
-      <c r="A771" s="13"/>
+      <c r="A771" s="15"/>
     </row>
     <row r="772">
-      <c r="A772" s="13"/>
+      <c r="A772" s="15"/>
     </row>
     <row r="773">
-      <c r="A773" s="13"/>
+      <c r="A773" s="15"/>
     </row>
     <row r="774">
-      <c r="A774" s="13"/>
+      <c r="A774" s="15"/>
     </row>
     <row r="775">
-      <c r="A775" s="13"/>
+      <c r="A775" s="15"/>
     </row>
     <row r="776">
-      <c r="A776" s="13"/>
+      <c r="A776" s="15"/>
     </row>
     <row r="777">
-      <c r="A777" s="13"/>
+      <c r="A777" s="15"/>
     </row>
     <row r="778">
-      <c r="A778" s="13"/>
+      <c r="A778" s="15"/>
     </row>
     <row r="779">
-      <c r="A779" s="13"/>
+      <c r="A779" s="15"/>
     </row>
     <row r="780">
-      <c r="A780" s="13"/>
+      <c r="A780" s="15"/>
     </row>
     <row r="781">
-      <c r="A781" s="13"/>
+      <c r="A781" s="15"/>
     </row>
     <row r="782">
-      <c r="A782" s="13"/>
+      <c r="A782" s="15"/>
     </row>
     <row r="783">
-      <c r="A783" s="13"/>
+      <c r="A783" s="15"/>
     </row>
     <row r="784">
-      <c r="A784" s="13"/>
+      <c r="A784" s="15"/>
     </row>
     <row r="785">
-      <c r="A785" s="13"/>
+      <c r="A785" s="15"/>
     </row>
     <row r="786">
-      <c r="A786" s="13"/>
+      <c r="A786" s="15"/>
     </row>
     <row r="787">
-      <c r="A787" s="13"/>
+      <c r="A787" s="15"/>
     </row>
     <row r="788">
-      <c r="A788" s="13"/>
+      <c r="A788" s="15"/>
     </row>
     <row r="789">
-      <c r="A789" s="13"/>
+      <c r="A789" s="15"/>
     </row>
     <row r="790">
-      <c r="A790" s="13"/>
+      <c r="A790" s="15"/>
     </row>
     <row r="791">
-      <c r="A791" s="13"/>
+      <c r="A791" s="15"/>
     </row>
     <row r="792">
-      <c r="A792" s="13"/>
+      <c r="A792" s="15"/>
     </row>
     <row r="793">
-      <c r="A793" s="13"/>
+      <c r="A793" s="15"/>
     </row>
     <row r="794">
-      <c r="A794" s="13"/>
+      <c r="A794" s="15"/>
     </row>
     <row r="795">
-      <c r="A795" s="13"/>
+      <c r="A795" s="15"/>
     </row>
     <row r="796">
-      <c r="A796" s="13"/>
+      <c r="A796" s="15"/>
     </row>
     <row r="797">
-      <c r="A797" s="13"/>
+      <c r="A797" s="15"/>
     </row>
     <row r="798">
-      <c r="A798" s="13"/>
+      <c r="A798" s="15"/>
     </row>
     <row r="799">
-      <c r="A799" s="13"/>
+      <c r="A799" s="15"/>
     </row>
     <row r="800">
-      <c r="A800" s="13"/>
+      <c r="A800" s="15"/>
     </row>
     <row r="801">
-      <c r="A801" s="13"/>
+      <c r="A801" s="15"/>
     </row>
     <row r="802">
-      <c r="A802" s="13"/>
+      <c r="A802" s="15"/>
     </row>
     <row r="803">
-      <c r="A803" s="13"/>
+      <c r="A803" s="15"/>
     </row>
     <row r="804">
-      <c r="A804" s="13"/>
+      <c r="A804" s="15"/>
     </row>
     <row r="805">
-      <c r="A805" s="13"/>
+      <c r="A805" s="15"/>
     </row>
     <row r="806">
-      <c r="A806" s="13"/>
+      <c r="A806" s="15"/>
     </row>
     <row r="807">
-      <c r="A807" s="13"/>
+      <c r="A807" s="15"/>
     </row>
     <row r="808">
-      <c r="A808" s="13"/>
+      <c r="A808" s="15"/>
     </row>
     <row r="809">
-      <c r="A809" s="13"/>
+      <c r="A809" s="15"/>
     </row>
     <row r="810">
-      <c r="A810" s="13"/>
+      <c r="A810" s="15"/>
     </row>
     <row r="811">
-      <c r="A811" s="13"/>
+      <c r="A811" s="15"/>
     </row>
     <row r="812">
-      <c r="A812" s="13"/>
+      <c r="A812" s="15"/>
     </row>
     <row r="813">
-      <c r="A813" s="13"/>
+      <c r="A813" s="15"/>
     </row>
     <row r="814">
-      <c r="A814" s="13"/>
+      <c r="A814" s="15"/>
     </row>
     <row r="815">
-      <c r="A815" s="13"/>
+      <c r="A815" s="15"/>
     </row>
     <row r="816">
-      <c r="A816" s="13"/>
+      <c r="A816" s="15"/>
     </row>
     <row r="817">
-      <c r="A817" s="13"/>
+      <c r="A817" s="15"/>
     </row>
     <row r="818">
-      <c r="A818" s="13"/>
+      <c r="A818" s="15"/>
     </row>
     <row r="819">
-      <c r="A819" s="13"/>
+      <c r="A819" s="15"/>
     </row>
     <row r="820">
-      <c r="A820" s="13"/>
+      <c r="A820" s="15"/>
     </row>
     <row r="821">
-      <c r="A821" s="13"/>
+      <c r="A821" s="15"/>
     </row>
     <row r="822">
-      <c r="A822" s="13"/>
+      <c r="A822" s="15"/>
     </row>
     <row r="823">
-      <c r="A823" s="13"/>
+      <c r="A823" s="15"/>
     </row>
     <row r="824">
-      <c r="A824" s="13"/>
+      <c r="A824" s="15"/>
     </row>
     <row r="825">
-      <c r="A825" s="13"/>
+      <c r="A825" s="15"/>
     </row>
     <row r="826">
-      <c r="A826" s="13"/>
+      <c r="A826" s="15"/>
     </row>
     <row r="827">
-      <c r="A827" s="13"/>
+      <c r="A827" s="15"/>
     </row>
     <row r="828">
-      <c r="A828" s="13"/>
+      <c r="A828" s="15"/>
     </row>
     <row r="829">
-      <c r="A829" s="13"/>
+      <c r="A829" s="15"/>
     </row>
     <row r="830">
-      <c r="A830" s="13"/>
+      <c r="A830" s="15"/>
     </row>
     <row r="831">
-      <c r="A831" s="13"/>
+      <c r="A831" s="15"/>
     </row>
     <row r="832">
-      <c r="A832" s="13"/>
+      <c r="A832" s="15"/>
     </row>
     <row r="833">
-      <c r="A833" s="13"/>
+      <c r="A833" s="15"/>
     </row>
     <row r="834">
-      <c r="A834" s="13"/>
+      <c r="A834" s="15"/>
     </row>
     <row r="835">
-      <c r="A835" s="13"/>
+      <c r="A835" s="15"/>
     </row>
     <row r="836">
-      <c r="A836" s="13"/>
+      <c r="A836" s="15"/>
     </row>
     <row r="837">
-      <c r="A837" s="13"/>
+      <c r="A837" s="15"/>
     </row>
     <row r="838">
-      <c r="A838" s="13"/>
+      <c r="A838" s="15"/>
     </row>
     <row r="839">
-      <c r="A839" s="13"/>
+      <c r="A839" s="15"/>
     </row>
     <row r="840">
-      <c r="A840" s="13"/>
+      <c r="A840" s="15"/>
     </row>
     <row r="841">
-      <c r="A841" s="13"/>
+      <c r="A841" s="15"/>
     </row>
     <row r="842">
-      <c r="A842" s="13"/>
+      <c r="A842" s="15"/>
     </row>
     <row r="843">
-      <c r="A843" s="13"/>
+      <c r="A843" s="15"/>
     </row>
     <row r="844">
-      <c r="A844" s="13"/>
+      <c r="A844" s="15"/>
     </row>
     <row r="845">
-      <c r="A845" s="13"/>
+      <c r="A845" s="15"/>
     </row>
     <row r="846">
-      <c r="A846" s="13"/>
+      <c r="A846" s="15"/>
     </row>
     <row r="847">
-      <c r="A847" s="13"/>
+      <c r="A847" s="15"/>
     </row>
     <row r="848">
-      <c r="A848" s="13"/>
+      <c r="A848" s="15"/>
     </row>
     <row r="849">
-      <c r="A849" s="13"/>
+      <c r="A849" s="15"/>
     </row>
     <row r="850">
-      <c r="A850" s="13"/>
+      <c r="A850" s="15"/>
     </row>
     <row r="851">
-      <c r="A851" s="13"/>
+      <c r="A851" s="15"/>
     </row>
     <row r="852">
-      <c r="A852" s="13"/>
+      <c r="A852" s="15"/>
     </row>
     <row r="853">
-      <c r="A853" s="13"/>
+      <c r="A853" s="15"/>
     </row>
     <row r="854">
-      <c r="A854" s="13"/>
+      <c r="A854" s="15"/>
     </row>
     <row r="855">
-      <c r="A855" s="13"/>
+      <c r="A855" s="15"/>
     </row>
     <row r="856">
-      <c r="A856" s="13"/>
+      <c r="A856" s="15"/>
     </row>
     <row r="857">
-      <c r="A857" s="13"/>
+      <c r="A857" s="15"/>
     </row>
     <row r="858">
-      <c r="A858" s="13"/>
+      <c r="A858" s="15"/>
     </row>
     <row r="859">
-      <c r="A859" s="13"/>
+      <c r="A859" s="15"/>
     </row>
     <row r="860">
-      <c r="A860" s="13"/>
+      <c r="A860" s="15"/>
     </row>
     <row r="861">
-      <c r="A861" s="13"/>
+      <c r="A861" s="15"/>
     </row>
     <row r="862">
-      <c r="A862" s="13"/>
+      <c r="A862" s="15"/>
     </row>
     <row r="863">
-      <c r="A863" s="13"/>
+      <c r="A863" s="15"/>
     </row>
     <row r="864">
-      <c r="A864" s="13"/>
+      <c r="A864" s="15"/>
     </row>
     <row r="865">
-      <c r="A865" s="13"/>
+      <c r="A865" s="15"/>
     </row>
     <row r="866">
-      <c r="A866" s="13"/>
+      <c r="A866" s="15"/>
     </row>
     <row r="867">
-      <c r="A867" s="13"/>
+      <c r="A867" s="15"/>
     </row>
     <row r="868">
-      <c r="A868" s="13"/>
+      <c r="A868" s="15"/>
     </row>
     <row r="869">
-      <c r="A869" s="13"/>
+      <c r="A869" s="15"/>
     </row>
     <row r="870">
-      <c r="A870" s="13"/>
+      <c r="A870" s="15"/>
     </row>
     <row r="871">
-      <c r="A871" s="13"/>
+      <c r="A871" s="15"/>
     </row>
     <row r="872">
-      <c r="A872" s="13"/>
+      <c r="A872" s="15"/>
     </row>
     <row r="873">
-      <c r="A873" s="13"/>
+      <c r="A873" s="15"/>
     </row>
     <row r="874">
-      <c r="A874" s="13"/>
+      <c r="A874" s="15"/>
     </row>
     <row r="875">
-      <c r="A875" s="13"/>
+      <c r="A875" s="15"/>
     </row>
     <row r="876">
-      <c r="A876" s="13"/>
+      <c r="A876" s="15"/>
     </row>
     <row r="877">
-      <c r="A877" s="13"/>
+      <c r="A877" s="15"/>
     </row>
     <row r="878">
-      <c r="A878" s="13"/>
+      <c r="A878" s="15"/>
     </row>
     <row r="879">
-      <c r="A879" s="13"/>
+      <c r="A879" s="15"/>
     </row>
     <row r="880">
-      <c r="A880" s="13"/>
+      <c r="A880" s="15"/>
     </row>
     <row r="881">
-      <c r="A881" s="13"/>
+      <c r="A881" s="15"/>
     </row>
     <row r="882">
-      <c r="A882" s="13"/>
+      <c r="A882" s="15"/>
     </row>
     <row r="883">
-      <c r="A883" s="13"/>
+      <c r="A883" s="15"/>
     </row>
     <row r="884">
-      <c r="A884" s="13"/>
+      <c r="A884" s="15"/>
     </row>
     <row r="885">
-      <c r="A885" s="13"/>
+      <c r="A885" s="15"/>
     </row>
     <row r="886">
-      <c r="A886" s="13"/>
+      <c r="A886" s="15"/>
     </row>
     <row r="887">
-      <c r="A887" s="13"/>
+      <c r="A887" s="15"/>
     </row>
     <row r="888">
-      <c r="A888" s="13"/>
+      <c r="A888" s="15"/>
     </row>
     <row r="889">
-      <c r="A889" s="13"/>
+      <c r="A889" s="15"/>
     </row>
     <row r="890">
-      <c r="A890" s="13"/>
+      <c r="A890" s="15"/>
     </row>
     <row r="891">
-      <c r="A891" s="13"/>
+      <c r="A891" s="15"/>
     </row>
     <row r="892">
-      <c r="A892" s="13"/>
+      <c r="A892" s="15"/>
     </row>
     <row r="893">
-      <c r="A893" s="13"/>
+      <c r="A893" s="15"/>
     </row>
     <row r="894">
-      <c r="A894" s="13"/>
+      <c r="A894" s="15"/>
     </row>
     <row r="895">
-      <c r="A895" s="13"/>
+      <c r="A895" s="15"/>
     </row>
     <row r="896">
-      <c r="A896" s="13"/>
+      <c r="A896" s="15"/>
     </row>
     <row r="897">
-      <c r="A897" s="13"/>
+      <c r="A897" s="15"/>
     </row>
     <row r="898">
-      <c r="A898" s="13"/>
+      <c r="A898" s="15"/>
     </row>
     <row r="899">
-      <c r="A899" s="13"/>
+      <c r="A899" s="15"/>
     </row>
     <row r="900">
-      <c r="A900" s="13"/>
+      <c r="A900" s="15"/>
     </row>
     <row r="901">
-      <c r="A901" s="13"/>
+      <c r="A901" s="15"/>
     </row>
     <row r="902">
-      <c r="A902" s="13"/>
+      <c r="A902" s="15"/>
     </row>
     <row r="903">
-      <c r="A903" s="13"/>
+      <c r="A903" s="15"/>
     </row>
     <row r="904">
-      <c r="A904" s="13"/>
+      <c r="A904" s="15"/>
     </row>
     <row r="905">
-      <c r="A905" s="13"/>
+      <c r="A905" s="15"/>
     </row>
     <row r="906">
-      <c r="A906" s="13"/>
+      <c r="A906" s="15"/>
     </row>
     <row r="907">
-      <c r="A907" s="13"/>
+      <c r="A907" s="15"/>
     </row>
     <row r="908">
-      <c r="A908" s="13"/>
+      <c r="A908" s="15"/>
     </row>
     <row r="909">
-      <c r="A909" s="13"/>
+      <c r="A909" s="15"/>
     </row>
     <row r="910">
-      <c r="A910" s="13"/>
+      <c r="A910" s="15"/>
     </row>
     <row r="911">
-      <c r="A911" s="13"/>
+      <c r="A911" s="15"/>
     </row>
     <row r="912">
-      <c r="A912" s="13"/>
+      <c r="A912" s="15"/>
     </row>
     <row r="913">
-      <c r="A913" s="13"/>
+      <c r="A913" s="15"/>
     </row>
     <row r="914">
-      <c r="A914" s="13"/>
+      <c r="A914" s="15"/>
     </row>
     <row r="915">
-      <c r="A915" s="13"/>
+      <c r="A915" s="15"/>
     </row>
     <row r="916">
-      <c r="A916" s="13"/>
+      <c r="A916" s="15"/>
     </row>
     <row r="917">
-      <c r="A917" s="13"/>
+      <c r="A917" s="15"/>
     </row>
     <row r="918">
-      <c r="A918" s="13"/>
+      <c r="A918" s="15"/>
     </row>
     <row r="919">
-      <c r="A919" s="13"/>
+      <c r="A919" s="15"/>
     </row>
     <row r="920">
-      <c r="A920" s="13"/>
+      <c r="A920" s="15"/>
     </row>
     <row r="921">
-      <c r="A921" s="13"/>
+      <c r="A921" s="15"/>
     </row>
     <row r="922">
-      <c r="A922" s="13"/>
+      <c r="A922" s="15"/>
     </row>
     <row r="923">
-      <c r="A923" s="13"/>
+      <c r="A923" s="15"/>
     </row>
     <row r="924">
-      <c r="A924" s="13"/>
+      <c r="A924" s="15"/>
     </row>
     <row r="925">
-      <c r="A925" s="13"/>
+      <c r="A925" s="15"/>
     </row>
     <row r="926">
-      <c r="A926" s="13"/>
+      <c r="A926" s="15"/>
     </row>
     <row r="927">
-      <c r="A927" s="13"/>
+      <c r="A927" s="15"/>
     </row>
     <row r="928">
-      <c r="A928" s="13"/>
+      <c r="A928" s="15"/>
     </row>
     <row r="929">
-      <c r="A929" s="13"/>
+      <c r="A929" s="15"/>
     </row>
     <row r="930">
-      <c r="A930" s="13"/>
+      <c r="A930" s="15"/>
     </row>
     <row r="931">
-      <c r="A931" s="13"/>
+      <c r="A931" s="15"/>
     </row>
     <row r="932">
-      <c r="A932" s="13"/>
+      <c r="A932" s="15"/>
     </row>
     <row r="933">
-      <c r="A933" s="13"/>
+      <c r="A933" s="15"/>
     </row>
     <row r="934">
-      <c r="A934" s="13"/>
+      <c r="A934" s="15"/>
     </row>
     <row r="935">
-      <c r="A935" s="13"/>
+      <c r="A935" s="15"/>
     </row>
     <row r="936">
-      <c r="A936" s="13"/>
+      <c r="A936" s="15"/>
     </row>
     <row r="937">
-      <c r="A937" s="13"/>
+      <c r="A937" s="15"/>
     </row>
     <row r="938">
-      <c r="A938" s="13"/>
+      <c r="A938" s="15"/>
     </row>
     <row r="939">
-      <c r="A939" s="13"/>
+      <c r="A939" s="15"/>
     </row>
     <row r="940">
-      <c r="A940" s="13"/>
+      <c r="A940" s="15"/>
     </row>
     <row r="941">
-      <c r="A941" s="13"/>
+      <c r="A941" s="15"/>
     </row>
     <row r="942">
-      <c r="A942" s="13"/>
+      <c r="A942" s="15"/>
     </row>
     <row r="943">
-      <c r="A943" s="13"/>
+      <c r="A943" s="15"/>
     </row>
     <row r="944">
-      <c r="A944" s="13"/>
+      <c r="A944" s="15"/>
     </row>
     <row r="945">
-      <c r="A945" s="13"/>
+      <c r="A945" s="15"/>
     </row>
     <row r="946">
-      <c r="A946" s="13"/>
+      <c r="A946" s="15"/>
     </row>
     <row r="947">
-      <c r="A947" s="13"/>
+      <c r="A947" s="15"/>
     </row>
     <row r="948">
-      <c r="A948" s="13"/>
+      <c r="A948" s="15"/>
     </row>
     <row r="949">
-      <c r="A949" s="13"/>
+      <c r="A949" s="15"/>
     </row>
     <row r="950">
-      <c r="A950" s="13"/>
+      <c r="A950" s="15"/>
     </row>
     <row r="951">
-      <c r="A951" s="13"/>
+      <c r="A951" s="15"/>
     </row>
     <row r="952">
-      <c r="A952" s="13"/>
+      <c r="A952" s="15"/>
     </row>
     <row r="953">
-      <c r="A953" s="13"/>
+      <c r="A953" s="15"/>
     </row>
     <row r="954">
-      <c r="A954" s="13"/>
+      <c r="A954" s="15"/>
     </row>
     <row r="955">
-      <c r="A955" s="13"/>
+      <c r="A955" s="15"/>
     </row>
     <row r="956">
-      <c r="A956" s="13"/>
+      <c r="A956" s="15"/>
     </row>
     <row r="957">
-      <c r="A957" s="13"/>
+      <c r="A957" s="15"/>
     </row>
     <row r="958">
-      <c r="A958" s="13"/>
+      <c r="A958" s="15"/>
     </row>
     <row r="959">
-      <c r="A959" s="13"/>
+      <c r="A959" s="15"/>
     </row>
     <row r="960">
-      <c r="A960" s="13"/>
+      <c r="A960" s="15"/>
     </row>
     <row r="961">
-      <c r="A961" s="13"/>
+      <c r="A961" s="15"/>
     </row>
     <row r="962">
-      <c r="A962" s="13"/>
+      <c r="A962" s="15"/>
     </row>
     <row r="963">
-      <c r="A963" s="13"/>
+      <c r="A963" s="15"/>
     </row>
     <row r="964">
-      <c r="A964" s="13"/>
+      <c r="A964" s="15"/>
     </row>
     <row r="965">
-      <c r="A965" s="13"/>
+      <c r="A965" s="15"/>
     </row>
     <row r="966">
-      <c r="A966" s="13"/>
+      <c r="A966" s="15"/>
     </row>
     <row r="967">
-      <c r="A967" s="13"/>
+      <c r="A967" s="15"/>
     </row>
     <row r="968">
-      <c r="A968" s="13"/>
+      <c r="A968" s="15"/>
     </row>
     <row r="969">
-      <c r="A969" s="13"/>
+      <c r="A969" s="15"/>
     </row>
     <row r="970">
-      <c r="A970" s="13"/>
+      <c r="A970" s="15"/>
     </row>
     <row r="971">
-      <c r="A971" s="13"/>
+      <c r="A971" s="15"/>
     </row>
     <row r="972">
-      <c r="A972" s="13"/>
+      <c r="A972" s="15"/>
     </row>
     <row r="973">
-      <c r="A973" s="13"/>
+      <c r="A973" s="15"/>
     </row>
     <row r="974">
-      <c r="A974" s="13"/>
+      <c r="A974" s="15"/>
     </row>
     <row r="975">
-      <c r="A975" s="13"/>
+      <c r="A975" s="15"/>
     </row>
     <row r="976">
-      <c r="A976" s="13"/>
+      <c r="A976" s="15"/>
     </row>
     <row r="977">
-      <c r="A977" s="13"/>
+      <c r="A977" s="15"/>
     </row>
     <row r="978">
-      <c r="A978" s="13"/>
+      <c r="A978" s="15"/>
     </row>
     <row r="979">
-      <c r="A979" s="13"/>
+      <c r="A979" s="15"/>
     </row>
     <row r="980">
-      <c r="A980" s="13"/>
+      <c r="A980" s="15"/>
     </row>
     <row r="981">
-      <c r="A981" s="13"/>
+      <c r="A981" s="15"/>
     </row>
     <row r="982">
-      <c r="A982" s="13"/>
+      <c r="A982" s="15"/>
     </row>
     <row r="983">
-      <c r="A983" s="13"/>
+      <c r="A983" s="15"/>
     </row>
     <row r="984">
-      <c r="A984" s="13"/>
+      <c r="A984" s="15"/>
     </row>
     <row r="985">
-      <c r="A985" s="13"/>
+      <c r="A985" s="15"/>
     </row>
     <row r="986">
-      <c r="A986" s="13"/>
+      <c r="A986" s="15"/>
     </row>
     <row r="987">
-      <c r="A987" s="13"/>
+      <c r="A987" s="15"/>
     </row>
     <row r="988">
-      <c r="A988" s="13"/>
+      <c r="A988" s="15"/>
     </row>
     <row r="989">
-      <c r="A989" s="13"/>
+      <c r="A989" s="15"/>
     </row>
     <row r="990">
-      <c r="A990" s="13"/>
+      <c r="A990" s="15"/>
     </row>
     <row r="991">
-      <c r="A991" s="13"/>
+      <c r="A991" s="15"/>
     </row>
     <row r="992">
-      <c r="A992" s="13"/>
+      <c r="A992" s="15"/>
     </row>
     <row r="993">
-      <c r="A993" s="13"/>
+      <c r="A993" s="15"/>
     </row>
     <row r="994">
-      <c r="A994" s="13"/>
+      <c r="A994" s="15"/>
     </row>
     <row r="995">
-      <c r="A995" s="13"/>
+      <c r="A995" s="15"/>
     </row>
     <row r="996">
-      <c r="A996" s="13"/>
+      <c r="A996" s="15"/>
     </row>
     <row r="997">
-      <c r="A997" s="13"/>
+      <c r="A997" s="15"/>
     </row>
     <row r="998">
-      <c r="A998" s="13"/>
+      <c r="A998" s="15"/>
     </row>
     <row r="999">
-      <c r="A999" s="13"/>
+      <c r="A999" s="15"/>
     </row>
     <row r="1000">
-      <c r="A1000" s="13"/>
+      <c r="A1000" s="15"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -10046,7 +10174,7 @@
         <v>9</v>
       </c>
       <c r="J2" s="12" t="s">
-        <v>233</v>
+        <v>246</v>
       </c>
       <c r="K2" s="12" t="s">
         <v>11</v>
@@ -10151,7 +10279,7 @@
         <v>44</v>
       </c>
       <c r="AS2" s="12" t="s">
-        <v>234</v>
+        <v>247</v>
       </c>
       <c r="AT2" s="12" t="s">
         <v>46</v>
@@ -10642,67 +10770,67 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="12" t="s">
-        <v>235</v>
+        <v>248</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="12" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="12" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="12" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="12" t="s">
-        <v>239</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="12" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="12" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="12" t="s">
-        <v>242</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="12" t="s">
-        <v>243</v>
+        <v>256</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="12" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="12" t="s">
-        <v>245</v>
+        <v>258</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="12" t="s">
-        <v>246</v>
+        <v>259</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="12" t="s">
-        <v>247</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -10725,7 +10853,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="12" t="s">
-        <v>237</v>
+        <v>250</v>
       </c>
     </row>
     <row r="2">
@@ -10735,42 +10863,42 @@
     </row>
     <row r="3">
       <c r="A3" s="12" t="s">
-        <v>248</v>
+        <v>261</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="12" t="s">
-        <v>249</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="12" t="s">
-        <v>250</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="12" t="s">
-        <v>251</v>
+        <v>264</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="12" t="s">
-        <v>252</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="12" t="s">
-        <v>253</v>
+        <v>266</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="12" t="s">
-        <v>254</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="12" t="s">
-        <v>255</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -10793,12 +10921,12 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="12" t="s">
-        <v>256</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="12" t="s">
-        <v>257</v>
+        <v>270</v>
       </c>
     </row>
   </sheetData>
@@ -10820,93 +10948,93 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="14" t="s">
-        <v>258</v>
+      <c r="A1" s="16" t="s">
+        <v>271</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="12" t="s">
-        <v>259</v>
+        <v>272</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="12" t="s">
-        <v>260</v>
+        <v>273</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="12" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="12" t="s">
-        <v>262</v>
+        <v>275</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="12" t="s">
-        <v>263</v>
+        <v>276</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="12" t="s">
-        <v>264</v>
+        <v>277</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="12" t="s">
-        <v>265</v>
+        <v>278</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="12" t="s">
-        <v>266</v>
+        <v>279</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="12" t="s">
-        <v>267</v>
+        <v>280</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="12" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="12" t="s">
-        <v>269</v>
+        <v>282</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="12" t="s">
-        <v>270</v>
+        <v>283</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="12" t="s">
-        <v>271</v>
+        <v>284</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="12" t="s">
-        <v>272</v>
+        <v>285</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="12" t="s">
-        <v>273</v>
+        <v>286</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="12" t="s">
-        <v>274</v>
+        <v>287</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="12" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
     </row>
   </sheetData>
